--- a/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116" tabRatio="732" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116" tabRatio="732"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -17,22 +17,25 @@
     <sheet name="機能" sheetId="4" r:id="rId3"/>
     <sheet name="画面１" sheetId="1" r:id="rId4"/>
     <sheet name="画面２" sheetId="10" r:id="rId5"/>
-    <sheet name="画面3" sheetId="16" r:id="rId6"/>
-    <sheet name="論理データ" sheetId="11" r:id="rId7"/>
-    <sheet name="表紙_詳細" sheetId="14" r:id="rId8"/>
-    <sheet name="処理" sheetId="8" r:id="rId9"/>
-    <sheet name="物理データ" sheetId="12" r:id="rId10"/>
+    <sheet name="画面3" sheetId="17" r:id="rId6"/>
+    <sheet name="画面4" sheetId="16" r:id="rId7"/>
+    <sheet name="論理データ" sheetId="11" r:id="rId8"/>
+    <sheet name="表紙_詳細" sheetId="14" r:id="rId9"/>
+    <sheet name="処理" sheetId="8" r:id="rId10"/>
+    <sheet name="物理データ" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">機能!$D$7:$O$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">画面２!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">画面3!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">画面4!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">機能!$A$1:$P$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">処理!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">処理!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_基本!$A$1:$Q$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">表紙_詳細!$A$1:$Q$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">表紙_詳細!$A$1:$Q$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">画面２!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">画面3!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">画面4!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -66,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="133">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -966,14 +969,6 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1404,6 +1399,51 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滞在画面</t>
+    <rPh sb="0" eb="2">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滞在している学生、[今いる！][退出]ボタンを表示</t>
+    <rPh sb="0" eb="2">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タイシュツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1904,7 +1944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2100,6 +2140,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2190,7 +2236,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2199,19 +2251,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2223,10 +2272,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2234,9 +2280,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2256,10 +2299,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2538,7 +2584,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>5 </a:t>
+            <a:t>3</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -2634,8 +2680,8 @@
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>773207</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>112199</xdr:rowOff>
     </xdr:to>
@@ -2646,8 +2692,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3664324" y="4179793"/>
-          <a:ext cx="1098177" cy="493200"/>
+          <a:off x="3324562" y="4169484"/>
+          <a:ext cx="1117898" cy="491855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2690,7 +2736,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>4 </a:t>
+            <a:t>2 </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -2812,13 +2858,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>268940</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:rowOff>78436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>67377</xdr:rowOff>
+      <xdr:rowOff>67370</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2827,8 +2873,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3119716" y="3332630"/>
-          <a:ext cx="1320055" cy="499923"/>
+          <a:off x="3134060" y="3286456"/>
+          <a:ext cx="1323640" cy="491854"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -2919,15 +2965,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
+      <xdr:colOff>224743</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>67376</xdr:rowOff>
+      <xdr:rowOff>67370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>224120</xdr:colOff>
+      <xdr:colOff>317350</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>123263</xdr:rowOff>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2939,8 +2985,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4017381" y="3983760"/>
-          <a:ext cx="392063" cy="2"/>
+          <a:off x="3641620" y="3927593"/>
+          <a:ext cx="391174" cy="92607"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2971,15 +3017,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
+      <xdr:colOff>64098</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>67378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>459442</xdr:colOff>
+      <xdr:colOff>459443</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>33687</xdr:rowOff>
+      <xdr:rowOff>33912</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2991,8 +3037,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2442882" y="3787731"/>
-          <a:ext cx="1221442" cy="638662"/>
+          <a:off x="2228178" y="3778318"/>
+          <a:ext cx="1096385" cy="637094"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3458,8 +3504,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6345219" y="1833282"/>
-          <a:ext cx="835510" cy="385482"/>
+          <a:off x="6366734" y="1811318"/>
+          <a:ext cx="839096" cy="380104"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -3594,6 +3640,171 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="カギ線コネクタ 81"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1973580" y="3771900"/>
+          <a:ext cx="22860" cy="1554480"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="カギ線コネクタ 129"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1965960" y="3778316"/>
+          <a:ext cx="3372074" cy="1525204"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="テキスト ボックス 145"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="5387340"/>
+          <a:ext cx="1127760" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>退出</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>リンク押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4466,15 +4677,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>28686</xdr:colOff>
+      <xdr:colOff>1792</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>87407</xdr:rowOff>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>130636</xdr:colOff>
+      <xdr:colOff>103742</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>20171</xdr:rowOff>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4483,8 +4694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="593462" y="1297642"/>
-          <a:ext cx="5884186" cy="3850341"/>
+          <a:off x="573292" y="1274782"/>
+          <a:ext cx="5900770" cy="3788484"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4531,8 +4742,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1792</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>212910</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
@@ -4549,8 +4760,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="566568" y="1288676"/>
-          <a:ext cx="5870090" cy="215153"/>
+          <a:off x="571050" y="1274781"/>
+          <a:ext cx="5888916" cy="212463"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4591,6 +4802,350 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2691</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>616325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1454973" y="1662954"/>
+          <a:ext cx="4109870" cy="602876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>滞在管理システム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6628055" y="1297193"/>
+          <a:ext cx="2472915" cy="3777279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　実装にあたっての注意事項　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログインに失敗した場合この画面を表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>戻るボタンを押すことでログイン画面に戻る。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>230843</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>309284</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91888</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3081619" y="3982570"/>
+          <a:ext cx="777689" cy="385483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>53789</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>71716</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="618565" y="2698376"/>
+          <a:ext cx="5800163" cy="878542"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログインに失敗しました</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -4688,36 +5243,12 @@
             <a:buAutoNum type="circleNumDbPlain"/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>36</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>桁まで入力可能とする。</a:t>
+            <a:t>現在研究室にいる学生を濃い太文字で表記する。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -4736,15 +5267,67 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>パスワードは</a:t>
+            <a:t>ログインした学生が</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>36</a:t>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>今いる！</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ボタン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を押すことで</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -4752,34 +5335,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>桁まで入力可能として文字は「*」で表示する。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Enter</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>キーの押下にてログインボタンの押下と同様の動作を行う。</a:t>
+            <a:t>滞在表記とする。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -4798,7 +5354,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>各入力枠に対して</a:t>
+            <a:t>ログインした学生が</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -4806,7 +5362,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>SQL</a:t>
+            <a:t>[</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -4814,7 +5370,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>インジェクションを防止する内部機構を講じる。</a:t>
+            <a:t>退出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボタンを押すことで滞在表記を取り消し、ログアウト処理を行い、ログイン画面へ遷移する。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -4828,34 +5400,673 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>466164</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>80682</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>92986</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31376</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="角丸四角形 13"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4132729" y="1622612"/>
-          <a:ext cx="1981200" cy="690282"/>
+          <a:off x="555812" y="1308847"/>
+          <a:ext cx="5884186" cy="3850341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5132</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>92986</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="569908" y="1308847"/>
+          <a:ext cx="5870090" cy="215153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>222327</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>430305</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="角丸四角形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3073103" y="1696569"/>
+          <a:ext cx="1606473" cy="643219"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>今いる！</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>98068</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>556850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Object 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5046586" y="2523020"/>
+          <a:ext cx="1158029" cy="1843437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>103681</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>562462</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>81956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Object 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="856716" y="2523021"/>
+          <a:ext cx="1158028" cy="1835100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>154405</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>116312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>613187</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Object 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305934" y="2518853"/>
+          <a:ext cx="1158029" cy="1847604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>126236</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>116313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>585018</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>93725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Object 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3676260" y="2518854"/>
+          <a:ext cx="1158029" cy="1851036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>654423</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="角丸四角形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4903694" y="1685364"/>
+          <a:ext cx="1416423" cy="654424"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
@@ -4884,287 +6095,163 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>今いる！</a:t>
+            <a:t>退出</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>285078</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>17930</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>549985</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>113404</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14344" name="Object 8" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s14344"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>373380</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14346" name="Object 10" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s14346"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>388620</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>617220</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14347" name="Object 11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s14347"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>441960</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>662940</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14349" name="Object 13" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s14349"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5213,7 +6300,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7297,8 +8384,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7312,7 +8399,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -7328,12 +8415,12 @@
       <c r="M1" s="49"/>
       <c r="N1" s="49"/>
       <c r="O1" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="66"/>
+      <c r="Q1" s="68"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="50"/>
@@ -7350,11 +8437,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="78"/>
+      <c r="O2" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="80"/>
     </row>
     <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A3" s="50"/>
@@ -7399,17 +8486,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
+      <c r="E5" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -7420,15 +8507,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -7439,15 +8526,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -7495,19 +8582,19 @@
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
+      <c r="D10" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
@@ -7516,17 +8603,17 @@
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
@@ -7535,17 +8622,17 @@
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
@@ -7555,17 +8642,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
+      <c r="E13" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -7576,15 +8663,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -7595,15 +8682,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -7614,15 +8701,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -7633,15 +8720,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -7672,15 +8759,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="46"/>
-      <c r="F19" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
+      <c r="F19" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
       <c r="M19" s="47"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -7693,13 +8780,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="47"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
       <c r="M20" s="47"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -7712,13 +8799,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="47"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
       <c r="M21" s="47"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -7731,13 +8818,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="47"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
       <c r="M22" s="47"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -7750,13 +8837,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="47"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
       <c r="M23" s="47"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -7769,13 +8856,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="47"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
       <c r="M24" s="47"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -7788,13 +8875,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="47"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
       <c r="M25" s="47"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -7807,13 +8894,13 @@
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
       <c r="E26" s="47"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
       <c r="M26" s="47"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -7869,14 +8956,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="81"/>
+      <c r="K29" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="83"/>
       <c r="Q29" s="51"/>
     </row>
     <row r="30" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
@@ -7890,18 +8977,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68" t="s">
+      <c r="K30" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="P30" s="73"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="P30" s="75"/>
       <c r="Q30" s="51"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -7915,12 +9002,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="74"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="76"/>
       <c r="Q31" s="51"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -7934,12 +9021,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="74"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="76"/>
       <c r="Q32" s="51"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -7953,12 +9040,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="74"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="76"/>
       <c r="Q33" s="51"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -7972,12 +9059,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="74"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="76"/>
       <c r="Q34" s="51"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -7991,12 +9078,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="74"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="76"/>
       <c r="Q35" s="51"/>
     </row>
     <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -8010,12 +9097,12 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="75"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="77"/>
       <c r="Q36" s="51"/>
     </row>
     <row r="37" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -8055,7 +9142,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -8063,6 +9150,782 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
+        <f>表紙_基本!D10</f>
+        <v>（システム名をここに記入）</v>
+      </c>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="119" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="72">
+        <v>3</v>
+      </c>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="119" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -8085,26 +9948,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（システム名をここに記入）</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -8229,24 +10092,24 @@
       <c r="D8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="105"/>
+      <c r="G8" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="36" t="s">
+      <c r="I8" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="107" t="s">
+      <c r="J8" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
@@ -8260,14 +10123,14 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="93"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="2"/>
@@ -8281,14 +10144,14 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="93"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="2"/>
@@ -8302,14 +10165,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="93"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="2"/>
@@ -8323,14 +10186,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="2"/>
@@ -8344,14 +10207,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="93"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="2"/>
@@ -8365,14 +10228,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="93"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="93"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="2"/>
@@ -8386,14 +10249,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="93"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="2"/>
@@ -8407,14 +10270,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="93"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="93"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" s="2"/>
@@ -8428,14 +10291,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="93"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="93"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -8449,14 +10312,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="93"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="93"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -8470,14 +10333,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="93"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="93"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -8491,14 +10354,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="89"/>
-      <c r="F20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="93"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="93"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -8512,14 +10375,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="93"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="93"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -8533,14 +10396,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="89"/>
-      <c r="F22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="93"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="93"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -8554,14 +10417,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="89"/>
-      <c r="F23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="93"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="93"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -8575,14 +10438,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="93"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="93"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -8596,14 +10459,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="89"/>
-      <c r="F25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="93"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="93"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -8617,14 +10480,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="89"/>
-      <c r="F26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="93"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="93"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -8866,12 +10729,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -8888,25 +10764,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8925,7 +10788,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8943,26 +10806,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（システム名をここに記入）</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -9018,7 +10881,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -9107,7 +10970,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -9167,7 +11030,7 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -9663,26 +11526,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（システム名をここに記入）</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -9785,20 +11648,20 @@
       <c r="D7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="97" t="s">
+      <c r="F7" s="103"/>
+      <c r="G7" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="98"/>
-      <c r="I7" s="97" t="s">
+      <c r="H7" s="103"/>
+      <c r="I7" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="98"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="103"/>
       <c r="M7" s="39" t="s">
         <v>26</v>
       </c>
@@ -9820,20 +11683,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="96"/>
-      <c r="G8" s="95" t="s">
+      <c r="F8" s="100"/>
+      <c r="G8" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="96"/>
-      <c r="I8" s="95" t="s">
+      <c r="H8" s="100"/>
+      <c r="I8" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="96"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="100"/>
       <c r="M8" s="23" t="s">
         <v>35</v>
       </c>
@@ -9856,18 +11719,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="95" t="s">
+      <c r="E9" s="98"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="96"/>
-      <c r="I9" s="95" t="s">
+      <c r="H9" s="100"/>
+      <c r="I9" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="96"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
       <c r="M9" s="23" t="s">
         <v>36</v>
       </c>
@@ -9890,18 +11753,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="95" t="s">
+      <c r="E10" s="98"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="95" t="s">
+      <c r="H10" s="100"/>
+      <c r="I10" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="96"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="100"/>
       <c r="M10" s="23" t="s">
         <v>37</v>
       </c>
@@ -9924,18 +11787,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="95" t="s">
+      <c r="E11" s="98"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="96"/>
-      <c r="I11" s="95" t="s">
+      <c r="H11" s="100"/>
+      <c r="I11" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="96"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="100"/>
       <c r="M11" s="23" t="s">
         <v>94</v>
       </c>
@@ -9958,18 +11821,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="95" t="s">
+      <c r="F12" s="100"/>
+      <c r="G12" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="96"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="96"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="100"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
@@ -9986,14 +11849,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="96"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
@@ -10010,14 +11873,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="96"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="100"/>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
@@ -10034,14 +11897,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="96"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="100"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
@@ -10058,14 +11921,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="96"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
@@ -10082,14 +11945,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="96"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="100"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
@@ -10106,14 +11969,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="96"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="100"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
@@ -10130,14 +11993,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="96"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="100"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -10154,14 +12017,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="96"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="100"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -10178,14 +12041,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="96"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="100"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -10199,14 +12062,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="44" t="s">
@@ -10544,41 +12407,6 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -10595,6 +12423,41 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -10624,8 +12487,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -10640,26 +12503,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（システム名をここに記入）</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -10740,24 +12603,24 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="109"/>
+      <c r="E6" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="98"/>
-      <c r="G6" s="107" t="s">
+      <c r="F6" s="103"/>
+      <c r="G6" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -10766,21 +12629,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="104" t="s">
+      <c r="D7" s="106"/>
+      <c r="E7" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106" t="s">
+      <c r="F7" s="108"/>
+      <c r="G7" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -10790,21 +12653,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104" t="s">
+      <c r="C8" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="106"/>
+      <c r="E8" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106" t="s">
+      <c r="F8" s="108"/>
+      <c r="G8" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -10814,19 +12677,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="104" t="s">
+      <c r="C9" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="106"/>
+      <c r="E9" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -10836,15 +12701,15 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -10854,15 +12719,15 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -10872,15 +12737,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -10890,15 +12755,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -10908,18 +12773,18 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -10928,15 +12793,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -11383,16 +13248,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -11409,13 +13271,16 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11435,7 +13300,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -11450,26 +13315,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（システム名をここに記入）</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -11569,7 +13434,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>91</v>
@@ -12180,14 +14045,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AK14" sqref="AK14"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -12202,33 +14067,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（システム名をここに記入）</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="64" t="s">
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="64" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="66" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
@@ -12321,10 +14186,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -12873,6 +14738,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -12927,113 +14793,761 @@
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="14344" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>281940</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>548640</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="14344" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="14346" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>373380</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="14346" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="14347" r:id="rId8">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>388620</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>617220</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="14347" r:id="rId8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="14349" r:id="rId10">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>662940</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="14349" r:id="rId10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
+        <f>表紙_基本!D10</f>
+        <v>（システム名をここに記入）</v>
+      </c>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -13056,26 +15570,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（システム名をここに記入）</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -13137,7 +15651,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -13176,17 +15690,17 @@
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="98"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="97" t="s">
+      <c r="I7" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="101"/>
-      <c r="K7" s="98"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="103"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -13201,18 +15715,18 @@
       <c r="E8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="97" t="s">
+      <c r="F8" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="98"/>
+      <c r="G8" s="103"/>
       <c r="H8" s="26"/>
       <c r="I8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="97" t="s">
+      <c r="J8" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="98"/>
+      <c r="K8" s="103"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -13227,18 +15741,18 @@
       <c r="E9" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="109"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="26"/>
       <c r="I9" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="108" t="s">
+      <c r="J9" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="109"/>
+      <c r="K9" s="111"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -13251,16 +15765,16 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="108" t="s">
+      <c r="F10" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="109"/>
+      <c r="G10" s="111"/>
       <c r="H10" s="26"/>
       <c r="I10" s="32"/>
-      <c r="J10" s="108" t="s">
+      <c r="J10" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="109"/>
+      <c r="K10" s="111"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -13273,16 +15787,16 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="108" t="s">
+      <c r="F11" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="109"/>
+      <c r="G11" s="111"/>
       <c r="H11" s="26"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="108" t="s">
+      <c r="J11" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="109"/>
+      <c r="K11" s="111"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -13297,16 +15811,16 @@
       <c r="E12" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="108" t="s">
+      <c r="F12" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="109"/>
+      <c r="G12" s="111"/>
       <c r="H12" s="26"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="108" t="s">
+      <c r="J12" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="109"/>
+      <c r="K12" s="111"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -13319,14 +15833,14 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="108" t="s">
+      <c r="F13" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="109"/>
+      <c r="G13" s="111"/>
       <c r="H13" s="26"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="109"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="111"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -13339,14 +15853,14 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="109"/>
+      <c r="G14" s="111"/>
       <c r="H14" s="26"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="109"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="111"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -13359,12 +15873,12 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="109"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="111"/>
       <c r="H15" s="26"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="109"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="111"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -13377,12 +15891,12 @@
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="109"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="111"/>
       <c r="H16" s="2"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="109"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="111"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -13395,12 +15909,12 @@
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="109"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="111"/>
       <c r="H17" s="2"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="109"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="111"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -13805,15 +16319,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -13830,6 +16335,15 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13841,7 +16355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -13863,7 +16377,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -13879,12 +16393,12 @@
       <c r="M1" s="49"/>
       <c r="N1" s="49"/>
       <c r="O1" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="66"/>
+      <c r="Q1" s="68"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="50"/>
@@ -13901,11 +16415,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="78"/>
+      <c r="O2" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="80"/>
     </row>
     <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A3" s="50"/>
@@ -13950,17 +16464,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
+      <c r="E5" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -13971,15 +16485,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -13990,15 +16504,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -14046,20 +16560,20 @@
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="110" t="str">
+      <c r="D10" s="118" t="str">
         <f>表紙_基本!D10</f>
         <v>（システム名をここに記入）</v>
       </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
@@ -14068,17 +16582,17 @@
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="118"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
@@ -14087,17 +16601,17 @@
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="118"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
@@ -14107,17 +16621,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
+      <c r="E13" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -14128,15 +16642,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -14147,15 +16661,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -14166,15 +16680,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -14185,15 +16699,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -14224,15 +16738,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="46"/>
-      <c r="F19" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
+      <c r="F19" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
       <c r="M19" s="47"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -14245,13 +16759,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="47"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
       <c r="M20" s="47"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -14264,13 +16778,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="47"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
       <c r="M21" s="47"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -14283,13 +16797,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="47"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
       <c r="M22" s="47"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -14302,13 +16816,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="47"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
       <c r="M23" s="47"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -14321,13 +16835,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="47"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
       <c r="M24" s="47"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -14340,13 +16854,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="47"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
       <c r="M25" s="47"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -14400,16 +16914,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="81"/>
+      <c r="I28" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="83"/>
       <c r="Q28" s="51"/>
     </row>
     <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
@@ -14421,22 +16935,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="P29" s="73"/>
+      <c r="I29" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="75"/>
       <c r="Q29" s="51"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -14448,16 +16962,16 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="P30" s="112"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="112" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" s="113"/>
       <c r="Q30" s="51"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -14469,14 +16983,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="113"/>
-      <c r="P31" s="114"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="115"/>
       <c r="Q31" s="51"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -14488,14 +17002,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="114"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="115"/>
       <c r="Q32" s="51"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -14507,14 +17021,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="114"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="115"/>
       <c r="Q33" s="51"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -14526,14 +17040,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="114"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="115"/>
       <c r="Q34" s="51"/>
     </row>
     <row r="35" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -14545,14 +17059,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="115"/>
-      <c r="P35" s="116"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="116"/>
+      <c r="P35" s="117"/>
       <c r="Q35" s="51"/>
     </row>
     <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -14576,12 +17090,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -14591,6 +17099,12 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14599,780 +17113,4 @@
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:P39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89" t="str">
-        <f>表紙_基本!D10</f>
-        <v>（システム名をここに記入）</v>
-      </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="118" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="70">
-        <v>3</v>
-      </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="118" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Desktop\PM演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116" tabRatio="732" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116" tabRatio="732" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="146">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -764,37 +764,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>役職コード</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ作成日時</t>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ更新日時</t>
-    <rPh sb="3" eb="5">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -805,13 +774,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>役職名</t>
-    <rPh sb="0" eb="3">
-      <t>ヤクショクメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -921,32 +883,6 @@
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン失敗表示</t>
-    <rPh sb="4" eb="6">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン処理にてログインに失敗した場合に表示</t>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1419,25 +1355,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>滞在している学生、[今いる！][退出]ボタンを表示</t>
-    <rPh sb="0" eb="2">
-      <t>タイザイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>タイシュツ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（滞在管理システム）</t>
     <rPh sb="1" eb="3">
       <t>タイザイ</t>
@@ -1533,6 +1450,180 @@
     </rPh>
     <rPh sb="55" eb="57">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「戻る」ボタン処理</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン処理にてログインに失敗した場合にログイン失敗画面に遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン失敗画面の戻るボタンを押すことで、ログイン画面に遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン失敗画面遷移</t>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>現在「今いる！」ボタンを押している滞在ユーザーと非滞在ユーザを見極められる表記を行う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面内滞在表示</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滞在、非滞在学生を区別して表示
+[今いる！][退出]ボタンを表示</t>
+    <rPh sb="0" eb="2">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クベツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイシュツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属研究室名称</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>研究室番号</t>
+    <rPh sb="0" eb="3">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2041,7 +2132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2303,6 +2394,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2402,8 +2496,23 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2478,55 +2587,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>376518</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>750795</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>30705</xdr:rowOff>
+      <xdr:rowOff>68067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>583602</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>168536</xdr:rowOff>
+      <xdr:colOff>380579</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3717</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPr id="25" name="図 24"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2528047" y="3966211"/>
-          <a:ext cx="3057861" cy="2181784"/>
+          <a:off x="2386854" y="3620332"/>
+          <a:ext cx="3607872" cy="2120797"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2970,7 +3062,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3134060" y="3286456"/>
+          <a:off x="3134060" y="3446476"/>
           <a:ext cx="1323640" cy="491854"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
@@ -3601,7 +3693,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6366734" y="1811318"/>
+          <a:off x="6366734" y="1971338"/>
           <a:ext cx="839096" cy="380104"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
@@ -8491,7 +8583,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -8507,10 +8599,10 @@
       <c r="M1" s="49"/>
       <c r="N1" s="49"/>
       <c r="O1" s="62" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="P1" s="67" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Q1" s="68"/>
     </row>
@@ -8530,7 +8622,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="79" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P2" s="79"/>
       <c r="Q2" s="80"/>
@@ -8579,7 +8671,7 @@
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="84" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -8674,19 +8766,19 @@
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="120" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
+      <c r="D10" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
@@ -8695,17 +8787,17 @@
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
@@ -8714,17 +8806,17 @@
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
@@ -8735,7 +8827,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="86" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F13" s="86"/>
       <c r="G13" s="86"/>
@@ -8852,7 +8944,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="46"/>
       <c r="F19" s="78" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G19" s="78"/>
       <c r="H19" s="78"/>
@@ -9049,7 +9141,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="81" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L29" s="82"/>
       <c r="M29" s="82"/>
@@ -9070,15 +9162,15 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="69" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L30" s="70"/>
       <c r="M30" s="70" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="N30" s="70"/>
       <c r="O30" s="70" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="P30" s="75"/>
       <c r="Q30" s="51"/>
@@ -9264,26 +9356,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -9294,10 +9386,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9363,11 +9455,11 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="72">
         <v>3</v>
       </c>
@@ -9376,24 +9468,24 @@
       <c r="H6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
       <c r="L6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
       <c r="E7" s="72" t="s">
         <v>60</v>
       </c>
@@ -9402,15 +9494,15 @@
       <c r="H7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
       <c r="L7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -9610,7 +9702,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
       <c r="P18" s="43" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -9846,7 +9938,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
       <c r="P31" s="43" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -10025,7 +10117,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -10040,26 +10132,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="H1" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -10070,10 +10162,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10101,7 +10193,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10121,7 +10213,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -10159,10 +10251,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
@@ -10184,24 +10276,24 @@
       <c r="D8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="108" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="108"/>
+      <c r="E8" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="109"/>
       <c r="G8" s="36" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
+        <v>96</v>
+      </c>
+      <c r="J8" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
@@ -10215,14 +10307,14 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="92"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="92"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="93"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="2"/>
@@ -10236,14 +10328,14 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="92"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="93"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="2"/>
@@ -10257,14 +10349,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="92"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="93"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="92"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="2"/>
@@ -10278,14 +10370,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="92"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="92"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="2"/>
@@ -10299,14 +10391,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="92"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="93"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="2"/>
@@ -10320,14 +10412,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="92"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="93"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="93"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="2"/>
@@ -10341,14 +10433,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="92"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="92"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="93"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="2"/>
@@ -10362,14 +10454,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="92"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="93"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="92"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="93"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" s="2"/>
@@ -10383,14 +10475,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="92"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="93"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="92"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="93"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -10404,14 +10496,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="92"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="93"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="92"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="93"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -10425,14 +10517,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="92"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="93"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="92"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="93"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -10446,14 +10538,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="92"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="93"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="92"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="93"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -10467,14 +10559,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="92"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="93"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="92"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="93"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -10488,14 +10580,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="92"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="93"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="92"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="93"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -10509,14 +10601,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="92"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="93"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="92"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="93"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -10530,14 +10622,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="92"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="93"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="92"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="93"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -10551,14 +10643,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="92"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="93"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="92"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="93"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -10572,14 +10664,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="92"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="93"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="92"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="93"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -10880,7 +10972,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -10898,26 +10990,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -10928,10 +11020,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10973,7 +11065,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -11062,7 +11154,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -11122,7 +11214,7 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -11602,15 +11694,18 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:H15"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
     <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="15" width="10.21875" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="2.21875" style="1"/>
     <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
@@ -11618,26 +11713,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -11648,10 +11743,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11740,20 +11835,20 @@
       <c r="D7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="98" t="s">
+      <c r="F7" s="100"/>
+      <c r="G7" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="98" t="s">
+      <c r="H7" s="100"/>
+      <c r="I7" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="99"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="100"/>
       <c r="M7" s="39" t="s">
         <v>26</v>
       </c>
@@ -11764,7 +11859,7 @@
         <v>62</v>
       </c>
       <c r="P7" s="45" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11775,20 +11870,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="96" t="s">
+      <c r="F8" s="98"/>
+      <c r="G8" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="96" t="s">
+      <c r="H8" s="98"/>
+      <c r="I8" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="97"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="125"/>
       <c r="M8" s="23" t="s">
         <v>35</v>
       </c>
@@ -11811,18 +11906,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="96" t="s">
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="97"/>
-      <c r="I9" s="96" t="s">
+      <c r="H9" s="98"/>
+      <c r="I9" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="97"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="125"/>
       <c r="M9" s="23" t="s">
         <v>36</v>
       </c>
@@ -11833,11 +11928,11 @@
         <v>63</v>
       </c>
       <c r="P9" s="9">
-        <f t="shared" ref="P9:P21" si="1">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
+        <f t="shared" ref="P9:P16" si="1">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11845,18 +11940,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="96" t="s">
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="97"/>
-      <c r="I10" s="96" t="s">
+      <c r="H10" s="98"/>
+      <c r="I10" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="97"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
       <c r="M10" s="23" t="s">
         <v>37</v>
       </c>
@@ -11879,26 +11974,26 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="97"/>
-      <c r="I11" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="98"/>
+      <c r="I11" s="123" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="125"/>
       <c r="M11" s="23" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="P11" s="9">
         <f t="shared" si="1"/>
@@ -11913,26 +12008,32 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="96" t="s">
+      <c r="F12" s="98"/>
+      <c r="G12" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="97"/>
-      <c r="I12" s="96" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="123" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>138</v>
+      </c>
       <c r="P12" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11943,27 +12044,33 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="97"/>
-      <c r="I13" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="98"/>
+      <c r="I13" s="123" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>137</v>
+      </c>
       <c r="P13" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -11971,27 +12078,33 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="96" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="97"/>
-      <c r="I14" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="98"/>
+      <c r="I14" s="123" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="P14" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -11999,23 +12112,35 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
+      <c r="E15" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="98"/>
+      <c r="G15" s="121" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="P15" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -12023,20 +12148,32 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
+      <c r="E16" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="98"/>
+      <c r="G16" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>138</v>
+      </c>
       <c r="P16" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12047,19 +12184,19 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="98"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="P9:P21" si="2">IF(N17="",0,IF(O17="",0,IF(N17="低",$N$24,IF(N17="中",$N$25,$N$26))*IF(O17="小",$O$24,IF(O17="中",$O$25,$O$26))))</f>
         <v>0</v>
       </c>
     </row>
@@ -12071,19 +12208,19 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="96"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="98"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12095,19 +12232,19 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="98"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12119,19 +12256,19 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="96"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="98"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
       <c r="P20" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12143,19 +12280,19 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="98"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
       <c r="P21" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12164,22 +12301,22 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="44" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P22" s="9">
         <f>SUM(P8:P21)</f>
-        <v>680</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -12509,8 +12646,15 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:L15"/>
     <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="I19:L19"/>
@@ -12522,29 +12666,23 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
     <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
@@ -12554,7 +12692,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
@@ -12590,7 +12727,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -12605,26 +12742,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -12635,10 +12772,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12705,24 +12842,24 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="98" t="s">
+      <c r="D6" s="104"/>
+      <c r="E6" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="99"/>
-      <c r="G6" s="108" t="s">
+      <c r="F6" s="100"/>
+      <c r="G6" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -12731,21 +12868,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="104" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="105" t="s">
+      <c r="C7" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="105"/>
+      <c r="E7" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="106"/>
-      <c r="G7" s="107" t="s">
+      <c r="F7" s="107"/>
+      <c r="G7" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -12755,45 +12892,45 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="104" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105" t="s">
+      <c r="C8" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107" t="s">
+      <c r="F8" s="107"/>
+      <c r="G8" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="105" t="s">
+      <c r="D9" s="105"/>
+      <c r="E9" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -12803,15 +12940,15 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -12821,15 +12958,15 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -12839,15 +12976,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -12857,15 +12994,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -12875,18 +13012,18 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -12895,15 +13032,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -13417,26 +13554,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -13447,10 +13584,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13536,10 +13673,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -14153,7 +14290,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -14169,26 +14306,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="66" t="s">
         <v>2</v>
       </c>
@@ -14199,10 +14336,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14288,7 +14425,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>50</v>
@@ -14906,7 +15043,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -14921,26 +15058,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
@@ -14951,10 +15088,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15040,10 +15177,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -15656,8 +15793,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:G13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -15672,26 +15809,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -15702,10 +15839,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15753,7 +15890,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15792,17 +15929,17 @@
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="99"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="100"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="98" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="102"/>
-      <c r="K7" s="99"/>
+      <c r="I7" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="103"/>
+      <c r="K7" s="100"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -15817,18 +15954,18 @@
       <c r="E8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="99"/>
+      <c r="G8" s="100"/>
       <c r="H8" s="26"/>
       <c r="I8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="J8" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="99"/>
+      <c r="K8" s="100"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -15843,18 +15980,18 @@
       <c r="E9" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="109" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="110"/>
+      <c r="F9" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="111"/>
       <c r="H9" s="26"/>
       <c r="I9" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="110"/>
+      <c r="J9" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="111"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -15867,16 +16004,16 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="110"/>
+      <c r="F10" s="110" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="111"/>
       <c r="H10" s="26"/>
       <c r="I10" s="32"/>
-      <c r="J10" s="109" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="110"/>
+      <c r="J10" s="110" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="111"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -15889,16 +16026,14 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="110"/>
+      <c r="F11" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="111"/>
       <c r="H11" s="26"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="111"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -15910,19 +16045,15 @@
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="110"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="111"/>
       <c r="H12" s="26"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="109" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="111"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -15934,15 +16065,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="110"/>
+      <c r="E13" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="111"/>
       <c r="H13" s="26"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="111"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -15955,14 +16088,14 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="109" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="110"/>
+      <c r="F14" s="110" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="111"/>
       <c r="H14" s="26"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="111"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -15975,12 +16108,12 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="111"/>
       <c r="H15" s="26"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="111"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -15993,12 +16126,12 @@
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="111"/>
       <c r="H16" s="2"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="111"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -16011,12 +16144,12 @@
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="111"/>
       <c r="H17" s="2"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="111"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -16479,7 +16612,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -16495,10 +16628,10 @@
       <c r="M1" s="49"/>
       <c r="N1" s="49"/>
       <c r="O1" s="62" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="P1" s="67" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Q1" s="68"/>
     </row>
@@ -16518,7 +16651,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="79" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P2" s="79"/>
       <c r="Q2" s="80"/>
@@ -16567,7 +16700,7 @@
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="84" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -16662,20 +16795,20 @@
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="111" t="str">
+      <c r="D10" s="112" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
@@ -16684,17 +16817,17 @@
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
@@ -16703,17 +16836,17 @@
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
@@ -16724,7 +16857,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="86" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F13" s="86"/>
       <c r="G13" s="86"/>
@@ -16841,7 +16974,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="46"/>
       <c r="F19" s="78" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G19" s="78"/>
       <c r="H19" s="78"/>
@@ -17017,7 +17150,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="81" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J28" s="82"/>
       <c r="K28" s="82"/>
@@ -17038,19 +17171,19 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="69" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J29" s="70"/>
       <c r="K29" s="70" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L29" s="70"/>
       <c r="M29" s="70" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N29" s="70"/>
       <c r="O29" s="70" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="P29" s="75"/>
       <c r="Q29" s="51"/>
@@ -17070,10 +17203,10 @@
       <c r="L30" s="72"/>
       <c r="M30" s="72"/>
       <c r="N30" s="72"/>
-      <c r="O30" s="112" t="s">
-        <v>122</v>
-      </c>
-      <c r="P30" s="113"/>
+      <c r="O30" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="P30" s="114"/>
       <c r="Q30" s="51"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -17091,8 +17224,8 @@
       <c r="L31" s="72"/>
       <c r="M31" s="72"/>
       <c r="N31" s="72"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="115"/>
+      <c r="O31" s="115"/>
+      <c r="P31" s="116"/>
       <c r="Q31" s="51"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -17110,8 +17243,8 @@
       <c r="L32" s="72"/>
       <c r="M32" s="72"/>
       <c r="N32" s="72"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="115"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="116"/>
       <c r="Q32" s="51"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -17129,8 +17262,8 @@
       <c r="L33" s="72"/>
       <c r="M33" s="72"/>
       <c r="N33" s="72"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="115"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="116"/>
       <c r="Q33" s="51"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -17148,8 +17281,8 @@
       <c r="L34" s="72"/>
       <c r="M34" s="72"/>
       <c r="N34" s="72"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="115"/>
+      <c r="O34" s="115"/>
+      <c r="P34" s="116"/>
       <c r="Q34" s="51"/>
     </row>
     <row r="35" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -17167,8 +17300,8 @@
       <c r="L35" s="74"/>
       <c r="M35" s="74"/>
       <c r="N35" s="74"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="118"/>
       <c r="Q35" s="51"/>
     </row>
     <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">

--- a/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116" tabRatio="732" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4110" tabRatio="732" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -25,11 +25,11 @@
     <sheet name="物理データ" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">機能!$D$7:$O$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">機能!$D$7:$O$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">画面２!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">画面3!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">画面4!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">機能!$A$1:$P$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">機能!$A$1:$P$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">処理!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_基本!$A$1:$Q$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">表紙_詳細!$A$1:$Q$36</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="145">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -761,10 +761,6 @@
     <rPh sb="3" eb="5">
       <t>メイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FK</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1610,7 +1606,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザID</t>
+    <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1618,12 +1614,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>研究室番号</t>
-    <rPh sb="0" eb="3">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
+    <t>在籍ID</t>
+    <rPh sb="0" eb="2">
+      <t>ザイセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2430,11 +2423,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2442,11 +2444,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2457,10 +2471,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2468,9 +2479,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2490,29 +2498,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3062,8 +3055,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3134060" y="3446476"/>
-          <a:ext cx="1323640" cy="491854"/>
+          <a:off x="3450290" y="3507436"/>
+          <a:ext cx="1483660" cy="503284"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -3693,8 +3686,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6366734" y="1971338"/>
-          <a:ext cx="839096" cy="380104"/>
+          <a:off x="7056344" y="1998008"/>
+          <a:ext cx="945776" cy="387724"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -8572,18 +8565,18 @@
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.21875" style="1"/>
-    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.25" style="1"/>
+    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -8599,14 +8592,14 @@
       <c r="M1" s="49"/>
       <c r="N1" s="49"/>
       <c r="O1" s="62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P1" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q1" s="68"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="50"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -8622,12 +8615,12 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P2" s="79"/>
       <c r="Q2" s="80"/>
     </row>
-    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -8646,7 +8639,7 @@
       <c r="P3" s="58"/>
       <c r="Q3" s="60"/>
     </row>
-    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="50"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -8665,13 +8658,13 @@
       <c r="P4" s="58"/>
       <c r="Q4" s="60"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="50"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -8686,7 +8679,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="51"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="50"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -8705,7 +8698,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="51"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="50"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -8724,7 +8717,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="51"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="50"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -8743,7 +8736,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="51"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="50"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -8762,12 +8755,12 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="51"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="87"/>
       <c r="F10" s="87"/>
@@ -8783,7 +8776,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -8802,7 +8795,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -8821,13 +8814,13 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="50"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="86"/>
       <c r="G13" s="86"/>
@@ -8842,7 +8835,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="51"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="50"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -8861,7 +8854,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="51"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="50"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -8880,7 +8873,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="51"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="50"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -8899,7 +8892,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="51"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="50"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -8918,7 +8911,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="51"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="50"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -8937,14 +8930,14 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="51"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="50"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="46"/>
       <c r="F19" s="78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G19" s="78"/>
       <c r="H19" s="78"/>
@@ -8958,7 +8951,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="51"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="50"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -8977,7 +8970,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="51"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="50"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -8996,7 +8989,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="51"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="50"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -9015,7 +9008,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="51"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="50"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -9034,7 +9027,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="51"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="50"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -9053,7 +9046,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="51"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="50"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -9072,7 +9065,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="51"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="50"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -9091,7 +9084,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="51"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="50"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -9110,7 +9103,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="51"/>
     </row>
-    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -9129,7 +9122,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="51"/>
     </row>
-    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="50"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -9141,7 +9134,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L29" s="82"/>
       <c r="M29" s="82"/>
@@ -9150,7 +9143,7 @@
       <c r="P29" s="83"/>
       <c r="Q29" s="51"/>
     </row>
-    <row r="30" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="50"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -9162,20 +9155,20 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L30" s="70"/>
       <c r="M30" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N30" s="70"/>
       <c r="O30" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P30" s="75"/>
       <c r="Q30" s="51"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="50"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -9194,7 +9187,7 @@
       <c r="P31" s="76"/>
       <c r="Q31" s="51"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="50"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -9213,7 +9206,7 @@
       <c r="P32" s="76"/>
       <c r="Q32" s="51"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="50"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -9232,7 +9225,7 @@
       <c r="P33" s="76"/>
       <c r="Q33" s="51"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="50"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -9251,7 +9244,7 @@
       <c r="P34" s="76"/>
       <c r="Q34" s="51"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="50"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -9270,7 +9263,7 @@
       <c r="P35" s="76"/>
       <c r="Q35" s="51"/>
     </row>
-    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="50"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -9289,7 +9282,7 @@
       <c r="P36" s="77"/>
       <c r="Q36" s="51"/>
     </row>
-    <row r="37" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52"/>
       <c r="B37" s="53"/>
       <c r="C37" s="53"/>
@@ -9344,18 +9337,18 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -9386,14 +9379,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -9411,7 +9404,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -9433,7 +9426,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -9453,13 +9446,13 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="72">
         <v>3</v>
       </c>
@@ -9468,24 +9461,24 @@
       <c r="H6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
       <c r="L6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="72" t="s">
         <v>60</v>
       </c>
@@ -9494,18 +9487,18 @@
       <c r="H7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
       <c r="L7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -9523,7 +9516,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -9541,7 +9534,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -9559,7 +9552,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -9577,7 +9570,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -9595,7 +9588,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -9613,7 +9606,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
@@ -9631,7 +9624,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -9649,7 +9642,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
@@ -9667,7 +9660,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -9685,7 +9678,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
@@ -9702,10 +9695,10 @@
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
       <c r="P18" s="43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -9723,7 +9716,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
@@ -9741,7 +9734,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
@@ -9759,7 +9752,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -9777,7 +9770,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -9795,7 +9788,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
@@ -9813,7 +9806,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
@@ -9831,7 +9824,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
@@ -9849,7 +9842,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -9867,7 +9860,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
@@ -9885,7 +9878,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
@@ -9903,7 +9896,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
@@ -9921,7 +9914,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -9938,10 +9931,10 @@
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
       <c r="P31" s="43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
@@ -9959,7 +9952,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
@@ -9977,7 +9970,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -9995,7 +9988,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
@@ -10013,7 +10006,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
@@ -10031,7 +10024,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
@@ -10049,7 +10042,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
@@ -10067,7 +10060,7 @@
       <c r="O38" s="11"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -10087,17 +10080,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10120,18 +10113,18 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -10147,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="95"/>
       <c r="J1" s="95"/>
@@ -10162,14 +10155,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -10187,13 +10180,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10209,11 +10202,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -10229,7 +10222,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -10247,14 +10240,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>79</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>80</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
@@ -10269,37 +10262,37 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
       <c r="D8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="110"/>
+      <c r="G8" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="109"/>
-      <c r="G8" s="36" t="s">
+      <c r="H8" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="I8" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
+      <c r="J8" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -10320,7 +10313,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -10341,7 +10334,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -10362,7 +10355,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -10383,7 +10376,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -10404,7 +10397,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -10425,7 +10418,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -10446,7 +10439,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="27"/>
@@ -10467,7 +10460,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="33"/>
@@ -10488,7 +10481,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -10509,7 +10502,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -10530,7 +10523,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -10551,7 +10544,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -10572,7 +10565,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -10593,7 +10586,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -10614,7 +10607,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -10635,7 +10628,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -10656,7 +10649,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -10677,7 +10670,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -10695,7 +10688,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -10713,7 +10706,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -10731,7 +10724,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -10749,7 +10742,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -10767,7 +10760,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -10785,7 +10778,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -10803,7 +10796,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -10821,7 +10814,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -10839,7 +10832,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -10857,7 +10850,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -10875,7 +10868,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -10893,7 +10886,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -10913,12 +10906,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -10935,25 +10941,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10972,24 +10965,24 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="9" width="10.21875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="9" width="10.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -11020,14 +11013,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11045,7 +11038,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -11061,11 +11054,11 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -11075,7 +11068,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11087,7 +11080,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -11105,7 +11098,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
         <v>6</v>
@@ -11127,7 +11120,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
@@ -11149,12 +11142,12 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -11169,7 +11162,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -11187,7 +11180,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
@@ -11209,12 +11202,12 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -11229,7 +11222,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -11247,7 +11240,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -11265,7 +11258,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -11283,7 +11276,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>12</v>
@@ -11305,7 +11298,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
@@ -11325,7 +11318,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
@@ -11345,7 +11338,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -11363,7 +11356,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -11381,7 +11374,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -11399,7 +11392,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -11417,7 +11410,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -11435,7 +11428,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -11453,7 +11446,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -11471,7 +11464,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -11489,7 +11482,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -11507,7 +11500,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -11525,7 +11518,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -11543,7 +11536,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -11561,7 +11554,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -11579,7 +11572,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -11597,7 +11590,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -11615,7 +11608,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -11633,7 +11626,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -11653,7 +11646,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -11692,27 +11685,27 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:F19"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
-    <col min="9" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
+    <col min="9" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -11743,14 +11736,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11768,7 +11761,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -11790,7 +11783,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -11810,7 +11803,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11828,27 +11821,27 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="99" t="s">
+      <c r="F7" s="108"/>
+      <c r="G7" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="99" t="s">
+      <c r="H7" s="108"/>
+      <c r="I7" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="100"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="108"/>
       <c r="M7" s="39" t="s">
         <v>26</v>
       </c>
@@ -11859,10 +11852,10 @@
         <v>62</v>
       </c>
       <c r="P7" s="45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -11878,12 +11871,12 @@
         <v>29</v>
       </c>
       <c r="H8" s="98"/>
-      <c r="I8" s="123" t="s">
+      <c r="I8" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="125"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="23" t="s">
         <v>35</v>
       </c>
@@ -11894,16 +11887,16 @@
         <v>39</v>
       </c>
       <c r="P8" s="9">
-        <f>IF(N8="",0,IF(O8="",0,IF(N8="低",$N$24,IF(N8="中",$N$25,$N$26))*IF(O8="小",$O$24,IF(O8="中",$O$25,$O$26))))</f>
+        <f>IF(N8="",0,IF(O8="",0,IF(N8="低",$N$20,IF(N8="中",$N$21,$N$22))*IF(O8="小",$O$20,IF(O8="中",$O$21,$O$22))))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="22">
-        <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
+        <f t="shared" ref="D9:D17" si="0">ROW()-7</f>
         <v>2</v>
       </c>
       <c r="E9" s="97"/>
@@ -11912,12 +11905,12 @@
         <v>30</v>
       </c>
       <c r="H9" s="98"/>
-      <c r="I9" s="123" t="s">
+      <c r="I9" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="125"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="101"/>
       <c r="M9" s="23" t="s">
         <v>36</v>
       </c>
@@ -11928,11 +11921,11 @@
         <v>63</v>
       </c>
       <c r="P9" s="9">
-        <f t="shared" ref="P9:P16" si="1">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
+        <f>IF(N9="",0,IF(O9="",0,IF(N9="低",$N$20,IF(N9="中",$N$21,$N$22))*IF(O9="小",$O$20,IF(O9="中",$O$21,$O$22))))</f>
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11946,12 +11939,12 @@
         <v>31</v>
       </c>
       <c r="H10" s="98"/>
-      <c r="I10" s="123" t="s">
+      <c r="I10" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
       <c r="M10" s="23" t="s">
         <v>37</v>
       </c>
@@ -11962,11 +11955,11 @@
         <v>64</v>
       </c>
       <c r="P10" s="9">
-        <f t="shared" si="1"/>
+        <f>IF(N10="",0,IF(O10="",0,IF(N10="低",$N$20,IF(N10="中",$N$21,$N$22))*IF(O10="小",$O$20,IF(O10="中",$O$21,$O$22))))</f>
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -11977,30 +11970,30 @@
       <c r="E11" s="97"/>
       <c r="F11" s="98"/>
       <c r="G11" s="97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H11" s="98"/>
-      <c r="I11" s="123" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="125"/>
+      <c r="I11" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="101"/>
       <c r="M11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="O11" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="O11" s="23" t="s">
-        <v>89</v>
-      </c>
       <c r="P11" s="9">
-        <f t="shared" si="1"/>
+        <f>IF(N11="",0,IF(O11="",0,IF(N11="低",$N$20,IF(N11="中",$N$21,$N$22))*IF(O11="小",$O$20,IF(O11="中",$O$21,$O$22))))</f>
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -12016,12 +12009,12 @@
         <v>53</v>
       </c>
       <c r="H12" s="98"/>
-      <c r="I12" s="123" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="125"/>
+      <c r="I12" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101"/>
       <c r="M12" s="23" t="s">
         <v>35</v>
       </c>
@@ -12029,14 +12022,14 @@
         <v>38</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P12" s="9">
-        <f t="shared" si="1"/>
+        <f>IF(N12="",0,IF(O12="",0,IF(N12="低",$N$20,IF(N12="中",$N$21,$N$22))*IF(O12="小",$O$20,IF(O12="中",$O$21,$O$22))))</f>
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -12047,15 +12040,15 @@
       <c r="E13" s="97"/>
       <c r="F13" s="98"/>
       <c r="G13" s="97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H13" s="98"/>
-      <c r="I13" s="123" t="s">
-        <v>139</v>
-      </c>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125"/>
+      <c r="I13" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101"/>
       <c r="M13" s="23" t="s">
         <v>35</v>
       </c>
@@ -12063,14 +12056,14 @@
         <v>40</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P13" s="9">
-        <f t="shared" si="1"/>
+        <f>IF(N13="",0,IF(O13="",0,IF(N13="低",$N$20,IF(N13="中",$N$21,$N$22))*IF(O13="小",$O$20,IF(O13="中",$O$21,$O$22))))</f>
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -12081,15 +12074,15 @@
       <c r="E14" s="97"/>
       <c r="F14" s="98"/>
       <c r="G14" s="97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H14" s="98"/>
-      <c r="I14" s="123" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="125"/>
+      <c r="I14" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="101"/>
       <c r="M14" s="23" t="s">
         <v>37</v>
       </c>
@@ -12100,11 +12093,11 @@
         <v>39</v>
       </c>
       <c r="P14" s="9">
-        <f t="shared" si="1"/>
+        <f>IF(N14="",0,IF(O14="",0,IF(N14="低",$N$20,IF(N14="中",$N$21,$N$22))*IF(O14="小",$O$20,IF(O14="中",$O$21,$O$22))))</f>
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -12113,19 +12106,19 @@
         <v>8</v>
       </c>
       <c r="E15" s="97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" s="98"/>
-      <c r="G15" s="121" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123" t="s">
-        <v>129</v>
-      </c>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125"/>
+      <c r="G15" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="103"/>
+      <c r="I15" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="101"/>
       <c r="M15" s="23" t="s">
         <v>37</v>
       </c>
@@ -12136,11 +12129,11 @@
         <v>39</v>
       </c>
       <c r="P15" s="9">
-        <f t="shared" si="1"/>
+        <f>IF(N15="",0,IF(O15="",0,IF(N15="低",$N$20,IF(N15="中",$N$21,$N$22))*IF(O15="小",$O$20,IF(O15="中",$O$21,$O$22))))</f>
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -12149,34 +12142,34 @@
         <v>9</v>
       </c>
       <c r="E16" s="97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16" s="98"/>
-      <c r="G16" s="121" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123" t="s">
-        <v>134</v>
-      </c>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="125"/>
+      <c r="G16" s="102" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="103"/>
+      <c r="I16" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="101"/>
       <c r="M16" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>38</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P16" s="9">
-        <f t="shared" si="1"/>
+        <f>IF(N16="",0,IF(O16="",0,IF(N16="低",$N$20,IF(N16="中",$N$21,$N$22))*IF(O16="小",$O$20,IF(O16="中",$O$21,$O$22))))</f>
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -12189,177 +12182,161 @@
       <c r="G17" s="97"/>
       <c r="H17" s="98"/>
       <c r="I17" s="97"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
       <c r="L17" s="98"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="9">
-        <f t="shared" ref="P9:P21" si="2">IF(N17="",0,IF(O17="",0,IF(N17="低",$N$24,IF(N17="中",$N$25,$N$26))*IF(O17="小",$O$24,IF(O17="中",$O$25,$O$26))))</f>
+        <f>IF(N17="",0,IF(O17="",0,IF(N17="低",$N$20,IF(N17="中",$N$21,$N$22))*IF(O17="小",$O$20,IF(O17="中",$O$21,$O$22))))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="22">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E18" s="97"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="44" t="s">
+        <v>84</v>
+      </c>
       <c r="P18" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="22">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E19" s="97"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="22">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
+        <f>SUM(P8:P17)</f>
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="11"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="41">
+        <v>1</v>
+      </c>
+      <c r="O20" s="41">
+        <v>50</v>
+      </c>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="22">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="O21" s="42">
+        <v>150</v>
+      </c>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="P22" s="9">
-        <f>SUM(P8:P21)</f>
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="11"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="41">
-        <v>1</v>
-      </c>
-      <c r="O24" s="41">
-        <v>50</v>
-      </c>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="O22" s="42">
+        <v>300</v>
+      </c>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -12373,15 +12350,11 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="42">
-        <v>1.2</v>
-      </c>
-      <c r="O25" s="42">
-        <v>150</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -12395,15 +12368,11 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="42">
-        <v>1.4</v>
-      </c>
-      <c r="O26" s="42">
-        <v>300</v>
-      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -12421,7 +12390,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -12439,7 +12408,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -12457,7 +12426,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -12475,7 +12444,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -12493,7 +12462,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -12511,7 +12480,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -12529,7 +12498,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -12547,7 +12516,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -12565,87 +12534,46 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="D7:O22">
+  <autoFilter ref="D7:O18">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
-  <mergeCells count="51">
+  <mergeCells count="39">
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I18:L18"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="E13:F13"/>
@@ -12654,59 +12582,16 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M17">
       <formula1>"入力,出力,処理,その他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N17">
       <formula1>"低,中,高,その他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O17">
       <formula1>"小,中,大"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12726,22 +12611,22 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -12772,14 +12657,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -12797,7 +12682,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -12819,7 +12704,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -12839,215 +12724,215 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="99" t="s">
+      <c r="D6" s="115"/>
+      <c r="E6" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="100"/>
-      <c r="G6" s="109" t="s">
+      <c r="F6" s="108"/>
+      <c r="G6" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="105" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="106" t="s">
+      <c r="C7" s="112" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="108" t="s">
+      <c r="F7" s="114"/>
+      <c r="G7" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="105" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="106" t="s">
+      <c r="C8" s="112" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="112"/>
+      <c r="E8" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="108" t="s">
+      <c r="F8" s="114"/>
+      <c r="G8" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="106" t="s">
+      <c r="D9" s="112"/>
+      <c r="E9" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="126" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13065,7 +12950,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>6</v>
@@ -13087,7 +12972,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
@@ -13107,7 +12992,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13125,7 +13010,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13143,7 +13028,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13161,7 +13046,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13179,7 +13064,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13197,7 +13082,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13215,7 +13100,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13233,7 +13118,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -13251,7 +13136,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -13269,7 +13154,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -13287,7 +13172,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -13305,7 +13190,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -13323,7 +13208,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -13341,7 +13226,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -13359,7 +13244,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -13377,7 +13262,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -13395,7 +13280,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -13413,7 +13298,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -13431,7 +13316,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -13449,7 +13334,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -13467,7 +13352,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -13487,16 +13372,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -13513,13 +13395,16 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13542,18 +13427,18 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -13584,14 +13469,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -13609,7 +13494,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
@@ -13631,7 +13516,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -13651,7 +13536,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -13669,14 +13554,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -13691,7 +13576,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -13709,7 +13594,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -13727,7 +13612,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -13745,7 +13630,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -13763,7 +13648,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -13781,7 +13666,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -13799,7 +13684,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -13817,7 +13702,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -13835,7 +13720,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13853,7 +13738,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -13871,7 +13756,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -13889,7 +13774,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13907,7 +13792,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13925,7 +13810,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13943,7 +13828,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13961,7 +13846,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13979,7 +13864,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13997,7 +13882,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -14015,7 +13900,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -14033,7 +13918,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -14051,7 +13936,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -14069,7 +13954,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -14087,7 +13972,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -14105,7 +13990,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -14123,7 +14008,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14141,7 +14026,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14159,7 +14044,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14177,7 +14062,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14195,7 +14080,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14213,7 +14098,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14231,7 +14116,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -14249,7 +14134,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -14291,21 +14176,21 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -14336,14 +14221,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -14361,7 +14246,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
@@ -14383,7 +14268,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -14403,7 +14288,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -14421,11 +14306,11 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>50</v>
@@ -14443,7 +14328,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -14461,7 +14346,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -14479,7 +14364,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -14497,7 +14382,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -14515,7 +14400,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -14533,7 +14418,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -14551,7 +14436,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -14569,7 +14454,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -14587,7 +14472,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -14605,7 +14490,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -14623,7 +14508,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -14641,7 +14526,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -14659,7 +14544,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -14677,7 +14562,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -14695,7 +14580,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -14713,7 +14598,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -14731,7 +14616,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -14749,7 +14634,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -14767,7 +14652,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -14785,7 +14670,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -14803,7 +14688,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -14821,7 +14706,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -14839,7 +14724,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -14857,7 +14742,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -14875,7 +14760,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14893,7 +14778,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14911,7 +14796,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14929,7 +14814,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14947,7 +14832,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14965,7 +14850,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14983,7 +14868,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -15001,7 +14886,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -15043,21 +14928,21 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -15088,14 +14973,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -15113,7 +14998,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
@@ -15135,7 +15020,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -15155,7 +15040,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -15173,14 +15058,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -15195,7 +15080,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -15213,7 +15098,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -15231,7 +15116,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -15249,7 +15134,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -15267,7 +15152,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -15285,7 +15170,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -15303,7 +15188,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -15321,7 +15206,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -15339,7 +15224,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -15357,7 +15242,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -15375,7 +15260,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -15393,7 +15278,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -15411,7 +15296,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -15429,7 +15314,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -15447,7 +15332,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -15465,7 +15350,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -15483,7 +15368,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -15501,7 +15386,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -15519,7 +15404,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -15537,7 +15422,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -15555,7 +15440,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -15573,7 +15458,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -15591,7 +15476,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -15609,7 +15494,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -15627,7 +15512,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -15645,7 +15530,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -15663,7 +15548,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -15681,7 +15566,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -15699,7 +15584,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -15717,7 +15602,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -15734,7 +15619,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -15752,7 +15637,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -15794,21 +15679,21 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:G15"/>
+      <selection activeCell="J14" sqref="J14:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
@@ -15839,14 +15724,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -15864,7 +15749,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -15886,11 +15771,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15906,7 +15791,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -15924,29 +15809,29 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="100"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="103"/>
-      <c r="K7" s="100"/>
+      <c r="I7" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="107"/>
+      <c r="K7" s="108"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -15954,25 +15839,25 @@
       <c r="E8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="99" t="s">
+      <c r="F8" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="100"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="26"/>
       <c r="I8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="99" t="s">
+      <c r="J8" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="100"/>
+      <c r="K8" s="108"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -15980,183 +15865,183 @@
       <c r="E9" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="110" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="111"/>
+      <c r="F9" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="117"/>
       <c r="H9" s="26"/>
       <c r="I9" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="110" t="s">
+      <c r="J9" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="111"/>
+      <c r="K9" s="117"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="110" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="111"/>
+      <c r="F10" s="116" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="117"/>
       <c r="H10" s="26"/>
       <c r="I10" s="32"/>
-      <c r="J10" s="110" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" s="111"/>
+      <c r="J10" s="116" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="117"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="110" t="s">
+      <c r="F11" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="111"/>
+      <c r="G11" s="117"/>
       <c r="H11" s="26"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
+      <c r="J11" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="117"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="111"/>
+      <c r="F12" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="117"/>
       <c r="H12" s="26"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="111"/>
+      <c r="J12" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="K12" s="117"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="111"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="117"/>
       <c r="H13" s="26"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="111"/>
+      <c r="J13" s="116" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="117"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="110" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="111"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="117"/>
       <c r="H14" s="26"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="111"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="117"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="111"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="117"/>
       <c r="H15" s="26"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="111"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="117"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="111"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="117"/>
       <c r="H16" s="2"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="111"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="117"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="117"/>
       <c r="H17" s="2"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="111"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="117"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -16174,7 +16059,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -16192,7 +16077,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -16210,7 +16095,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -16228,7 +16113,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -16246,7 +16131,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -16264,7 +16149,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -16282,7 +16167,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -16300,7 +16185,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -16318,7 +16203,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -16336,7 +16221,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -16354,7 +16239,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -16372,7 +16257,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -16390,7 +16275,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -16408,7 +16293,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -16426,7 +16311,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -16444,7 +16329,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -16462,7 +16347,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -16480,7 +16365,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -16498,7 +16383,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -16516,7 +16401,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -16534,7 +16419,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -16554,15 +16439,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -16579,6 +16455,15 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16597,22 +16482,22 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28:P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.21875" style="1"/>
-    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.25" style="1"/>
+    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -16628,14 +16513,14 @@
       <c r="M1" s="49"/>
       <c r="N1" s="49"/>
       <c r="O1" s="62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P1" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q1" s="68"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="50"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -16651,12 +16536,12 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P2" s="79"/>
       <c r="Q2" s="80"/>
     </row>
-    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -16675,7 +16560,7 @@
       <c r="P3" s="58"/>
       <c r="Q3" s="60"/>
     </row>
-    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="50"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -16694,13 +16579,13 @@
       <c r="P4" s="58"/>
       <c r="Q4" s="60"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="50"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
@@ -16715,7 +16600,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="51"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="50"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -16734,7 +16619,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="51"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="50"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -16753,7 +16638,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="51"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="50"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -16772,7 +16657,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="51"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="50"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -16791,73 +16676,73 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="51"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="112" t="str">
+      <c r="D10" s="124" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="50"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="86" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="86"/>
       <c r="G13" s="86"/>
@@ -16872,7 +16757,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="51"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="50"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -16891,7 +16776,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="51"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="50"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -16910,7 +16795,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="51"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="50"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -16929,7 +16814,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="51"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="50"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -16948,7 +16833,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="51"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="50"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -16967,14 +16852,14 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="51"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="50"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="46"/>
       <c r="F19" s="78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G19" s="78"/>
       <c r="H19" s="78"/>
@@ -16988,7 +16873,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="51"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="50"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -17007,7 +16892,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="51"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="50"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -17026,7 +16911,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="51"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="50"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -17045,7 +16930,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="51"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="50"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -17064,7 +16949,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="51"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="50"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -17083,7 +16968,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="51"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="50"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -17102,7 +16987,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="51"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="50"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -17121,7 +17006,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="51"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -17140,7 +17025,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="51"/>
     </row>
-    <row r="28" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A28" s="50"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -17150,7 +17035,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J28" s="82"/>
       <c r="K28" s="82"/>
@@ -17161,7 +17046,7 @@
       <c r="P28" s="83"/>
       <c r="Q28" s="51"/>
     </row>
-    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="50"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -17171,24 +17056,24 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J29" s="70"/>
       <c r="K29" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L29" s="70"/>
       <c r="M29" s="70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N29" s="70"/>
       <c r="O29" s="70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P29" s="75"/>
       <c r="Q29" s="51"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="50"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -17203,13 +17088,13 @@
       <c r="L30" s="72"/>
       <c r="M30" s="72"/>
       <c r="N30" s="72"/>
-      <c r="O30" s="113" t="s">
-        <v>115</v>
-      </c>
-      <c r="P30" s="114"/>
+      <c r="O30" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="P30" s="119"/>
       <c r="Q30" s="51"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="50"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -17224,11 +17109,11 @@
       <c r="L31" s="72"/>
       <c r="M31" s="72"/>
       <c r="N31" s="72"/>
-      <c r="O31" s="115"/>
-      <c r="P31" s="116"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="121"/>
       <c r="Q31" s="51"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="50"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -17243,11 +17128,11 @@
       <c r="L32" s="72"/>
       <c r="M32" s="72"/>
       <c r="N32" s="72"/>
-      <c r="O32" s="115"/>
-      <c r="P32" s="116"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="121"/>
       <c r="Q32" s="51"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="50"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -17262,11 +17147,11 @@
       <c r="L33" s="72"/>
       <c r="M33" s="72"/>
       <c r="N33" s="72"/>
-      <c r="O33" s="115"/>
-      <c r="P33" s="116"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="121"/>
       <c r="Q33" s="51"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="50"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -17281,11 +17166,11 @@
       <c r="L34" s="72"/>
       <c r="M34" s="72"/>
       <c r="N34" s="72"/>
-      <c r="O34" s="115"/>
-      <c r="P34" s="116"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="121"/>
       <c r="Q34" s="51"/>
     </row>
-    <row r="35" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="50"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -17300,11 +17185,11 @@
       <c r="L35" s="74"/>
       <c r="M35" s="74"/>
       <c r="N35" s="74"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="118"/>
+      <c r="O35" s="122"/>
+      <c r="P35" s="123"/>
       <c r="Q35" s="51"/>
     </row>
-    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52"/>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
@@ -17325,12 +17210,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -17340,6 +17219,12 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Desktop\PM演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moriya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116" tabRatio="732" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4110" tabRatio="732" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -2303,6 +2303,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2330,7 +2333,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2339,19 +2348,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2363,10 +2369,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2374,9 +2377,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2396,14 +2396,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2478,55 +2478,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>376518</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>750795</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>30705</xdr:rowOff>
+      <xdr:rowOff>68067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>583602</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>168536</xdr:rowOff>
+      <xdr:colOff>380579</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3717</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPr id="25" name="図 24"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2528047" y="3966211"/>
-          <a:ext cx="3057861" cy="2181784"/>
+          <a:off x="2386854" y="3620332"/>
+          <a:ext cx="3607872" cy="2120797"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -8480,16 +8463,16 @@
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.21875" style="1"/>
-    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.25" style="1"/>
+    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
         <v>108</v>
       </c>
@@ -8514,7 +8497,7 @@
       </c>
       <c r="Q1" s="68"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="50"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -8535,7 +8518,7 @@
       <c r="P2" s="79"/>
       <c r="Q2" s="80"/>
     </row>
-    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -8554,7 +8537,7 @@
       <c r="P3" s="58"/>
       <c r="Q3" s="60"/>
     </row>
-    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="50"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -8573,7 +8556,7 @@
       <c r="P4" s="58"/>
       <c r="Q4" s="60"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="50"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -8594,7 +8577,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="51"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="50"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -8613,7 +8596,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="51"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="50"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -8632,7 +8615,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="51"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="50"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -8651,7 +8634,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="51"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="50"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -8670,66 +8653,66 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="51"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="50"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -8750,7 +8733,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="51"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="50"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -8769,7 +8752,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="51"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="50"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -8788,7 +8771,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="51"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="50"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -8807,7 +8790,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="51"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="50"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -8826,7 +8809,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="51"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="50"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -8845,7 +8828,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="51"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="50"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -8866,7 +8849,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="51"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="50"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -8885,7 +8868,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="51"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="50"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -8904,7 +8887,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="51"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="50"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -8923,7 +8906,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="51"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="50"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -8942,7 +8925,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="51"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="50"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -8961,7 +8944,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="51"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="50"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -8980,7 +8963,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="51"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="50"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -8999,7 +8982,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="51"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="50"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -9018,7 +9001,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="51"/>
     </row>
-    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -9037,7 +9020,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="51"/>
     </row>
-    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="50"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -9058,7 +9041,7 @@
       <c r="P29" s="83"/>
       <c r="Q29" s="51"/>
     </row>
-    <row r="30" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="50"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -9083,7 +9066,7 @@
       <c r="P30" s="75"/>
       <c r="Q30" s="51"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="50"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -9102,7 +9085,7 @@
       <c r="P31" s="76"/>
       <c r="Q31" s="51"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="50"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -9121,7 +9104,7 @@
       <c r="P32" s="76"/>
       <c r="Q32" s="51"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="50"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -9140,7 +9123,7 @@
       <c r="P33" s="76"/>
       <c r="Q33" s="51"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="50"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -9159,7 +9142,7 @@
       <c r="P34" s="76"/>
       <c r="Q34" s="51"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="50"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -9178,7 +9161,7 @@
       <c r="P35" s="76"/>
       <c r="Q35" s="51"/>
     </row>
-    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="50"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -9197,7 +9180,7 @@
       <c r="P36" s="77"/>
       <c r="Q36" s="51"/>
     </row>
-    <row r="37" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52"/>
       <c r="B37" s="53"/>
       <c r="C37" s="53"/>
@@ -9252,38 +9235,38 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -9300,8 +9283,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -9319,7 +9302,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -9341,7 +9324,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -9361,7 +9344,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="119" t="s">
         <v>58</v>
@@ -9376,18 +9359,18 @@
       <c r="H6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
       <c r="L6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="119" t="s">
         <v>57</v>
@@ -9402,18 +9385,18 @@
       <c r="H7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
       <c r="L7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -9431,7 +9414,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -9449,7 +9432,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -9467,7 +9450,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -9485,7 +9468,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -9503,7 +9486,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -9521,7 +9504,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
@@ -9539,7 +9522,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -9557,7 +9540,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
@@ -9575,7 +9558,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -9593,7 +9576,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
@@ -9613,7 +9596,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -9631,7 +9614,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
@@ -9649,7 +9632,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
@@ -9667,7 +9650,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -9685,7 +9668,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -9703,7 +9686,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
@@ -9721,7 +9704,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
@@ -9739,7 +9722,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
@@ -9757,7 +9740,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -9775,7 +9758,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
@@ -9793,7 +9776,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
@@ -9811,7 +9794,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
@@ -9829,7 +9812,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -9849,7 +9832,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
@@ -9867,7 +9850,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
@@ -9885,7 +9868,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -9903,7 +9886,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
@@ -9921,7 +9904,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
@@ -9939,7 +9922,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
@@ -9957,7 +9940,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
@@ -9975,7 +9958,7 @@
       <c r="O38" s="11"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -9995,17 +9978,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10028,38 +10011,38 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -10076,8 +10059,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -10095,7 +10078,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -10117,7 +10100,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -10137,7 +10120,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -10155,7 +10138,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27" t="s">
@@ -10177,17 +10160,17 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
       <c r="D8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="108"/>
+      <c r="F8" s="105"/>
       <c r="G8" s="36" t="s">
         <v>101</v>
       </c>
@@ -10197,17 +10180,17 @@
       <c r="I8" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="J8" s="108" t="s">
+      <c r="J8" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -10215,20 +10198,20 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="92"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="92"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="93"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -10236,20 +10219,20 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="92"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="93"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -10257,20 +10240,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="92"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="93"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="92"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -10278,20 +10261,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="92"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="92"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -10299,20 +10282,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="92"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="93"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -10320,20 +10303,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="92"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="93"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="93"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -10341,20 +10324,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="92"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="92"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="93"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="27"/>
@@ -10362,20 +10345,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="92"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="93"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="92"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="93"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="33"/>
@@ -10383,20 +10366,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="92"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="93"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="92"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="93"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -10404,20 +10387,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="92"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="93"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="92"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="93"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -10425,20 +10408,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="92"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="93"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="92"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="93"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -10446,20 +10429,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="92"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="93"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="92"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="93"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -10467,20 +10450,20 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="92"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="93"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="92"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="93"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -10488,20 +10471,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="92"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="93"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="92"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="93"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -10509,20 +10492,20 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="92"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="93"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="92"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="93"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -10530,20 +10513,20 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="92"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="93"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="92"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="93"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -10551,20 +10534,20 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="92"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="93"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="92"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="93"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -10572,20 +10555,20 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="92"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="93"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="92"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="93"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -10603,7 +10586,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -10621,7 +10604,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -10639,7 +10622,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -10657,7 +10640,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -10675,7 +10658,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -10693,7 +10676,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -10711,7 +10694,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -10729,7 +10712,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -10747,7 +10730,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -10765,7 +10748,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -10783,7 +10766,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -10801,7 +10784,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -10821,12 +10804,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -10843,25 +10839,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10879,45 +10862,45 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="9" width="10.21875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="9" width="10.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -10934,8 +10917,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -10953,7 +10936,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -10969,7 +10952,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
@@ -10983,7 +10966,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -10995,7 +10978,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -11013,7 +10996,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
         <v>6</v>
@@ -11035,7 +11018,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
@@ -11057,7 +11040,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11077,7 +11060,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -11095,7 +11078,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
@@ -11117,7 +11100,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -11137,7 +11120,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -11155,7 +11138,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -11173,7 +11156,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -11191,7 +11174,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>12</v>
@@ -11213,7 +11196,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
@@ -11233,7 +11216,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
@@ -11253,7 +11236,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -11271,7 +11254,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -11289,7 +11272,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -11307,7 +11290,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -11325,7 +11308,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -11343,7 +11326,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -11361,7 +11344,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -11379,7 +11362,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -11397,7 +11380,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -11415,7 +11398,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -11433,7 +11416,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -11451,7 +11434,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -11469,7 +11452,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -11487,7 +11470,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -11505,7 +11488,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -11523,7 +11506,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -11541,7 +11524,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -11561,7 +11544,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -11606,38 +11589,38 @@
       <selection activeCell="G15" sqref="G15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -11654,8 +11637,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11673,7 +11656,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -11695,7 +11678,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -11715,7 +11698,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11733,27 +11716,27 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="98" t="s">
+      <c r="F7" s="103"/>
+      <c r="G7" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="98" t="s">
+      <c r="H7" s="103"/>
+      <c r="I7" s="101" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="102"/>
       <c r="K7" s="102"/>
-      <c r="L7" s="99"/>
+      <c r="L7" s="103"/>
       <c r="M7" s="39" t="s">
         <v>26</v>
       </c>
@@ -11767,7 +11750,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -11775,20 +11758,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="96" t="s">
+      <c r="F8" s="100"/>
+      <c r="G8" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="96" t="s">
+      <c r="H8" s="100"/>
+      <c r="I8" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="97"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="100"/>
       <c r="M8" s="23" t="s">
         <v>35</v>
       </c>
@@ -11803,7 +11786,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -11811,18 +11794,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="96" t="s">
+      <c r="E9" s="98"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="97"/>
-      <c r="I9" s="96" t="s">
+      <c r="H9" s="100"/>
+      <c r="I9" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="97"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
       <c r="M9" s="23" t="s">
         <v>36</v>
       </c>
@@ -11837,7 +11820,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11845,18 +11828,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="96" t="s">
+      <c r="E10" s="98"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="97"/>
-      <c r="I10" s="96" t="s">
+      <c r="H10" s="100"/>
+      <c r="I10" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="97"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="100"/>
       <c r="M10" s="23" t="s">
         <v>37</v>
       </c>
@@ -11871,7 +11854,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -11879,18 +11862,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="96" t="s">
+      <c r="E11" s="98"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="97"/>
-      <c r="I11" s="96" t="s">
+      <c r="H11" s="100"/>
+      <c r="I11" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="97"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="100"/>
       <c r="M11" s="23" t="s">
         <v>94</v>
       </c>
@@ -11905,7 +11888,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -11913,20 +11896,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="96" t="s">
+      <c r="F12" s="100"/>
+      <c r="G12" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="97"/>
-      <c r="I12" s="96" t="s">
+      <c r="H12" s="100"/>
+      <c r="I12" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="97"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="100"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
@@ -11935,7 +11918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -11943,18 +11926,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="96" t="s">
+      <c r="E13" s="98"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="97"/>
-      <c r="I13" s="96" t="s">
+      <c r="H13" s="100"/>
+      <c r="I13" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="97"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
@@ -11963,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -11971,18 +11954,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="96" t="s">
+      <c r="E14" s="98"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="H14" s="97"/>
-      <c r="I14" s="96" t="s">
+      <c r="H14" s="100"/>
+      <c r="I14" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="97"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="100"/>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
@@ -11991,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -11999,14 +11982,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="97"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="100"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
@@ -12015,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -12023,14 +12006,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="97"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
@@ -12039,7 +12022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -12047,14 +12030,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="97"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="100"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
@@ -12063,7 +12046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -12071,14 +12054,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="96"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="97"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="100"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
@@ -12087,7 +12070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -12095,14 +12078,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="97"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="100"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -12111,7 +12094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -12119,14 +12102,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="96"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="97"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="100"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -12135,7 +12118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -12143,14 +12126,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="97"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="100"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -12159,19 +12142,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="44" t="s">
@@ -12182,7 +12165,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -12200,7 +12183,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -12222,7 +12205,7 @@
       </c>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -12244,7 +12227,7 @@
       </c>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -12266,7 +12249,7 @@
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -12284,7 +12267,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -12302,7 +12285,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -12320,7 +12303,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -12338,7 +12321,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -12356,7 +12339,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -12374,7 +12357,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -12392,7 +12375,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -12410,7 +12393,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -12428,7 +12411,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -12446,7 +12429,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -12464,7 +12447,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -12482,7 +12465,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -12509,41 +12492,6 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -12560,6 +12508,41 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -12593,38 +12576,38 @@
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -12641,8 +12624,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -12660,7 +12643,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -12682,7 +12665,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -12702,24 +12685,24 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="98" t="s">
+      <c r="D6" s="109"/>
+      <c r="E6" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="99"/>
-      <c r="G6" s="108" t="s">
+      <c r="F6" s="103"/>
+      <c r="G6" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>98</v>
@@ -12728,162 +12711,162 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="105" t="s">
+      <c r="D7" s="106"/>
+      <c r="E7" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="106"/>
-      <c r="G7" s="107" t="s">
+      <c r="F7" s="108"/>
+      <c r="G7" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105" t="s">
+      <c r="D8" s="106"/>
+      <c r="E8" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107" t="s">
+      <c r="F8" s="108"/>
+      <c r="G8" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="105" t="s">
+      <c r="D9" s="106"/>
+      <c r="E9" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>105</v>
@@ -12892,25 +12875,25 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -12928,7 +12911,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>6</v>
@@ -12950,7 +12933,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
@@ -12970,7 +12953,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -12988,7 +12971,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13006,7 +12989,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13024,7 +13007,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13042,7 +13025,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13060,7 +13043,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13078,7 +13061,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13096,7 +13079,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -13114,7 +13097,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -13132,7 +13115,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -13150,7 +13133,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -13168,7 +13151,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -13186,7 +13169,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -13204,7 +13187,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -13222,7 +13205,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -13240,7 +13223,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -13258,7 +13241,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -13276,7 +13259,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -13294,7 +13277,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -13312,7 +13295,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -13330,7 +13313,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -13350,16 +13333,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -13376,13 +13356,16 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13405,38 +13388,38 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -13453,8 +13436,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -13472,7 +13455,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
@@ -13494,7 +13477,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -13514,7 +13497,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -13532,7 +13515,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
@@ -13554,7 +13537,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -13572,7 +13555,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -13590,7 +13573,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -13608,7 +13591,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -13626,7 +13609,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -13644,7 +13627,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -13662,7 +13645,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -13680,7 +13663,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -13698,7 +13681,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13716,7 +13699,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -13734,7 +13717,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -13752,7 +13735,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13770,7 +13753,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13788,7 +13771,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13806,7 +13789,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13824,7 +13807,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13842,7 +13825,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13860,7 +13843,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13878,7 +13861,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -13896,7 +13879,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -13914,7 +13897,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -13932,7 +13915,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -13950,7 +13933,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -13968,7 +13951,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -13986,7 +13969,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14004,7 +13987,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14022,7 +14005,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14040,7 +14023,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14058,7 +14041,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14076,7 +14059,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14094,7 +14077,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -14112,7 +14095,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -14153,42 +14136,42 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="66" t="s">
         <v>2</v>
       </c>
@@ -14205,8 +14188,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -14224,7 +14207,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
@@ -14246,7 +14229,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -14266,7 +14249,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -14284,7 +14267,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
@@ -14306,7 +14289,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -14324,7 +14307,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -14342,7 +14325,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -14360,7 +14343,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -14378,7 +14361,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -14396,7 +14379,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -14414,7 +14397,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -14432,7 +14415,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -14450,7 +14433,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -14468,7 +14451,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -14486,7 +14469,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -14504,7 +14487,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -14522,7 +14505,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -14540,7 +14523,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -14558,7 +14541,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -14576,7 +14559,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -14594,7 +14577,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -14612,7 +14595,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -14630,7 +14613,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -14648,7 +14631,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -14666,7 +14649,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -14684,7 +14667,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -14702,7 +14685,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -14720,7 +14703,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -14738,7 +14721,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14756,7 +14739,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14774,7 +14757,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14792,7 +14775,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14810,7 +14793,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14828,7 +14811,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14846,7 +14829,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -14864,7 +14847,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -14909,38 +14892,38 @@
       <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
@@ -14957,8 +14940,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -14976,7 +14959,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
@@ -14998,7 +14981,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -15018,7 +15001,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -15036,7 +15019,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
@@ -15058,7 +15041,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -15076,7 +15059,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -15094,7 +15077,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -15112,7 +15095,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -15130,7 +15113,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -15148,7 +15131,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -15166,7 +15149,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -15184,7 +15167,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -15202,7 +15185,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -15220,7 +15203,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -15238,7 +15221,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -15256,7 +15239,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -15274,7 +15257,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -15292,7 +15275,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -15310,7 +15293,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -15328,7 +15311,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -15346,7 +15329,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -15364,7 +15347,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -15382,7 +15365,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -15400,7 +15383,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -15418,7 +15401,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -15436,7 +15419,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -15454,7 +15437,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -15472,7 +15455,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -15490,7 +15473,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -15508,7 +15491,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -15526,7 +15509,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -15544,7 +15527,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -15562,7 +15545,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -15580,7 +15563,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -15597,7 +15580,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -15615,7 +15598,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -15660,38 +15643,38 @@
       <selection activeCell="F13" sqref="F13:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -15708,8 +15691,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -15727,7 +15710,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -15749,7 +15732,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -15769,7 +15752,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -15787,29 +15770,29 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="101" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="102"/>
-      <c r="G7" s="99"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="98" t="s">
+      <c r="I7" s="101" t="s">
         <v>78</v>
       </c>
       <c r="J7" s="102"/>
-      <c r="K7" s="99"/>
+      <c r="K7" s="103"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -15817,25 +15800,25 @@
       <c r="E8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="99"/>
+      <c r="G8" s="103"/>
       <c r="H8" s="26"/>
       <c r="I8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="J8" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="99"/>
+      <c r="K8" s="103"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -15843,69 +15826,69 @@
       <c r="E9" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="110"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="26"/>
       <c r="I9" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="109" t="s">
+      <c r="J9" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="110"/>
+      <c r="K9" s="111"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="109" t="s">
+      <c r="F10" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="110"/>
+      <c r="G10" s="111"/>
       <c r="H10" s="26"/>
       <c r="I10" s="32"/>
-      <c r="J10" s="109" t="s">
+      <c r="J10" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="110"/>
+      <c r="K10" s="111"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="109" t="s">
+      <c r="F11" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="110"/>
+      <c r="G11" s="111"/>
       <c r="H11" s="26"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="109" t="s">
+      <c r="J11" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="110"/>
+      <c r="K11" s="111"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -15913,117 +15896,117 @@
       <c r="E12" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="110"/>
+      <c r="G12" s="111"/>
       <c r="H12" s="26"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="109" t="s">
+      <c r="J12" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="110"/>
+      <c r="K12" s="111"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="109" t="s">
+      <c r="F13" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="110"/>
+      <c r="G13" s="111"/>
       <c r="H13" s="26"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="111"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="109" t="s">
+      <c r="F14" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="110"/>
+      <c r="G14" s="111"/>
       <c r="H14" s="26"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="111"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="111"/>
       <c r="H15" s="26"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="111"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="111"/>
       <c r="H16" s="2"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="111"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="111"/>
       <c r="H17" s="2"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="111"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -16041,7 +16024,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -16059,7 +16042,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -16077,7 +16060,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -16095,7 +16078,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -16113,7 +16096,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -16131,7 +16114,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -16149,7 +16132,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -16167,7 +16150,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -16185,7 +16168,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -16203,7 +16186,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -16221,7 +16204,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -16239,7 +16222,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -16257,7 +16240,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -16275,7 +16258,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -16293,7 +16276,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -16311,7 +16294,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -16329,7 +16312,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -16347,7 +16330,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -16365,7 +16348,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -16383,7 +16366,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -16401,7 +16384,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -16421,15 +16404,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -16446,6 +16420,15 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16468,16 +16451,16 @@
       <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.21875" style="1"/>
-    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.25" style="1"/>
+    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
         <v>116</v>
       </c>
@@ -16502,7 +16485,7 @@
       </c>
       <c r="Q1" s="68"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="50"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -16523,7 +16506,7 @@
       <c r="P2" s="79"/>
       <c r="Q2" s="80"/>
     </row>
-    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -16542,7 +16525,7 @@
       <c r="P3" s="58"/>
       <c r="Q3" s="60"/>
     </row>
-    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="50"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -16561,7 +16544,7 @@
       <c r="P4" s="58"/>
       <c r="Q4" s="60"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="50"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -16582,7 +16565,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="51"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="50"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -16601,7 +16584,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="51"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="50"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -16620,7 +16603,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="51"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="50"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -16639,7 +16622,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="51"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="50"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -16658,67 +16641,67 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="51"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="111" t="str">
+      <c r="D10" s="118" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="118"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="118"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="50"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -16739,7 +16722,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="51"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="50"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -16758,7 +16741,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="51"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="50"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -16777,7 +16760,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="51"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="50"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -16796,7 +16779,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="51"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="50"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -16815,7 +16798,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="51"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="50"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -16834,7 +16817,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="51"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="50"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -16855,7 +16838,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="51"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="50"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -16874,7 +16857,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="51"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="50"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -16893,7 +16876,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="51"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="50"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -16912,7 +16895,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="51"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="50"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -16931,7 +16914,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="51"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="50"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -16950,7 +16933,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="51"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="50"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -16969,7 +16952,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="51"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="50"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -16988,7 +16971,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="51"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -17007,7 +16990,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="51"/>
     </row>
-    <row r="28" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A28" s="50"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -17028,7 +17011,7 @@
       <c r="P28" s="83"/>
       <c r="Q28" s="51"/>
     </row>
-    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="50"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -17055,7 +17038,7 @@
       <c r="P29" s="75"/>
       <c r="Q29" s="51"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="50"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -17076,7 +17059,7 @@
       <c r="P30" s="113"/>
       <c r="Q30" s="51"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="50"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -17095,7 +17078,7 @@
       <c r="P31" s="115"/>
       <c r="Q31" s="51"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="50"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -17114,7 +17097,7 @@
       <c r="P32" s="115"/>
       <c r="Q32" s="51"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="50"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -17133,7 +17116,7 @@
       <c r="P33" s="115"/>
       <c r="Q33" s="51"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="50"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -17152,7 +17135,7 @@
       <c r="P34" s="115"/>
       <c r="Q34" s="51"/>
     </row>
-    <row r="35" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="50"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -17171,7 +17154,7 @@
       <c r="P35" s="117"/>
       <c r="Q35" s="51"/>
     </row>
-    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52"/>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
@@ -17192,12 +17175,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -17207,6 +17184,12 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moriya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4110" tabRatio="732" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4110" tabRatio="732" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="147">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -736,24 +736,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>顧客情報テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ番号</t>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -764,55 +747,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>役職コード</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ作成日時</t>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ更新日時</t>
-    <rPh sb="3" eb="5">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>役職情報テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>役職名</t>
-    <rPh sb="0" eb="3">
-      <t>ヤクショクメイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -921,32 +856,6 @@
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン失敗表示</t>
-    <rPh sb="4" eb="6">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン処理にてログインに失敗した場合に表示</t>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1120,19 +1029,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（ユーザ教員氏名をここに記入）</t>
-    <rPh sb="4" eb="6">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>○○研○班</t>
     <rPh sb="2" eb="3">
       <t>ケン</t>
@@ -1419,25 +1315,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>滞在している学生、[今いる！][退出]ボタンを表示</t>
-    <rPh sb="0" eb="2">
-      <t>タイザイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>タイシュツ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（滞在管理システム）</t>
     <rPh sb="1" eb="3">
       <t>タイザイ</t>
@@ -1533,6 +1410,221 @@
     </rPh>
     <rPh sb="55" eb="57">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「戻る」ボタン処理</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン処理にてログインに失敗した場合にログイン失敗画面に遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン失敗画面の戻るボタンを押すことで、ログイン画面に遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン失敗画面遷移</t>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>現在「今いる！」ボタンを押している滞在ユーザーと非滞在ユーザを見極められる表記を行う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面内滞在表示</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滞在、非滞在学生を区別して表示
+[今いる！][退出]ボタンを表示</t>
+    <rPh sb="0" eb="2">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クベツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイシュツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>研究室番号</t>
+    <rPh sb="0" eb="3">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報テーブル</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>研究室テーブル</t>
+    <rPh sb="0" eb="3">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>研究室名称</t>
+    <rPh sb="0" eb="3">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入室フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢吹研A班</t>
+    <rPh sb="0" eb="2">
+      <t>ヤブキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹本　篤郎</t>
+    <rPh sb="0" eb="2">
+      <t>タケモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アツロウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1644,7 +1736,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1654,6 +1746,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2041,7 +2139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2243,7 +2341,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2333,13 +2437,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2348,16 +2446,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2369,14 +2485,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2396,13 +2524,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2953,8 +3078,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3134060" y="3286456"/>
-          <a:ext cx="1323640" cy="491854"/>
+          <a:off x="3450290" y="3507436"/>
+          <a:ext cx="1483660" cy="503284"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -3584,8 +3709,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6366734" y="1811318"/>
-          <a:ext cx="839096" cy="380104"/>
+          <a:off x="7056344" y="1998008"/>
+          <a:ext cx="945776" cy="387724"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -6313,11 +6438,14 @@
             </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>にゅう</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6755,8 +6883,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="277907" y="4025154"/>
-          <a:ext cx="1207993" cy="578224"/>
+          <a:off x="302560" y="3978089"/>
+          <a:ext cx="1367117" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -7037,8 +7165,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266701" y="3254188"/>
-          <a:ext cx="1207993" cy="578224"/>
+          <a:off x="291354" y="3216088"/>
+          <a:ext cx="1367117" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -7939,8 +8067,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8612843" y="4002742"/>
-          <a:ext cx="750794" cy="443753"/>
+          <a:off x="9648266" y="3955677"/>
+          <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -8459,8 +8587,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8474,7 +8602,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -8490,12 +8618,12 @@
       <c r="M1" s="49"/>
       <c r="N1" s="49"/>
       <c r="O1" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q1" s="68"/>
+        <v>103</v>
+      </c>
+      <c r="P1" s="69">
+        <v>41782</v>
+      </c>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="50"/>
@@ -8512,11 +8640,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="80"/>
+      <c r="O2" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="82"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
@@ -8561,17 +8689,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
+      <c r="E5" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -8582,15 +8710,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -8601,15 +8729,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -8657,19 +8785,19 @@
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
+      <c r="D10" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
@@ -8678,17 +8806,17 @@
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
@@ -8697,17 +8825,17 @@
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
@@ -8717,17 +8845,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
+      <c r="E13" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -8738,15 +8866,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -8757,15 +8885,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -8776,15 +8904,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -8795,15 +8923,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -8834,15 +8962,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="46"/>
-      <c r="F19" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
+      <c r="F19" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
       <c r="M19" s="47"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -8855,13 +8983,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="47"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
       <c r="M20" s="47"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -8874,13 +9002,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="47"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
       <c r="M21" s="47"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -8893,13 +9021,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="47"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
       <c r="M22" s="47"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -8912,13 +9040,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="47"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
       <c r="M23" s="47"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -8931,13 +9059,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="47"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
       <c r="M24" s="47"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -8950,13 +9078,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="47"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
       <c r="M25" s="47"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -8969,13 +9097,13 @@
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
       <c r="E26" s="47"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
       <c r="M26" s="47"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -9031,14 +9159,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="83"/>
+      <c r="K29" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="85"/>
       <c r="Q29" s="51"/>
     </row>
     <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -9052,18 +9180,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="P30" s="75"/>
+      <c r="K30" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="P30" s="77"/>
       <c r="Q30" s="51"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -9077,12 +9205,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="76"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="78"/>
       <c r="Q31" s="51"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -9096,12 +9224,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="76"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="78"/>
       <c r="Q32" s="51"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -9115,12 +9243,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="76"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="78"/>
       <c r="Q33" s="51"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -9134,12 +9262,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="76"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="78"/>
       <c r="Q34" s="51"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -9153,12 +9281,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="76"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="78"/>
       <c r="Q35" s="51"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -9172,12 +9300,12 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="77"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="79"/>
       <c r="Q36" s="51"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -9231,7 +9359,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -9247,26 +9375,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -9277,10 +9405,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9346,54 +9474,54 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="72">
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="74">
         <v>3</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
       <c r="L6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="72" t="s">
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
       <c r="H7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
       <c r="L7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -9593,7 +9721,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
       <c r="P18" s="43" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -9829,7 +9957,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
       <c r="P31" s="43" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -9978,17 +10106,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10008,7 +10136,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10023,26 +10151,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="H1" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -10053,10 +10181,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10084,7 +10212,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10104,7 +10232,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -10142,10 +10270,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
@@ -10167,24 +10295,24 @@
       <c r="D8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="105" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="105"/>
+      <c r="E8" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="116"/>
       <c r="G8" s="36" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
+        <v>93</v>
+      </c>
+      <c r="J8" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
@@ -10198,14 +10326,14 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="95"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="2"/>
@@ -10219,14 +10347,14 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="95"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="2"/>
@@ -10240,14 +10368,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="95"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="2"/>
@@ -10261,14 +10389,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="91"/>
-      <c r="F12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="95"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="95"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="2"/>
@@ -10282,14 +10410,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="95"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="2"/>
@@ -10303,14 +10431,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="95"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="2"/>
@@ -10324,14 +10452,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="2"/>
@@ -10345,14 +10473,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="95"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="95"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" s="2"/>
@@ -10366,14 +10494,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="95"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="95"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -10387,14 +10515,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="95"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="95"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -10408,14 +10536,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="95"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="95"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -10429,14 +10557,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="95"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="95"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -10450,14 +10578,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="95"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="95"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -10471,14 +10599,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="95"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="95"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -10492,14 +10620,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="95"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="95"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -10513,14 +10641,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="95"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="95"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -10534,14 +10662,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="95"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="95"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -10555,14 +10683,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="95"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="95"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -10804,25 +10932,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -10839,12 +10954,25 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10862,8 +10990,8 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10881,26 +11009,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -10911,10 +11039,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10956,7 +11084,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -11045,7 +11173,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -11105,7 +11233,7 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -11585,15 +11713,18 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:H15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
     <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
+    <col min="9" max="15" width="10.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="2.25" style="1"/>
     <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
@@ -11601,26 +11732,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -11631,10 +11762,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11726,17 +11857,17 @@
       <c r="E7" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="103"/>
+      <c r="F7" s="102"/>
       <c r="G7" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="103"/>
+      <c r="H7" s="102"/>
       <c r="I7" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="102"/>
       <c r="M7" s="39" t="s">
         <v>26</v>
       </c>
@@ -11747,7 +11878,7 @@
         <v>62</v>
       </c>
       <c r="P7" s="45" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11758,20 +11889,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="99" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="100"/>
-      <c r="G8" s="98" t="s">
+      <c r="G8" s="99" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="100"/>
-      <c r="I8" s="98" t="s">
+      <c r="I8" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="100"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="108"/>
       <c r="M8" s="23" t="s">
         <v>35</v>
       </c>
@@ -11794,18 +11925,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="98"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="100"/>
-      <c r="G9" s="98" t="s">
+      <c r="G9" s="99" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="100"/>
-      <c r="I9" s="98" t="s">
+      <c r="I9" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="108"/>
       <c r="M9" s="23" t="s">
         <v>36</v>
       </c>
@@ -11816,11 +11947,11 @@
         <v>63</v>
       </c>
       <c r="P9" s="9">
-        <f t="shared" ref="P9:P21" si="1">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
+        <f t="shared" ref="P9:P16" si="1">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11828,18 +11959,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="98"/>
+      <c r="E10" s="99"/>
       <c r="F10" s="100"/>
-      <c r="G10" s="98" t="s">
+      <c r="G10" s="99" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="100"/>
-      <c r="I10" s="98" t="s">
+      <c r="I10" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="100"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="108"/>
       <c r="M10" s="23" t="s">
         <v>37</v>
       </c>
@@ -11862,26 +11993,26 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="98"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="100"/>
-      <c r="G11" s="98" t="s">
-        <v>92</v>
+      <c r="G11" s="99" t="s">
+        <v>131</v>
       </c>
       <c r="H11" s="100"/>
-      <c r="I11" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
+      <c r="I11" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="108"/>
       <c r="M11" s="23" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="P11" s="9">
         <f t="shared" si="1"/>
@@ -11896,26 +12027,32 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="99" t="s">
         <v>52</v>
       </c>
       <c r="F12" s="100"/>
-      <c r="G12" s="98" t="s">
+      <c r="G12" s="99" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="100"/>
-      <c r="I12" s="98" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
+      <c r="I12" s="106" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>134</v>
+      </c>
       <c r="P12" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11926,27 +12063,33 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="98"/>
+      <c r="E13" s="99"/>
       <c r="F13" s="100"/>
-      <c r="G13" s="98" t="s">
-        <v>134</v>
+      <c r="G13" s="99" t="s">
+        <v>136</v>
       </c>
       <c r="H13" s="100"/>
-      <c r="I13" s="98" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
+      <c r="I13" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>133</v>
+      </c>
       <c r="P13" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -11954,27 +12097,33 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="98"/>
+      <c r="E14" s="99"/>
       <c r="F14" s="100"/>
-      <c r="G14" s="98" t="s">
-        <v>135</v>
+      <c r="G14" s="99" t="s">
+        <v>122</v>
       </c>
       <c r="H14" s="100"/>
-      <c r="I14" s="98" t="s">
-        <v>137</v>
-      </c>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
+      <c r="I14" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="P14" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -11982,23 +12131,35 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="98"/>
+      <c r="E15" s="99" t="s">
+        <v>126</v>
+      </c>
       <c r="F15" s="100"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
+      <c r="G15" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="105"/>
+      <c r="I15" s="106" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="P15" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -12006,20 +12167,32 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="98"/>
+      <c r="E16" s="99" t="s">
+        <v>128</v>
+      </c>
       <c r="F16" s="100"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
+      <c r="G16" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="105"/>
+      <c r="I16" s="106" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>134</v>
+      </c>
       <c r="P16" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12030,19 +12203,19 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="98"/>
+      <c r="E17" s="99"/>
       <c r="F17" s="100"/>
-      <c r="G17" s="98"/>
+      <c r="G17" s="99"/>
       <c r="H17" s="100"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
       <c r="L17" s="100"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="P17:P21" si="2">IF(N17="",0,IF(O17="",0,IF(N17="低",$N$24,IF(N17="中",$N$25,$N$26))*IF(O17="小",$O$24,IF(O17="中",$O$25,$O$26))))</f>
         <v>0</v>
       </c>
     </row>
@@ -12054,19 +12227,19 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="98"/>
+      <c r="E18" s="99"/>
       <c r="F18" s="100"/>
-      <c r="G18" s="98"/>
+      <c r="G18" s="99"/>
       <c r="H18" s="100"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
       <c r="L18" s="100"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12078,19 +12251,19 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="98"/>
+      <c r="E19" s="99"/>
       <c r="F19" s="100"/>
-      <c r="G19" s="98"/>
+      <c r="G19" s="99"/>
       <c r="H19" s="100"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
       <c r="L19" s="100"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12102,19 +12275,19 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="98"/>
+      <c r="E20" s="99"/>
       <c r="F20" s="100"/>
-      <c r="G20" s="98"/>
+      <c r="G20" s="99"/>
       <c r="H20" s="100"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
       <c r="L20" s="100"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
       <c r="P20" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12126,19 +12299,19 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="98"/>
+      <c r="E21" s="99"/>
       <c r="F21" s="100"/>
-      <c r="G21" s="98"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="100"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
       <c r="L21" s="100"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
       <c r="P21" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12147,22 +12320,22 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="44" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="P22" s="9">
         <f>SUM(P8:P21)</f>
-        <v>680</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
@@ -12492,57 +12665,57 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
     <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -12572,8 +12745,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12588,26 +12761,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -12618,10 +12791,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12688,24 +12861,24 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="109"/>
+      <c r="D6" s="111"/>
       <c r="E6" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="103"/>
-      <c r="G6" s="105" t="s">
+      <c r="F6" s="102"/>
+      <c r="G6" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -12714,21 +12887,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="106" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="107" t="s">
+      <c r="C7" s="112" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="108"/>
-      <c r="G7" s="104" t="s">
+      <c r="F7" s="114"/>
+      <c r="G7" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -12738,45 +12911,45 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="106" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="107" t="s">
+      <c r="C8" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="112"/>
+      <c r="E8" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="104" t="s">
+      <c r="F8" s="114"/>
+      <c r="G8" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="107" t="s">
+      <c r="D9" s="112"/>
+      <c r="E9" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="108"/>
-      <c r="G9" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="117" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -12786,15 +12959,15 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -12804,15 +12977,15 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -12822,15 +12995,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -12840,15 +13013,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -12858,18 +13031,18 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -12878,15 +13051,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -13333,13 +13506,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -13356,16 +13532,13 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13400,26 +13573,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -13430,10 +13603,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13519,10 +13692,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -14137,7 +14310,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14152,26 +14325,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
       <c r="G1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="66" t="s">
         <v>2</v>
       </c>
@@ -14182,10 +14355,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14271,7 +14444,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>50</v>
@@ -14889,7 +15062,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14904,26 +15077,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
       <c r="G1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
@@ -14934,10 +15107,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15023,10 +15196,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -15639,8 +15812,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:G13"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15655,26 +15828,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -15685,10 +15858,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15736,7 +15909,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15776,20 +15949,20 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="103"/>
+        <v>141</v>
+      </c>
+      <c r="F7" s="109"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="26"/>
       <c r="I7" s="101" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="102"/>
-      <c r="K7" s="103"/>
+        <v>142</v>
+      </c>
+      <c r="J7" s="109"/>
+      <c r="K7" s="102"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -15803,7 +15976,7 @@
       <c r="F8" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="103"/>
+      <c r="G8" s="102"/>
       <c r="H8" s="26"/>
       <c r="I8" s="36" t="s">
         <v>68</v>
@@ -15811,11 +15984,11 @@
       <c r="J8" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="103"/>
+      <c r="K8" s="102"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
@@ -15824,24 +15997,24 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="111"/>
+        <v>69</v>
+      </c>
+      <c r="F9" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="119"/>
       <c r="H9" s="26"/>
       <c r="I9" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="110" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="111"/>
+        <v>69</v>
+      </c>
+      <c r="J9" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" s="119"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
@@ -15850,20 +16023,20 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="110" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="111"/>
+      <c r="F10" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="119"/>
       <c r="H10" s="26"/>
       <c r="I10" s="32"/>
-      <c r="J10" s="110" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="111"/>
+      <c r="J10" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="119"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
@@ -15872,20 +16045,18 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="110" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="111"/>
+      <c r="F11" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="119"/>
       <c r="H11" s="26"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="111"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="119"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
@@ -15893,23 +16064,17 @@
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="110" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="111"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="119"/>
       <c r="H12" s="26"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="110" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="111"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="119"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
@@ -15917,19 +16082,21 @@
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="111"/>
+      <c r="E13" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="119"/>
       <c r="H13" s="26"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="111"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="119"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -15938,18 +16105,18 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="110" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="111"/>
+      <c r="F14" s="118" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="119"/>
       <c r="H14" s="26"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="111"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="119"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
       <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -15958,16 +16125,16 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="111"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="119"/>
       <c r="H15" s="26"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="111"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="119"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
@@ -15976,16 +16143,16 @@
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="111"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="119"/>
       <c r="H16" s="2"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="111"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="119"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
@@ -15994,16 +16161,16 @@
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="119"/>
       <c r="H17" s="2"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="111"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="119"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
@@ -16404,6 +16571,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -16414,21 +16591,11 @@
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16462,7 +16629,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -16478,12 +16645,12 @@
       <c r="M1" s="49"/>
       <c r="N1" s="49"/>
       <c r="O1" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q1" s="68"/>
+        <v>103</v>
+      </c>
+      <c r="P1" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="50"/>
@@ -16500,11 +16667,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="80"/>
+      <c r="O2" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="82"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
@@ -16549,17 +16716,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
+      <c r="E5" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -16570,15 +16737,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -16589,15 +16756,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -16645,20 +16812,20 @@
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="118" t="str">
+      <c r="D10" s="121" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
@@ -16667,17 +16834,17 @@
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
@@ -16686,17 +16853,17 @@
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
@@ -16706,17 +16873,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
+      <c r="E13" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -16727,15 +16894,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -16746,15 +16913,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -16765,15 +16932,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -16784,15 +16951,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -16823,15 +16990,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="46"/>
-      <c r="F19" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
+      <c r="F19" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
       <c r="M19" s="47"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -16844,13 +17011,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="47"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
       <c r="M20" s="47"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -16863,13 +17030,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="47"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
       <c r="M21" s="47"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -16882,13 +17049,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="47"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
       <c r="M22" s="47"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -16901,13 +17068,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="47"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
       <c r="M23" s="47"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -16920,13 +17087,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="47"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
       <c r="M24" s="47"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -16939,13 +17106,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="47"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
       <c r="M25" s="47"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -16999,16 +17166,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="83"/>
+      <c r="I28" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="85"/>
       <c r="Q28" s="51"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -17020,22 +17187,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="P29" s="75"/>
+      <c r="I29" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="P29" s="77"/>
       <c r="Q29" s="51"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -17047,16 +17214,16 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="112" t="s">
-        <v>122</v>
-      </c>
-      <c r="P30" s="113"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="122" t="s">
+        <v>111</v>
+      </c>
+      <c r="P30" s="123"/>
       <c r="Q30" s="51"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -17068,14 +17235,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="115"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="124"/>
+      <c r="P31" s="125"/>
       <c r="Q31" s="51"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -17087,14 +17254,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="115"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="124"/>
+      <c r="P32" s="125"/>
       <c r="Q32" s="51"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -17106,14 +17273,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="115"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="124"/>
+      <c r="P33" s="125"/>
       <c r="Q33" s="51"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -17125,14 +17292,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="115"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="124"/>
+      <c r="P34" s="125"/>
       <c r="Q34" s="51"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -17144,14 +17311,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="117"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="126"/>
+      <c r="P35" s="127"/>
       <c r="Q35" s="51"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -17175,6 +17342,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -17184,12 +17357,6 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moriya\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,11 +25,11 @@
     <sheet name="物理データ" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">機能!$D$7:$O$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">機能!$D$7:$O$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">画面２!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">画面3!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">画面4!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">機能!$A$1:$P$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">機能!$A$1:$P$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">処理!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_基本!$A$1:$Q$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">表紙_詳細!$A$1:$Q$36</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="149">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -1625,6 +1625,17 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>アツロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1.1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>若月</t>
+    <rPh sb="0" eb="2">
+      <t>ワカツキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2449,15 +2460,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2469,6 +2471,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -11711,10 +11722,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11756,16 +11767,16 @@
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>79</v>
+        <v>148</v>
+      </c>
+      <c r="P1" s="19">
+        <v>41782</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11865,8 +11876,8 @@
       <c r="I7" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
       <c r="L7" s="102"/>
       <c r="M7" s="39" t="s">
         <v>26</v>
@@ -11897,12 +11908,12 @@
         <v>29</v>
       </c>
       <c r="H8" s="100"/>
-      <c r="I8" s="106" t="s">
+      <c r="I8" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="108"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="23" t="s">
         <v>35</v>
       </c>
@@ -11913,7 +11924,7 @@
         <v>39</v>
       </c>
       <c r="P8" s="9">
-        <f>IF(N8="",0,IF(O8="",0,IF(N8="低",$N$24,IF(N8="中",$N$25,$N$26))*IF(O8="小",$O$24,IF(O8="中",$O$25,$O$26))))</f>
+        <f t="shared" ref="P8:P19" si="0">IF(N8="",0,IF(O8="",0,IF(N8="低",$N$22,IF(N8="中",$N$23,$N$24))*IF(O8="小",$O$22,IF(O8="中",$O$23,$O$24))))</f>
         <v>150</v>
       </c>
     </row>
@@ -11922,7 +11933,7 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="22">
-        <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
+        <f t="shared" ref="D9:D19" si="1">ROW()-7</f>
         <v>2</v>
       </c>
       <c r="E9" s="99"/>
@@ -11931,12 +11942,12 @@
         <v>30</v>
       </c>
       <c r="H9" s="100"/>
-      <c r="I9" s="106" t="s">
+      <c r="I9" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="108"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="105"/>
       <c r="M9" s="23" t="s">
         <v>36</v>
       </c>
@@ -11947,7 +11958,7 @@
         <v>63</v>
       </c>
       <c r="P9" s="9">
-        <f t="shared" ref="P9:P16" si="1">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -11956,7 +11967,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E10" s="99"/>
@@ -11965,12 +11976,12 @@
         <v>31</v>
       </c>
       <c r="H10" s="100"/>
-      <c r="I10" s="106" t="s">
+      <c r="I10" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="108"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="105"/>
       <c r="M10" s="23" t="s">
         <v>37</v>
       </c>
@@ -11981,7 +11992,7 @@
         <v>64</v>
       </c>
       <c r="P10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>420</v>
       </c>
     </row>
@@ -11990,7 +12001,7 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E11" s="99"/>
@@ -11999,12 +12010,12 @@
         <v>131</v>
       </c>
       <c r="H11" s="100"/>
-      <c r="I11" s="106" t="s">
+      <c r="I11" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="108"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="105"/>
       <c r="M11" s="23" t="s">
         <v>84</v>
       </c>
@@ -12015,7 +12026,7 @@
         <v>86</v>
       </c>
       <c r="P11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -12024,7 +12035,7 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E12" s="99" t="s">
@@ -12035,12 +12046,12 @@
         <v>53</v>
       </c>
       <c r="H12" s="100"/>
-      <c r="I12" s="106" t="s">
+      <c r="I12" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="108"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="105"/>
       <c r="M12" s="23" t="s">
         <v>35</v>
       </c>
@@ -12051,7 +12062,7 @@
         <v>134</v>
       </c>
       <c r="P12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -12060,7 +12071,7 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E13" s="99"/>
@@ -12069,12 +12080,12 @@
         <v>136</v>
       </c>
       <c r="H13" s="100"/>
-      <c r="I13" s="106" t="s">
+      <c r="I13" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="108"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="105"/>
       <c r="M13" s="23" t="s">
         <v>35</v>
       </c>
@@ -12085,7 +12096,7 @@
         <v>133</v>
       </c>
       <c r="P13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>420</v>
       </c>
     </row>
@@ -12094,7 +12105,7 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E14" s="99"/>
@@ -12103,12 +12114,12 @@
         <v>122</v>
       </c>
       <c r="H14" s="100"/>
-      <c r="I14" s="106" t="s">
+      <c r="I14" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="108"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="105"/>
       <c r="M14" s="23" t="s">
         <v>37</v>
       </c>
@@ -12119,7 +12130,7 @@
         <v>39</v>
       </c>
       <c r="P14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
@@ -12128,23 +12139,23 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E15" s="99" t="s">
         <v>126</v>
       </c>
       <c r="F15" s="100"/>
-      <c r="G15" s="104" t="s">
+      <c r="G15" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="H15" s="105"/>
-      <c r="I15" s="106" t="s">
+      <c r="H15" s="109"/>
+      <c r="I15" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="108"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="105"/>
       <c r="M15" s="23" t="s">
         <v>37</v>
       </c>
@@ -12155,7 +12166,7 @@
         <v>39</v>
       </c>
       <c r="P15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
     </row>
@@ -12164,23 +12175,23 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E16" s="99" t="s">
         <v>128</v>
       </c>
       <c r="F16" s="100"/>
-      <c r="G16" s="104" t="s">
+      <c r="G16" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="105"/>
-      <c r="I16" s="106" t="s">
+      <c r="H16" s="109"/>
+      <c r="I16" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="108"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="105"/>
       <c r="M16" s="23" t="s">
         <v>132</v>
       </c>
@@ -12191,7 +12202,7 @@
         <v>134</v>
       </c>
       <c r="P16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -12200,7 +12211,7 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E17" s="99"/>
@@ -12215,7 +12226,7 @@
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="9">
-        <f t="shared" ref="P17:P21" si="2">IF(N17="",0,IF(O17="",0,IF(N17="低",$N$24,IF(N17="中",$N$25,$N$26))*IF(O17="小",$O$24,IF(O17="中",$O$25,$O$26))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12224,7 +12235,7 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E18" s="99"/>
@@ -12239,7 +12250,7 @@
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12248,7 +12259,7 @@
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E19" s="99"/>
@@ -12263,7 +12274,7 @@
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12271,112 +12282,108 @@
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="22">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E20" s="99"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="44" t="s">
+        <v>82</v>
+      </c>
       <c r="P20" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="22">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="P22" s="9">
-        <f>SUM(P8:P21)</f>
+        <f>SUM(P8:P19)</f>
         <v>1590</v>
       </c>
     </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="41">
+        <v>1</v>
+      </c>
+      <c r="O22" s="41">
+        <v>50</v>
+      </c>
+      <c r="P22" s="7"/>
+    </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="11"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="O23" s="42">
+        <v>150</v>
+      </c>
+      <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="41">
-        <v>1</v>
-      </c>
-      <c r="O24" s="41">
-        <v>50</v>
-      </c>
-      <c r="P24" s="7"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="O24" s="42">
+        <v>300</v>
+      </c>
+      <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
@@ -12392,12 +12399,8 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="42">
-        <v>1.2</v>
-      </c>
-      <c r="O25" s="42">
-        <v>150</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
@@ -12414,12 +12417,8 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="42">
-        <v>1.4</v>
-      </c>
-      <c r="O26" s="42">
-        <v>300</v>
-      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
@@ -12620,81 +12619,39 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="D7:O22">
+  <autoFilter ref="D7:O20">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
-  <mergeCells count="51">
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I16:L16"/>
+  <mergeCells count="45">
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I20:L20"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I16:L16"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="A1:C1"/>
@@ -12718,21 +12675,21 @@
     <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M21">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M19">
       <formula1>"入力,出力,処理,その他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N19">
       <formula1>"低,中,高,その他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O19">
       <formula1>"小,中,大"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+    <oddFooter>&amp;C&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -15951,13 +15908,13 @@
       <c r="E7" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="109"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="102"/>
       <c r="H7" s="26"/>
       <c r="I7" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="J7" s="109"/>
+      <c r="J7" s="106"/>
       <c r="K7" s="102"/>
       <c r="L7" s="2"/>
       <c r="M7" s="67"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moriya\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4110" tabRatio="732" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116" tabRatio="732" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -256,31 +256,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下表に本システムで提供する機能の一覧表を記す。</t>
-    <rPh sb="0" eb="2">
-      <t>カヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>シル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1267,28 +1242,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本システムの目的は、研究室に誰がいるか表示する機能である。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モクテキ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>滞在画面</t>
     <rPh sb="0" eb="2">
       <t>タイザイ</t>
@@ -1636,6 +1589,44 @@
     <t>若月</t>
     <rPh sb="0" eb="2">
       <t>ワカツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本システムの目的は、研究室に誰がいるか表示することである。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下表に本システムで提供する機能を記す。</t>
+    <rPh sb="0" eb="2">
+      <t>カヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シル</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2150,7 +2141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2449,6 +2440,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2460,26 +2460,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6449,14 +6434,11 @@
             </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>にゅう</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8602,18 +8584,18 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.25" style="1"/>
-    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.21875" style="1"/>
+    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -8629,14 +8611,14 @@
       <c r="M1" s="49"/>
       <c r="N1" s="49"/>
       <c r="O1" s="62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P1" s="69">
         <v>41782</v>
       </c>
       <c r="Q1" s="70"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="50"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -8652,12 +8634,12 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="81" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P2" s="81"/>
       <c r="Q2" s="82"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A3" s="50"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -8676,7 +8658,7 @@
       <c r="P3" s="58"/>
       <c r="Q3" s="60"/>
     </row>
-    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A4" s="50"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -8695,13 +8677,13 @@
       <c r="P4" s="58"/>
       <c r="Q4" s="60"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="50"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87"/>
@@ -8716,7 +8698,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="51"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="50"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -8735,7 +8717,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="51"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -8754,7 +8736,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="51"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -8773,7 +8755,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="51"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -8792,12 +8774,12 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="51"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="89" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10" s="89"/>
       <c r="F10" s="89"/>
@@ -8813,7 +8795,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -8832,7 +8814,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -8851,13 +8833,13 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="50"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" s="88"/>
       <c r="G13" s="88"/>
@@ -8872,7 +8854,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="51"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="50"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -8891,7 +8873,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="51"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="50"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -8910,7 +8892,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="51"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="50"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -8929,7 +8911,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="51"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -8948,7 +8930,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="51"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="50"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -8967,14 +8949,14 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="51"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="46"/>
       <c r="F19" s="80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G19" s="80"/>
       <c r="H19" s="80"/>
@@ -8988,7 +8970,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="51"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="50"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -9007,7 +8989,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="51"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="50"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -9026,7 +9008,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="51"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -9045,7 +9027,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="51"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="50"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -9064,7 +9046,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="51"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -9083,7 +9065,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="51"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -9102,7 +9084,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="51"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -9121,7 +9103,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="51"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -9140,7 +9122,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="51"/>
     </row>
-    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -9159,7 +9141,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="51"/>
     </row>
-    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A29" s="50"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -9171,7 +9153,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L29" s="84"/>
       <c r="M29" s="84"/>
@@ -9180,7 +9162,7 @@
       <c r="P29" s="85"/>
       <c r="Q29" s="51"/>
     </row>
-    <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A30" s="50"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -9192,20 +9174,20 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L30" s="72"/>
       <c r="M30" s="72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N30" s="72"/>
       <c r="O30" s="72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P30" s="77"/>
       <c r="Q30" s="51"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="50"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -9224,7 +9206,7 @@
       <c r="P31" s="78"/>
       <c r="Q31" s="51"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -9243,7 +9225,7 @@
       <c r="P32" s="78"/>
       <c r="Q32" s="51"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="50"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -9262,7 +9244,7 @@
       <c r="P33" s="78"/>
       <c r="Q33" s="51"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="50"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -9281,7 +9263,7 @@
       <c r="P34" s="78"/>
       <c r="Q34" s="51"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="50"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -9300,7 +9282,7 @@
       <c r="P35" s="78"/>
       <c r="Q35" s="51"/>
     </row>
-    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -9319,7 +9301,7 @@
       <c r="P36" s="79"/>
       <c r="Q36" s="51"/>
     </row>
-    <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52"/>
       <c r="B37" s="53"/>
       <c r="C37" s="53"/>
@@ -9374,18 +9356,18 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -9401,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" s="97"/>
       <c r="J1" s="97"/>
@@ -9416,14 +9398,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -9441,13 +9423,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -9463,11 +9445,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -9483,59 +9465,59 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
-      <c r="B6" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
+      <c r="B6" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="74">
         <v>3</v>
       </c>
       <c r="F6" s="74"/>
       <c r="G6" s="74"/>
       <c r="H6" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
+        <v>57</v>
+      </c>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
       <c r="L6" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
+        <v>57</v>
+      </c>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
-      <c r="B7" s="129" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
+      <c r="B7" s="127" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="74"/>
       <c r="G7" s="74"/>
       <c r="H7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
+        <v>56</v>
+      </c>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
       <c r="L7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
+        <v>56</v>
+      </c>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -9553,7 +9535,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -9571,7 +9553,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -9589,7 +9571,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -9607,7 +9589,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -9625,7 +9607,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -9643,7 +9625,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
@@ -9661,7 +9643,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -9679,7 +9661,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
@@ -9697,7 +9679,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -9715,7 +9697,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
@@ -9732,10 +9714,10 @@
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
       <c r="P18" s="43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -9753,7 +9735,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
@@ -9771,7 +9753,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
@@ -9789,7 +9771,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -9807,7 +9789,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -9825,7 +9807,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
@@ -9843,7 +9825,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
@@ -9861,7 +9843,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
@@ -9879,7 +9861,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -9897,7 +9879,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
@@ -9915,7 +9897,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
@@ -9933,7 +9915,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
@@ -9951,7 +9933,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -9968,10 +9950,10 @@
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
       <c r="P31" s="43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
@@ -9989,7 +9971,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
@@ -10007,7 +9989,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -10025,7 +10007,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
@@ -10043,7 +10025,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
@@ -10061,7 +10043,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
@@ -10079,7 +10061,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
@@ -10097,7 +10079,7 @@
       <c r="O38" s="11"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -10150,18 +10132,18 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -10177,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I1" s="97"/>
       <c r="J1" s="97"/>
@@ -10192,14 +10174,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -10217,13 +10199,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10239,11 +10221,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -10259,7 +10241,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -10277,14 +10259,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>77</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
@@ -10299,37 +10281,37 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
       <c r="D8" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="114"/>
+      <c r="G8" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="116"/>
-      <c r="G8" s="36" t="s">
+      <c r="H8" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="I8" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
+      <c r="J8" s="114" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -10350,7 +10332,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -10371,7 +10353,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -10392,7 +10374,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -10413,7 +10395,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -10434,7 +10416,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -10455,7 +10437,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -10476,7 +10458,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="27"/>
@@ -10497,7 +10479,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="33"/>
@@ -10518,7 +10500,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -10539,7 +10521,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -10560,7 +10542,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -10581,7 +10563,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -10602,7 +10584,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -10623,7 +10605,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -10644,7 +10626,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -10665,7 +10647,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -10686,7 +10668,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -10707,7 +10689,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -10725,7 +10707,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -10743,7 +10725,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -10761,7 +10743,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -10779,7 +10761,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -10797,7 +10779,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -10815,7 +10797,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -10833,7 +10815,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -10851,7 +10833,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -10869,7 +10851,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -10887,7 +10869,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -10905,7 +10887,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -10923,7 +10905,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -11002,24 +10984,24 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="9" width="10.25" style="1" customWidth="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="9" width="10.21875" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="12" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -11050,14 +11032,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11075,7 +11057,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -11091,11 +11073,11 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -11105,7 +11087,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11117,7 +11099,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -11135,7 +11117,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
         <v>6</v>
@@ -11157,7 +11139,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
@@ -11179,12 +11161,12 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -11199,7 +11181,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -11217,7 +11199,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
@@ -11239,12 +11221,12 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -11259,7 +11241,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -11277,7 +11259,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -11295,7 +11277,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -11313,7 +11295,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>12</v>
@@ -11335,7 +11317,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
@@ -11355,7 +11337,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
@@ -11375,7 +11357,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -11393,7 +11375,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -11411,7 +11393,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -11429,7 +11411,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -11447,7 +11429,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -11465,7 +11447,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -11483,7 +11465,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -11501,7 +11483,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -11519,7 +11501,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -11537,7 +11519,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -11555,7 +11537,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -11573,7 +11555,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -11591,7 +11573,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -11609,7 +11591,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -11627,7 +11609,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -11645,7 +11627,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -11663,7 +11645,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -11683,7 +11665,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -11725,24 +11707,24 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
-    <col min="9" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -11767,20 +11749,20 @@
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P1" s="19">
         <v>41782</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11798,7 +11780,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -11820,11 +11802,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -11840,7 +11822,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11858,41 +11840,41 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="F7" s="105"/>
+      <c r="G7" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="101" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="104" t="s">
         <v>24</v>
-      </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="101" t="s">
-        <v>25</v>
       </c>
       <c r="J7" s="106"/>
       <c r="K7" s="106"/>
-      <c r="L7" s="102"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="39" t="s">
-        <v>27</v>
-      </c>
       <c r="O7" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P7" s="45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -11900,35 +11882,35 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="103"/>
+      <c r="G8" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="100"/>
-      <c r="I8" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="105"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="99" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="23" t="s">
         <v>38</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>39</v>
       </c>
       <c r="P8" s="9">
         <f t="shared" ref="P8:P19" si="0">IF(N8="",0,IF(O8="",0,IF(N8="低",$N$22,IF(N8="中",$N$23,$N$24))*IF(O8="小",$O$22,IF(O8="中",$O$23,$O$24))))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -11936,33 +11918,33 @@
         <f t="shared" ref="D9:D19" si="1">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="100"/>
-      <c r="I9" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="105"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="103"/>
+      <c r="I9" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="101"/>
       <c r="M9" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P9" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11970,33 +11952,33 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="99" t="s">
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="102" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="103"/>
+      <c r="I10" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="105"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
       <c r="M10" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P10" s="9">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -12004,33 +11986,33 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="99" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="100"/>
-      <c r="I11" s="103" t="s">
+      <c r="E11" s="102"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="105"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="101"/>
       <c r="M11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="O11" s="23" t="s">
         <v>85</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>86</v>
       </c>
       <c r="P11" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -12038,35 +12020,35 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="103"/>
+      <c r="G12" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="100"/>
-      <c r="G12" s="99" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="103" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="105"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101"/>
       <c r="M12" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P12" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -12074,33 +12056,33 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="105"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="103"/>
+      <c r="I13" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101"/>
       <c r="M13" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P13" s="9">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -12108,33 +12090,33 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="99" t="s">
+      <c r="E14" s="102"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="103"/>
+      <c r="I14" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="100"/>
-      <c r="I14" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="105"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="101"/>
       <c r="M14" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" s="9">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -12142,35 +12124,35 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E15" s="99" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="108" t="s">
+      <c r="E15" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="103"/>
+      <c r="G15" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="103"/>
+      <c r="I15" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="H15" s="109"/>
-      <c r="I15" s="103" t="s">
-        <v>125</v>
-      </c>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="105"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="101"/>
       <c r="M15" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="9">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -12178,35 +12160,35 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="103"/>
+      <c r="G16" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="103"/>
+      <c r="I16" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="108" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16" s="109"/>
-      <c r="I16" s="103" t="s">
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="23" t="s">
+      <c r="N16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="23" t="s">
         <v>132</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>134</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -12214,14 +12196,14 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="100"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="103"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
@@ -12230,7 +12212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -12238,14 +12220,14 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="100"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="103"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
@@ -12254,7 +12236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -12262,14 +12244,14 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="100"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="103"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -12278,7 +12260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -12294,14 +12276,14 @@
       <c r="M20" s="24"/>
       <c r="N20" s="25"/>
       <c r="O20" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P20" s="9">
         <f>SUM(P8:P19)</f>
         <v>1590</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -12319,7 +12301,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -12341,7 +12323,7 @@
       </c>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -12363,7 +12345,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -12385,7 +12367,7 @@
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -12403,7 +12385,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -12421,7 +12403,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -12439,7 +12421,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -12457,7 +12439,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -12475,7 +12457,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -12493,7 +12475,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -12511,7 +12493,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -12529,7 +12511,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -12547,7 +12529,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -12565,7 +12547,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -12583,7 +12565,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -12601,7 +12583,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -12634,17 +12616,14 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="I16:L16"/>
-    <mergeCell ref="G14:H14"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E17:F17"/>
@@ -12654,6 +12633,13 @@
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I17:L17"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
@@ -12661,10 +12647,6 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I9:L9"/>
@@ -12672,7 +12654,7 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="I10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="3">
@@ -12706,18 +12688,18 @@
       <selection activeCell="G13" sqref="G13:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -12733,7 +12715,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="97"/>
       <c r="J1" s="97"/>
@@ -12748,14 +12730,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -12773,13 +12755,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -12795,11 +12777,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -12815,215 +12797,215 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="111" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="101" t="s">
+      <c r="C6" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="109"/>
+      <c r="E6" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="105"/>
+      <c r="G6" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="116" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="112" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="114"/>
-      <c r="G7" s="115" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
+      <c r="C7" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="112"/>
+      <c r="G7" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="112" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="114"/>
-      <c r="G8" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
+      <c r="C8" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="110"/>
+      <c r="E8" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="112"/>
+      <c r="G8" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="114"/>
-      <c r="G9" s="117" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="112"/>
+      <c r="G9" s="115" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13041,13 +13023,13 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -13063,11 +13045,11 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -13083,7 +13065,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13101,7 +13083,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13119,7 +13101,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13137,7 +13119,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13155,7 +13137,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13173,7 +13155,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13191,7 +13173,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13209,7 +13191,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -13227,7 +13209,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -13245,7 +13227,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -13263,7 +13245,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -13281,7 +13263,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -13299,7 +13281,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -13317,7 +13299,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -13335,7 +13317,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -13353,7 +13335,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -13371,7 +13353,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -13389,7 +13371,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -13407,7 +13389,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -13425,7 +13407,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -13443,7 +13425,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -13518,18 +13500,18 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -13545,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="97"/>
       <c r="J1" s="97"/>
@@ -13560,14 +13542,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -13585,13 +13567,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -13607,11 +13589,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -13627,7 +13609,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -13645,14 +13627,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -13667,7 +13649,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -13685,7 +13667,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -13703,7 +13685,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -13721,7 +13703,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -13739,7 +13721,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -13757,7 +13739,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -13775,7 +13757,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -13793,7 +13775,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -13811,7 +13793,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13829,7 +13811,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -13847,7 +13829,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -13865,7 +13847,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13883,7 +13865,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13901,7 +13883,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13919,7 +13901,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13937,7 +13919,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13955,7 +13937,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13973,7 +13955,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13991,7 +13973,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -14009,7 +13991,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -14027,7 +14009,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -14045,7 +14027,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -14063,7 +14045,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -14081,7 +14063,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -14099,7 +14081,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14117,7 +14099,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14135,7 +14117,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14153,7 +14135,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14171,7 +14153,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14189,7 +14171,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14207,7 +14189,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -14225,7 +14207,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -14270,18 +14252,18 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -14297,7 +14279,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="97"/>
       <c r="J1" s="97"/>
@@ -14312,14 +14294,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -14337,13 +14319,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -14359,11 +14341,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -14379,7 +14361,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -14397,14 +14379,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -14419,7 +14401,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -14437,7 +14419,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -14455,7 +14437,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -14473,7 +14455,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -14491,7 +14473,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -14509,7 +14491,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -14527,7 +14509,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -14545,7 +14527,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -14563,7 +14545,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -14581,7 +14563,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -14599,7 +14581,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -14617,7 +14599,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -14635,7 +14617,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -14653,7 +14635,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -14671,7 +14653,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -14689,7 +14671,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -14707,7 +14689,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -14725,7 +14707,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -14743,7 +14725,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -14761,7 +14743,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -14779,7 +14761,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -14797,7 +14779,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -14815,7 +14797,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -14833,7 +14815,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -14851,7 +14833,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14869,7 +14851,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14887,7 +14869,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14905,7 +14887,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14923,7 +14905,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14941,7 +14923,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14959,7 +14941,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -14977,7 +14959,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -15022,18 +15004,18 @@
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -15049,7 +15031,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="97"/>
       <c r="J1" s="97"/>
@@ -15064,14 +15046,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -15089,13 +15071,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -15111,11 +15093,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15131,7 +15113,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -15149,14 +15131,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -15171,7 +15153,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -15189,7 +15171,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -15207,7 +15189,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -15225,7 +15207,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -15243,7 +15225,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -15261,7 +15243,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -15279,7 +15261,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -15297,7 +15279,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -15315,7 +15297,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -15333,7 +15315,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -15351,7 +15333,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -15369,7 +15351,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -15387,7 +15369,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -15405,7 +15387,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -15423,7 +15405,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -15441,7 +15423,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -15459,7 +15441,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -15477,7 +15459,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -15495,7 +15477,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -15513,7 +15495,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -15531,7 +15513,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -15549,7 +15531,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -15567,7 +15549,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -15585,7 +15567,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -15603,7 +15585,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -15621,7 +15603,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -15639,7 +15621,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -15657,7 +15639,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -15675,7 +15657,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -15693,7 +15675,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -15710,7 +15692,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -15728,7 +15710,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -15773,18 +15755,18 @@
       <selection activeCell="F16" sqref="F16:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -15800,7 +15782,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I1" s="97"/>
       <c r="J1" s="97"/>
@@ -15815,14 +15797,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -15840,13 +15822,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -15862,11 +15844,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15882,7 +15864,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -15900,237 +15882,237 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="101" t="s">
-        <v>141</v>
+      <c r="E7" s="104" t="s">
+        <v>139</v>
       </c>
       <c r="F7" s="106"/>
-      <c r="G7" s="102"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="101" t="s">
-        <v>142</v>
+      <c r="I7" s="104" t="s">
+        <v>140</v>
       </c>
       <c r="J7" s="106"/>
-      <c r="K7" s="102"/>
+      <c r="K7" s="105"/>
       <c r="L7" s="2"/>
       <c r="M7" s="67"/>
       <c r="N7" s="67"/>
       <c r="O7" s="67"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="102"/>
+      <c r="F8" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="105"/>
       <c r="H8" s="26"/>
       <c r="I8" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="102"/>
+      <c r="J8" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="105"/>
       <c r="L8" s="2"/>
       <c r="M8" s="68"/>
       <c r="N8" s="67"/>
       <c r="O8" s="67"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="118" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="119"/>
+        <v>68</v>
+      </c>
+      <c r="F9" s="116" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="117"/>
       <c r="H9" s="26"/>
       <c r="I9" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="118" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="119"/>
+        <v>68</v>
+      </c>
+      <c r="J9" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="117"/>
       <c r="L9" s="2"/>
       <c r="M9" s="38"/>
       <c r="N9" s="26"/>
       <c r="O9" s="26"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="118" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="119"/>
+      <c r="F10" s="116" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="117"/>
       <c r="H10" s="26"/>
       <c r="I10" s="32"/>
-      <c r="J10" s="118" t="s">
-        <v>143</v>
-      </c>
-      <c r="K10" s="119"/>
+      <c r="J10" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="117"/>
       <c r="L10" s="2"/>
       <c r="M10" s="38"/>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="118" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="119"/>
+      <c r="F11" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="117"/>
       <c r="H11" s="26"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="119"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="117"/>
       <c r="L11" s="2"/>
       <c r="M11" s="38"/>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="119"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="117"/>
       <c r="H12" s="26"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="119"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="117"/>
       <c r="L12" s="2"/>
       <c r="M12" s="38"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="118" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="119"/>
+        <v>70</v>
+      </c>
+      <c r="F13" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="117"/>
       <c r="H13" s="26"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="119"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="117"/>
       <c r="L13" s="2"/>
       <c r="M13" s="38"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="118" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="119"/>
+      <c r="F14" s="116" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="117"/>
       <c r="H14" s="26"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="119"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="117"/>
       <c r="L14" s="2"/>
       <c r="M14" s="38"/>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="119"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="117"/>
       <c r="H15" s="26"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="119"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="117"/>
       <c r="L15" s="2"/>
       <c r="M15" s="38"/>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="119"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="117"/>
       <c r="H16" s="2"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="119"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="117"/>
       <c r="L16" s="2"/>
       <c r="M16" s="38"/>
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="119"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="117"/>
       <c r="H17" s="2"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="119"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="117"/>
       <c r="L17" s="2"/>
       <c r="M17" s="38"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -16148,7 +16130,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -16166,7 +16148,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -16184,7 +16166,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -16202,7 +16184,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -16220,7 +16202,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -16238,7 +16220,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -16256,7 +16238,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -16274,7 +16256,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -16292,7 +16274,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -16310,7 +16292,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -16328,7 +16310,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -16346,7 +16328,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -16364,7 +16346,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -16382,7 +16364,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -16400,7 +16382,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -16418,7 +16400,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -16436,7 +16418,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -16454,7 +16436,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -16472,7 +16454,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -16490,7 +16472,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -16508,7 +16490,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -16575,18 +16557,18 @@
       <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.25" style="1"/>
-    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.21875" style="1"/>
+    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -16602,14 +16584,14 @@
       <c r="M1" s="49"/>
       <c r="N1" s="49"/>
       <c r="O1" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="P1" s="120" t="s">
-        <v>79</v>
+        <v>102</v>
+      </c>
+      <c r="P1" s="118" t="s">
+        <v>78</v>
       </c>
       <c r="Q1" s="70"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="50"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -16625,12 +16607,12 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P2" s="81"/>
       <c r="Q2" s="82"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A3" s="50"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -16649,7 +16631,7 @@
       <c r="P3" s="58"/>
       <c r="Q3" s="60"/>
     </row>
-    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A4" s="50"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -16668,13 +16650,13 @@
       <c r="P4" s="58"/>
       <c r="Q4" s="60"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="50"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87"/>
@@ -16689,7 +16671,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="51"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="50"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -16708,7 +16690,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="51"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -16727,7 +16709,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="51"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -16746,7 +16728,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="51"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -16765,73 +16747,73 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="51"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="121" t="str">
+      <c r="D10" s="119" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="50"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="88"/>
       <c r="G13" s="88"/>
@@ -16846,7 +16828,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="51"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="50"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -16865,7 +16847,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="51"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="50"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -16884,7 +16866,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="51"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="50"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -16903,7 +16885,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="51"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -16922,7 +16904,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="51"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="50"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -16941,14 +16923,14 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="51"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="46"/>
       <c r="F19" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="80"/>
       <c r="H19" s="80"/>
@@ -16962,7 +16944,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="51"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="50"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -16981,7 +16963,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="51"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="50"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -17000,7 +16982,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="51"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -17019,7 +17001,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="51"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="50"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -17038,7 +17020,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="51"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -17057,7 +17039,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="51"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -17076,7 +17058,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="51"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -17095,7 +17077,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="51"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -17114,7 +17096,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="51"/>
     </row>
-    <row r="28" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -17124,7 +17106,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J28" s="84"/>
       <c r="K28" s="84"/>
@@ -17135,7 +17117,7 @@
       <c r="P28" s="85"/>
       <c r="Q28" s="51"/>
     </row>
-    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A29" s="50"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -17145,24 +17127,24 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J29" s="72"/>
       <c r="K29" s="72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L29" s="72"/>
       <c r="M29" s="72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N29" s="72"/>
       <c r="O29" s="72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P29" s="77"/>
       <c r="Q29" s="51"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="50"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -17177,13 +17159,13 @@
       <c r="L30" s="74"/>
       <c r="M30" s="74"/>
       <c r="N30" s="74"/>
-      <c r="O30" s="122" t="s">
-        <v>111</v>
-      </c>
-      <c r="P30" s="123"/>
+      <c r="O30" s="120" t="s">
+        <v>110</v>
+      </c>
+      <c r="P30" s="121"/>
       <c r="Q30" s="51"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="50"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -17198,11 +17180,11 @@
       <c r="L31" s="74"/>
       <c r="M31" s="74"/>
       <c r="N31" s="74"/>
-      <c r="O31" s="124"/>
-      <c r="P31" s="125"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="123"/>
       <c r="Q31" s="51"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -17217,11 +17199,11 @@
       <c r="L32" s="74"/>
       <c r="M32" s="74"/>
       <c r="N32" s="74"/>
-      <c r="O32" s="124"/>
-      <c r="P32" s="125"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="123"/>
       <c r="Q32" s="51"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="50"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -17236,11 +17218,11 @@
       <c r="L33" s="74"/>
       <c r="M33" s="74"/>
       <c r="N33" s="74"/>
-      <c r="O33" s="124"/>
-      <c r="P33" s="125"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="123"/>
       <c r="Q33" s="51"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="50"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -17255,11 +17237,11 @@
       <c r="L34" s="74"/>
       <c r="M34" s="74"/>
       <c r="N34" s="74"/>
-      <c r="O34" s="124"/>
-      <c r="P34" s="125"/>
+      <c r="O34" s="122"/>
+      <c r="P34" s="123"/>
       <c r="Q34" s="51"/>
     </row>
-    <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -17274,11 +17256,11 @@
       <c r="L35" s="76"/>
       <c r="M35" s="76"/>
       <c r="N35" s="76"/>
-      <c r="O35" s="126"/>
-      <c r="P35" s="127"/>
+      <c r="O35" s="124"/>
+      <c r="P35" s="125"/>
       <c r="Q35" s="51"/>
     </row>
-    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116" tabRatio="732" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4110" tabRatio="732" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="153">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -1628,6 +1628,22 @@
     <rPh sb="16" eb="17">
       <t>シル</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1.1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1.1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1.1.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1.1.3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2440,6 +2456,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2448,10 +2470,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2463,14 +2485,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2481,26 +2503,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2520,10 +2530,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8584,16 +8600,16 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.21875" style="1"/>
-    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.25" style="1"/>
+    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
         <v>144</v>
       </c>
@@ -8618,7 +8634,7 @@
       </c>
       <c r="Q1" s="70"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="50"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -8639,7 +8655,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="82"/>
     </row>
-    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -8658,7 +8674,7 @@
       <c r="P3" s="58"/>
       <c r="Q3" s="60"/>
     </row>
-    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="50"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -8677,7 +8693,7 @@
       <c r="P4" s="58"/>
       <c r="Q4" s="60"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="50"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -8698,7 +8714,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="51"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="50"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -8717,7 +8733,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="51"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="50"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -8736,7 +8752,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="51"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="50"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -8755,7 +8771,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="51"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="50"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -8774,7 +8790,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="51"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -8795,7 +8811,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -8814,7 +8830,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -8833,7 +8849,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="50"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -8854,7 +8870,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="51"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="50"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -8873,7 +8889,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="51"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="50"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -8892,7 +8908,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="51"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="50"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -8911,7 +8927,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="51"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="50"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -8930,7 +8946,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="51"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="50"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -8949,7 +8965,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="51"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="50"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -8970,7 +8986,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="51"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="50"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -8989,7 +9005,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="51"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="50"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -9008,7 +9024,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="51"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="50"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -9027,7 +9043,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="51"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="50"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -9046,7 +9062,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="51"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="50"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -9065,7 +9081,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="51"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="50"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -9084,7 +9100,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="51"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="50"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -9103,7 +9119,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="51"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="50"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -9122,7 +9138,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="51"/>
     </row>
-    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -9141,7 +9157,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="51"/>
     </row>
-    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="50"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -9162,7 +9178,7 @@
       <c r="P29" s="85"/>
       <c r="Q29" s="51"/>
     </row>
-    <row r="30" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="50"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -9187,7 +9203,7 @@
       <c r="P30" s="77"/>
       <c r="Q30" s="51"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="50"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -9206,7 +9222,7 @@
       <c r="P31" s="78"/>
       <c r="Q31" s="51"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="50"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -9225,7 +9241,7 @@
       <c r="P32" s="78"/>
       <c r="Q32" s="51"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="50"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -9244,7 +9260,7 @@
       <c r="P33" s="78"/>
       <c r="Q33" s="51"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="50"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -9263,7 +9279,7 @@
       <c r="P34" s="78"/>
       <c r="Q34" s="51"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="50"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -9282,7 +9298,7 @@
       <c r="P35" s="78"/>
       <c r="Q35" s="51"/>
     </row>
-    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="50"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -9301,7 +9317,7 @@
       <c r="P36" s="79"/>
       <c r="Q36" s="51"/>
     </row>
-    <row r="37" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52"/>
       <c r="B37" s="53"/>
       <c r="C37" s="53"/>
@@ -9356,18 +9372,18 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -9404,8 +9420,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -9423,7 +9439,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -9445,7 +9461,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -9465,13 +9481,13 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="74">
         <v>3</v>
       </c>
@@ -9480,24 +9496,24 @@
       <c r="H6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
       <c r="L6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="74" t="s">
         <v>59</v>
       </c>
@@ -9506,18 +9522,18 @@
       <c r="H7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
       <c r="L7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -9535,7 +9551,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -9553,7 +9569,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -9571,7 +9587,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -9589,7 +9605,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -9607,7 +9623,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -9625,7 +9641,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
@@ -9643,7 +9659,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -9661,7 +9677,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
@@ -9679,7 +9695,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -9697,7 +9713,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
@@ -9717,7 +9733,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -9735,7 +9751,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
@@ -9753,7 +9769,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
@@ -9771,7 +9787,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -9789,7 +9805,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -9807,7 +9823,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
@@ -9825,7 +9841,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
@@ -9843,7 +9859,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
@@ -9861,7 +9877,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -9879,7 +9895,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
@@ -9897,7 +9913,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
@@ -9915,7 +9931,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
@@ -9933,7 +9949,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -9953,7 +9969,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
@@ -9971,7 +9987,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
@@ -9989,7 +10005,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -10007,7 +10023,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
@@ -10025,7 +10041,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
@@ -10043,7 +10059,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
@@ -10061,7 +10077,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
@@ -10079,7 +10095,7 @@
       <c r="O38" s="11"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -10099,17 +10115,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10132,18 +10148,18 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -10180,8 +10196,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -10199,7 +10215,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -10221,7 +10237,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -10241,7 +10257,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -10259,7 +10275,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27" t="s">
@@ -10281,17 +10297,17 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
       <c r="D8" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="114" t="s">
+      <c r="E8" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="114"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="36" t="s">
         <v>90</v>
       </c>
@@ -10301,17 +10317,17 @@
       <c r="I8" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="114" t="s">
+      <c r="J8" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -10332,7 +10348,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -10353,7 +10369,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -10374,7 +10390,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -10395,7 +10411,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -10416,7 +10432,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -10437,7 +10453,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -10458,7 +10474,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="27"/>
@@ -10479,7 +10495,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="33"/>
@@ -10500,7 +10516,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -10521,7 +10537,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -10542,7 +10558,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -10563,7 +10579,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -10584,7 +10600,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -10605,7 +10621,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -10626,7 +10642,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -10647,7 +10663,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -10668,7 +10684,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -10689,7 +10705,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -10707,7 +10723,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -10725,7 +10741,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -10743,7 +10759,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -10761,7 +10777,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -10779,7 +10795,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -10797,7 +10813,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -10815,7 +10831,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -10833,7 +10849,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -10851,7 +10867,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -10869,7 +10885,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -10887,7 +10903,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -10905,7 +10921,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -10925,12 +10941,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -10947,25 +10976,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10984,24 +11000,24 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="9" width="10.21875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="9" width="10.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -11026,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
@@ -11038,8 +11054,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11057,7 +11073,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -11073,7 +11089,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
@@ -11087,7 +11103,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11099,7 +11115,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -11117,7 +11133,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
         <v>6</v>
@@ -11139,7 +11155,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
@@ -11161,7 +11177,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11181,7 +11197,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -11199,7 +11215,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
@@ -11221,7 +11237,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -11241,7 +11257,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -11259,7 +11275,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -11277,7 +11293,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -11295,7 +11311,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>12</v>
@@ -11317,7 +11333,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
@@ -11337,7 +11353,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
@@ -11357,7 +11373,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -11375,7 +11391,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -11393,7 +11409,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -11411,7 +11427,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -11429,7 +11445,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -11447,7 +11463,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -11465,7 +11481,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -11483,7 +11499,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -11501,7 +11517,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -11519,7 +11535,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -11537,7 +11553,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -11555,7 +11571,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -11573,7 +11589,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -11591,7 +11607,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -11609,7 +11625,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -11627,7 +11643,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -11645,7 +11661,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -11665,7 +11681,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -11706,25 +11722,25 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
-    <col min="9" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
+    <col min="9" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -11761,8 +11777,8 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11780,7 +11796,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -11802,7 +11818,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -11822,7 +11838,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11840,27 +11856,27 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="104" t="s">
+      <c r="F7" s="107"/>
+      <c r="G7" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="104" t="s">
+      <c r="H7" s="107"/>
+      <c r="I7" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="105"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="107"/>
       <c r="M7" s="39" t="s">
         <v>25</v>
       </c>
@@ -11874,7 +11890,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -11882,20 +11898,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="103"/>
-      <c r="G8" s="102" t="s">
+      <c r="F8" s="100"/>
+      <c r="G8" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="99" t="s">
+      <c r="H8" s="100"/>
+      <c r="I8" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="101"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="103"/>
       <c r="M8" s="23" t="s">
         <v>34</v>
       </c>
@@ -11910,7 +11926,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -11918,18 +11934,18 @@
         <f t="shared" ref="D9:D19" si="1">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="102"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="102" t="s">
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="103"/>
-      <c r="I9" s="99" t="s">
+      <c r="H9" s="100"/>
+      <c r="I9" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="101"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="103"/>
       <c r="M9" s="23" t="s">
         <v>35</v>
       </c>
@@ -11944,7 +11960,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11952,18 +11968,18 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="102" t="s">
+      <c r="E10" s="99"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="103"/>
-      <c r="I10" s="99" t="s">
+      <c r="H10" s="100"/>
+      <c r="I10" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="101"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="103"/>
       <c r="M10" s="23" t="s">
         <v>36</v>
       </c>
@@ -11978,7 +11994,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -11986,18 +12002,18 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="102" t="s">
+      <c r="E11" s="99"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="103"/>
-      <c r="I11" s="99" t="s">
+      <c r="H11" s="100"/>
+      <c r="I11" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="101"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="103"/>
       <c r="M11" s="23" t="s">
         <v>83</v>
       </c>
@@ -12012,7 +12028,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -12020,20 +12036,20 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E12" s="102" t="s">
+      <c r="E12" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="103"/>
-      <c r="G12" s="102" t="s">
+      <c r="F12" s="100"/>
+      <c r="G12" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="103"/>
-      <c r="I12" s="99" t="s">
+      <c r="H12" s="100"/>
+      <c r="I12" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="101"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="103"/>
       <c r="M12" s="23" t="s">
         <v>34</v>
       </c>
@@ -12048,7 +12064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -12056,18 +12072,18 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="102" t="s">
+      <c r="E13" s="99"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="103"/>
-      <c r="I13" s="99" t="s">
+      <c r="H13" s="100"/>
+      <c r="I13" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="101"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="103"/>
       <c r="M13" s="23" t="s">
         <v>34</v>
       </c>
@@ -12082,7 +12098,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -12090,18 +12106,18 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E14" s="102"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="102" t="s">
+      <c r="E14" s="99"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="H14" s="103"/>
-      <c r="I14" s="99" t="s">
+      <c r="H14" s="100"/>
+      <c r="I14" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="101"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="103"/>
       <c r="M14" s="23" t="s">
         <v>36</v>
       </c>
@@ -12116,7 +12132,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -12124,20 +12140,20 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E15" s="102" t="s">
+      <c r="E15" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="103"/>
-      <c r="G15" s="102" t="s">
+      <c r="F15" s="100"/>
+      <c r="G15" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="H15" s="103"/>
-      <c r="I15" s="99" t="s">
+      <c r="H15" s="100"/>
+      <c r="I15" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="101"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="103"/>
       <c r="M15" s="23" t="s">
         <v>36</v>
       </c>
@@ -12152,7 +12168,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -12160,20 +12176,20 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E16" s="102" t="s">
+      <c r="E16" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="103"/>
-      <c r="G16" s="102" t="s">
+      <c r="F16" s="100"/>
+      <c r="G16" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="103"/>
-      <c r="I16" s="99" t="s">
+      <c r="H16" s="100"/>
+      <c r="I16" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="101"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="103"/>
       <c r="M16" s="23" t="s">
         <v>130</v>
       </c>
@@ -12188,7 +12204,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -12196,14 +12212,14 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="103"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="100"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
@@ -12212,7 +12228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -12220,14 +12236,14 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="103"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="100"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
@@ -12236,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -12244,14 +12260,14 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="103"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="100"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -12260,19 +12276,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
       <c r="M20" s="24"/>
       <c r="N20" s="25"/>
       <c r="O20" s="44" t="s">
@@ -12283,7 +12299,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -12301,7 +12317,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -12323,7 +12339,7 @@
       </c>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -12345,7 +12361,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -12367,7 +12383,7 @@
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -12385,7 +12401,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -12403,7 +12419,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -12421,7 +12437,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -12439,7 +12455,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -12457,7 +12473,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -12475,7 +12491,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -12493,7 +12509,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -12511,7 +12527,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -12529,7 +12545,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -12547,7 +12563,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -12565,7 +12581,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -12583,7 +12599,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -12610,20 +12626,21 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="45">
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E17:F17"/>
@@ -12640,21 +12657,20 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I17:L17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="3">
@@ -12684,22 +12700,22 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:K13"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -12724,7 +12740,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
@@ -12736,8 +12752,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -12755,7 +12771,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -12777,7 +12793,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -12797,24 +12813,24 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="104" t="s">
+      <c r="D6" s="115"/>
+      <c r="E6" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="114" t="s">
+      <c r="F6" s="107"/>
+      <c r="G6" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>87</v>
@@ -12823,162 +12839,162 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111" t="s">
+      <c r="D7" s="112"/>
+      <c r="E7" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="112"/>
-      <c r="G7" s="113" t="s">
+      <c r="F7" s="114"/>
+      <c r="G7" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="111" t="s">
+      <c r="D8" s="112"/>
+      <c r="E8" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="112"/>
-      <c r="G8" s="113" t="s">
+      <c r="F8" s="114"/>
+      <c r="G8" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111" t="s">
+      <c r="D9" s="112"/>
+      <c r="E9" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="112"/>
-      <c r="G9" s="115" t="s">
+      <c r="F9" s="114"/>
+      <c r="G9" s="111" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
@@ -12987,25 +13003,25 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13023,7 +13039,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>6</v>
@@ -13045,7 +13061,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
@@ -13065,7 +13081,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13083,7 +13099,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13101,7 +13117,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13119,7 +13135,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13137,7 +13153,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13155,7 +13171,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13173,7 +13189,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13191,7 +13207,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -13209,7 +13225,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -13227,7 +13243,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -13245,7 +13261,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -13263,7 +13279,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -13281,7 +13297,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -13299,7 +13315,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -13317,7 +13333,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -13335,7 +13351,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -13353,7 +13369,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -13371,7 +13387,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -13389,7 +13405,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -13407,7 +13423,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -13425,7 +13441,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -13445,16 +13461,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -13471,13 +13484,16 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13497,21 +13513,21 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -13536,7 +13552,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>3</v>
@@ -13548,8 +13564,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -13567,7 +13583,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
@@ -13589,7 +13605,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -13609,7 +13625,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -13627,7 +13643,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
@@ -13649,7 +13665,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -13667,7 +13683,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -13685,7 +13701,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -13703,7 +13719,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -13721,7 +13737,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -13739,7 +13755,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -13757,7 +13773,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -13775,7 +13791,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -13793,7 +13809,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13811,7 +13827,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -13829,7 +13845,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -13847,7 +13863,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13865,7 +13881,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13883,7 +13899,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13901,7 +13917,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13919,7 +13935,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13937,7 +13953,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13955,7 +13971,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13973,7 +13989,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -13991,7 +14007,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -14009,7 +14025,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -14027,7 +14043,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -14045,7 +14061,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -14063,7 +14079,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -14081,7 +14097,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14099,7 +14115,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14117,7 +14133,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14135,7 +14151,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14153,7 +14169,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14171,7 +14187,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14189,7 +14205,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -14207,7 +14223,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -14249,21 +14265,21 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -14288,7 +14304,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="65" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="N1" s="66" t="s">
         <v>3</v>
@@ -14300,8 +14316,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -14319,7 +14335,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
@@ -14341,7 +14357,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -14361,7 +14377,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -14379,7 +14395,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
@@ -14401,7 +14417,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -14419,7 +14435,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -14437,7 +14453,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -14455,7 +14471,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -14473,7 +14489,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -14491,7 +14507,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -14509,7 +14525,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -14527,7 +14543,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -14545,7 +14561,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -14563,7 +14579,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -14581,7 +14597,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -14599,7 +14615,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -14617,7 +14633,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -14635,7 +14651,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -14653,7 +14669,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -14671,7 +14687,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -14689,7 +14705,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -14707,7 +14723,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -14725,7 +14741,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -14743,7 +14759,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -14761,7 +14777,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -14779,7 +14795,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -14797,7 +14813,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -14815,7 +14831,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -14833,7 +14849,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14851,7 +14867,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14869,7 +14885,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14887,7 +14903,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14905,7 +14921,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14923,7 +14939,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14941,7 +14957,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -14959,7 +14975,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -15001,21 +15017,21 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -15040,7 +15056,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="63" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="N1" s="64" t="s">
         <v>3</v>
@@ -15052,8 +15068,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -15071,7 +15087,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
@@ -15093,7 +15109,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -15113,7 +15129,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -15131,7 +15147,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
@@ -15153,7 +15169,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -15171,7 +15187,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -15189,7 +15205,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -15207,7 +15223,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -15225,7 +15241,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -15243,7 +15259,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -15261,7 +15277,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -15279,7 +15295,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -15297,7 +15313,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -15315,7 +15331,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -15333,7 +15349,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -15351,7 +15367,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -15369,7 +15385,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -15387,7 +15403,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -15405,7 +15421,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -15423,7 +15439,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -15441,7 +15457,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -15459,7 +15475,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -15477,7 +15493,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -15495,7 +15511,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -15513,7 +15529,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -15531,7 +15547,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -15549,7 +15565,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -15567,7 +15583,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -15585,7 +15601,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -15603,7 +15619,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -15621,7 +15637,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -15639,7 +15655,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -15657,7 +15673,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -15675,7 +15691,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -15692,7 +15708,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -15710,7 +15726,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -15751,22 +15767,22 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:G16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -15791,7 +15807,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>3</v>
@@ -15803,8 +15819,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -15822,7 +15838,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -15844,7 +15860,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -15864,7 +15880,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -15882,29 +15898,29 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="106"/>
-      <c r="G7" s="105"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="107"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="105"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="107"/>
       <c r="L7" s="2"/>
       <c r="M7" s="67"/>
       <c r="N7" s="67"/>
       <c r="O7" s="67"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -15912,25 +15928,25 @@
       <c r="E8" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="105"/>
+      <c r="G8" s="107"/>
       <c r="H8" s="26"/>
       <c r="I8" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="104" t="s">
+      <c r="J8" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="105"/>
+      <c r="K8" s="107"/>
       <c r="L8" s="2"/>
       <c r="M8" s="68"/>
       <c r="N8" s="67"/>
       <c r="O8" s="67"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -15956,7 +15972,7 @@
       <c r="O9" s="26"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -15978,7 +15994,7 @@
       <c r="O10" s="26"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -15998,7 +16014,7 @@
       <c r="O11" s="26"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -16016,7 +16032,7 @@
       <c r="O12" s="26"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -16038,7 +16054,7 @@
       <c r="O13" s="26"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -16058,7 +16074,7 @@
       <c r="O14" s="26"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -16076,7 +16092,7 @@
       <c r="O15" s="26"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -16094,7 +16110,7 @@
       <c r="O16" s="26"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -16112,7 +16128,7 @@
       <c r="O17" s="26"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -16130,7 +16146,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -16148,7 +16164,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -16166,7 +16182,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -16184,7 +16200,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -16202,7 +16218,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -16220,7 +16236,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -16238,7 +16254,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -16256,7 +16272,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -16274,7 +16290,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -16292,7 +16308,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -16310,7 +16326,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -16328,7 +16344,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -16346,7 +16362,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -16364,7 +16380,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -16382,7 +16398,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -16400,7 +16416,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -16418,7 +16434,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -16436,7 +16452,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -16454,7 +16470,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -16472,7 +16488,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -16490,7 +16506,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -16510,15 +16526,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="J9:K9"/>
@@ -16535,6 +16542,15 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16557,16 +16573,16 @@
       <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.21875" style="1"/>
-    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.25" style="1"/>
+    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
         <v>104</v>
       </c>
@@ -16586,12 +16602,12 @@
       <c r="O1" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="118" t="s">
+      <c r="P1" s="124" t="s">
         <v>78</v>
       </c>
       <c r="Q1" s="70"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="50"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -16612,7 +16628,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="82"/>
     </row>
-    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -16631,7 +16647,7 @@
       <c r="P3" s="58"/>
       <c r="Q3" s="60"/>
     </row>
-    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="50"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -16650,7 +16666,7 @@
       <c r="P4" s="58"/>
       <c r="Q4" s="60"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="50"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -16671,7 +16687,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="51"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="50"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -16690,7 +16706,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="51"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="50"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -16709,7 +16725,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="51"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="50"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -16728,7 +16744,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="51"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="50"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -16747,67 +16763,67 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="51"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="119" t="str">
+      <c r="D10" s="125" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="125"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="50"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -16828,7 +16844,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="51"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="50"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -16847,7 +16863,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="51"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="50"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -16866,7 +16882,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="51"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="50"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -16885,7 +16901,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="51"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="50"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -16904,7 +16920,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="51"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="50"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -16923,7 +16939,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="51"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="50"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -16944,7 +16960,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="51"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="50"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -16963,7 +16979,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="51"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="50"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -16982,7 +16998,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="51"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="50"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -17001,7 +17017,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="51"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="50"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -17020,7 +17036,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="51"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="50"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -17039,7 +17055,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="51"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="50"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -17058,7 +17074,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="51"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="50"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -17077,7 +17093,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="51"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -17096,7 +17112,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="51"/>
     </row>
-    <row r="28" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A28" s="50"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -17117,7 +17133,7 @@
       <c r="P28" s="85"/>
       <c r="Q28" s="51"/>
     </row>
-    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="50"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -17144,7 +17160,7 @@
       <c r="P29" s="77"/>
       <c r="Q29" s="51"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="50"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -17159,13 +17175,13 @@
       <c r="L30" s="74"/>
       <c r="M30" s="74"/>
       <c r="N30" s="74"/>
-      <c r="O30" s="120" t="s">
+      <c r="O30" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="P30" s="121"/>
+      <c r="P30" s="119"/>
       <c r="Q30" s="51"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="50"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -17180,11 +17196,11 @@
       <c r="L31" s="74"/>
       <c r="M31" s="74"/>
       <c r="N31" s="74"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="123"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="121"/>
       <c r="Q31" s="51"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="50"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -17199,11 +17215,11 @@
       <c r="L32" s="74"/>
       <c r="M32" s="74"/>
       <c r="N32" s="74"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="123"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="121"/>
       <c r="Q32" s="51"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="50"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -17218,11 +17234,11 @@
       <c r="L33" s="74"/>
       <c r="M33" s="74"/>
       <c r="N33" s="74"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="123"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="121"/>
       <c r="Q33" s="51"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="50"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -17237,11 +17253,11 @@
       <c r="L34" s="74"/>
       <c r="M34" s="74"/>
       <c r="N34" s="74"/>
-      <c r="O34" s="122"/>
-      <c r="P34" s="123"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="121"/>
       <c r="Q34" s="51"/>
     </row>
-    <row r="35" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="50"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -17256,11 +17272,11 @@
       <c r="L35" s="76"/>
       <c r="M35" s="76"/>
       <c r="N35" s="76"/>
-      <c r="O35" s="124"/>
-      <c r="P35" s="125"/>
+      <c r="O35" s="122"/>
+      <c r="P35" s="123"/>
       <c r="Q35" s="51"/>
     </row>
-    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52"/>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
@@ -17281,12 +17297,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -17296,6 +17306,12 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4110" tabRatio="732" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116" tabRatio="732" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="149">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -1628,22 +1628,6 @@
     <rPh sb="16" eb="17">
       <t>シル</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.1.1.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.1.1.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.1.1.4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.1.1.3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2456,12 +2440,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2470,10 +2448,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2485,14 +2463,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2503,14 +2481,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2530,16 +2520,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8600,16 +8584,16 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.25" style="1"/>
-    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.21875" style="1"/>
+    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
         <v>144</v>
       </c>
@@ -8634,7 +8618,7 @@
       </c>
       <c r="Q1" s="70"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="50"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -8655,7 +8639,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="82"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A3" s="50"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -8674,7 +8658,7 @@
       <c r="P3" s="58"/>
       <c r="Q3" s="60"/>
     </row>
-    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A4" s="50"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -8693,7 +8677,7 @@
       <c r="P4" s="58"/>
       <c r="Q4" s="60"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="50"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -8714,7 +8698,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="51"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="50"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -8733,7 +8717,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="51"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -8752,7 +8736,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="51"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -8771,7 +8755,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="51"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -8790,7 +8774,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="51"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -8811,7 +8795,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -8830,7 +8814,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -8849,7 +8833,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="50"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -8870,7 +8854,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="51"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="50"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -8889,7 +8873,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="51"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="50"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -8908,7 +8892,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="51"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="50"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -8927,7 +8911,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="51"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -8946,7 +8930,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="51"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="50"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -8965,7 +8949,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="51"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -8986,7 +8970,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="51"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="50"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -9005,7 +8989,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="51"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="50"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -9024,7 +9008,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="51"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -9043,7 +9027,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="51"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="50"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -9062,7 +9046,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="51"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -9081,7 +9065,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="51"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -9100,7 +9084,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="51"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -9119,7 +9103,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="51"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -9138,7 +9122,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="51"/>
     </row>
-    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -9157,7 +9141,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="51"/>
     </row>
-    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A29" s="50"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -9178,7 +9162,7 @@
       <c r="P29" s="85"/>
       <c r="Q29" s="51"/>
     </row>
-    <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A30" s="50"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -9203,7 +9187,7 @@
       <c r="P30" s="77"/>
       <c r="Q30" s="51"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="50"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -9222,7 +9206,7 @@
       <c r="P31" s="78"/>
       <c r="Q31" s="51"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -9241,7 +9225,7 @@
       <c r="P32" s="78"/>
       <c r="Q32" s="51"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="50"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -9260,7 +9244,7 @@
       <c r="P33" s="78"/>
       <c r="Q33" s="51"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="50"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -9279,7 +9263,7 @@
       <c r="P34" s="78"/>
       <c r="Q34" s="51"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="50"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -9298,7 +9282,7 @@
       <c r="P35" s="78"/>
       <c r="Q35" s="51"/>
     </row>
-    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -9317,7 +9301,7 @@
       <c r="P36" s="79"/>
       <c r="Q36" s="51"/>
     </row>
-    <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52"/>
       <c r="B37" s="53"/>
       <c r="C37" s="53"/>
@@ -9372,18 +9356,18 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -9420,8 +9404,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -9439,7 +9423,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -9461,7 +9445,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -9481,13 +9465,13 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="74">
         <v>3</v>
       </c>
@@ -9496,24 +9480,24 @@
       <c r="H6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
       <c r="L6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="74" t="s">
         <v>59</v>
       </c>
@@ -9522,18 +9506,18 @@
       <c r="H7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
       <c r="L7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -9551,7 +9535,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -9569,7 +9553,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -9587,7 +9571,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -9605,7 +9589,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -9623,7 +9607,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -9641,7 +9625,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
@@ -9659,7 +9643,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -9677,7 +9661,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
@@ -9695,7 +9679,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -9713,7 +9697,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
@@ -9733,7 +9717,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -9751,7 +9735,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
@@ -9769,7 +9753,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
@@ -9787,7 +9771,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -9805,7 +9789,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -9823,7 +9807,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
@@ -9841,7 +9825,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
@@ -9859,7 +9843,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
@@ -9877,7 +9861,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -9895,7 +9879,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
@@ -9913,7 +9897,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
@@ -9931,7 +9915,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
@@ -9949,7 +9933,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -9969,7 +9953,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
@@ -9987,7 +9971,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
@@ -10005,7 +9989,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -10023,7 +10007,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
@@ -10041,7 +10025,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
@@ -10059,7 +10043,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
@@ -10077,7 +10061,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
@@ -10095,7 +10079,7 @@
       <c r="O38" s="11"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -10115,17 +10099,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10148,18 +10132,18 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -10196,8 +10180,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -10215,7 +10199,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -10237,7 +10221,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -10257,7 +10241,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -10275,7 +10259,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27" t="s">
@@ -10297,17 +10281,17 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
       <c r="D8" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="110"/>
+      <c r="F8" s="114"/>
       <c r="G8" s="36" t="s">
         <v>90</v>
       </c>
@@ -10317,17 +10301,17 @@
       <c r="I8" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="110" t="s">
+      <c r="J8" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -10348,7 +10332,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -10369,7 +10353,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -10390,7 +10374,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -10411,7 +10395,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -10432,7 +10416,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -10453,7 +10437,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -10474,7 +10458,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="27"/>
@@ -10495,7 +10479,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="33"/>
@@ -10516,7 +10500,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -10537,7 +10521,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -10558,7 +10542,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -10579,7 +10563,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -10600,7 +10584,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -10621,7 +10605,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -10642,7 +10626,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -10663,7 +10647,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -10684,7 +10668,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -10705,7 +10689,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -10723,7 +10707,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -10741,7 +10725,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -10759,7 +10743,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -10777,7 +10761,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -10795,7 +10779,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -10813,7 +10797,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -10831,7 +10815,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -10849,7 +10833,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -10867,7 +10851,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -10885,7 +10869,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -10903,7 +10887,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -10921,7 +10905,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -10941,25 +10925,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -10976,12 +10947,25 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11000,24 +10984,24 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="9" width="10.25" style="1" customWidth="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="9" width="10.21875" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="12" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -11042,7 +11026,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
@@ -11054,8 +11038,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11073,7 +11057,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -11089,7 +11073,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
@@ -11103,7 +11087,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11115,7 +11099,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -11133,7 +11117,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
         <v>6</v>
@@ -11155,7 +11139,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
@@ -11177,7 +11161,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11197,7 +11181,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -11215,7 +11199,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
@@ -11237,7 +11221,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -11257,7 +11241,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -11275,7 +11259,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -11293,7 +11277,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -11311,7 +11295,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>12</v>
@@ -11333,7 +11317,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
@@ -11353,7 +11337,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
@@ -11373,7 +11357,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -11391,7 +11375,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -11409,7 +11393,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -11427,7 +11411,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -11445,7 +11429,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -11463,7 +11447,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -11481,7 +11465,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -11499,7 +11483,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -11517,7 +11501,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -11535,7 +11519,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -11553,7 +11537,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -11571,7 +11555,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -11589,7 +11573,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -11607,7 +11591,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -11625,7 +11609,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -11643,7 +11627,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -11661,7 +11645,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -11681,7 +11665,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -11722,25 +11706,25 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
-    <col min="9" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -11777,8 +11761,8 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11796,7 +11780,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -11818,7 +11802,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -11838,7 +11822,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11856,27 +11840,27 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="106" t="s">
+      <c r="F7" s="105"/>
+      <c r="G7" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="107"/>
-      <c r="I7" s="106" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="107"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="39" t="s">
         <v>25</v>
       </c>
@@ -11890,7 +11874,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -11898,20 +11882,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="99" t="s">
+      <c r="F8" s="103"/>
+      <c r="G8" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="100"/>
-      <c r="I8" s="101" t="s">
+      <c r="H8" s="103"/>
+      <c r="I8" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="103"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="23" t="s">
         <v>34</v>
       </c>
@@ -11926,7 +11910,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -11934,18 +11918,18 @@
         <f t="shared" ref="D9:D19" si="1">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="99" t="s">
+      <c r="E9" s="102"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="100"/>
-      <c r="I9" s="101" t="s">
+      <c r="H9" s="103"/>
+      <c r="I9" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="103"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="101"/>
       <c r="M9" s="23" t="s">
         <v>35</v>
       </c>
@@ -11960,7 +11944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11968,18 +11952,18 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="99" t="s">
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="101" t="s">
+      <c r="H10" s="103"/>
+      <c r="I10" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="103"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
       <c r="M10" s="23" t="s">
         <v>36</v>
       </c>
@@ -11994,7 +11978,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -12002,18 +11986,18 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="99" t="s">
+      <c r="E11" s="102"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="100"/>
-      <c r="I11" s="101" t="s">
+      <c r="H11" s="103"/>
+      <c r="I11" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="103"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="101"/>
       <c r="M11" s="23" t="s">
         <v>83</v>
       </c>
@@ -12028,7 +12012,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -12036,20 +12020,20 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="100"/>
-      <c r="G12" s="99" t="s">
+      <c r="F12" s="103"/>
+      <c r="G12" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="101" t="s">
+      <c r="H12" s="103"/>
+      <c r="I12" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="103"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101"/>
       <c r="M12" s="23" t="s">
         <v>34</v>
       </c>
@@ -12064,7 +12048,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -12072,18 +12056,18 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="99" t="s">
+      <c r="E13" s="102"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="101" t="s">
+      <c r="H13" s="103"/>
+      <c r="I13" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="103"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101"/>
       <c r="M13" s="23" t="s">
         <v>34</v>
       </c>
@@ -12098,7 +12082,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -12106,18 +12090,18 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="99" t="s">
+      <c r="E14" s="102"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="H14" s="100"/>
-      <c r="I14" s="101" t="s">
+      <c r="H14" s="103"/>
+      <c r="I14" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="103"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="101"/>
       <c r="M14" s="23" t="s">
         <v>36</v>
       </c>
@@ -12132,7 +12116,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -12140,20 +12124,20 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E15" s="99" t="s">
+      <c r="E15" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="99" t="s">
+      <c r="F15" s="103"/>
+      <c r="G15" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="H15" s="100"/>
-      <c r="I15" s="101" t="s">
+      <c r="H15" s="103"/>
+      <c r="I15" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="103"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="101"/>
       <c r="M15" s="23" t="s">
         <v>36</v>
       </c>
@@ -12168,7 +12152,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -12176,20 +12160,20 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="99" t="s">
+      <c r="F16" s="103"/>
+      <c r="G16" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="100"/>
-      <c r="I16" s="101" t="s">
+      <c r="H16" s="103"/>
+      <c r="I16" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="103"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="101"/>
       <c r="M16" s="23" t="s">
         <v>130</v>
       </c>
@@ -12204,7 +12188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -12212,14 +12196,14 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="100"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="103"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
@@ -12228,7 +12212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -12236,14 +12220,14 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="100"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="103"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
@@ -12252,7 +12236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -12260,14 +12244,14 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="100"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="103"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -12276,19 +12260,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
       <c r="M20" s="24"/>
       <c r="N20" s="25"/>
       <c r="O20" s="44" t="s">
@@ -12299,7 +12283,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -12317,7 +12301,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -12339,7 +12323,7 @@
       </c>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -12361,7 +12345,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -12383,7 +12367,7 @@
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -12401,7 +12385,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -12419,7 +12403,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -12437,7 +12421,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -12455,7 +12439,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -12473,7 +12457,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -12491,7 +12475,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -12509,7 +12493,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -12527,7 +12511,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -12545,7 +12529,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -12563,7 +12547,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -12581,7 +12565,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -12599,7 +12583,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -12626,21 +12610,20 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="45">
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E17:F17"/>
@@ -12657,20 +12640,21 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="3">
@@ -12700,22 +12684,22 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -12740,7 +12724,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
@@ -12752,8 +12736,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -12771,7 +12755,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -12793,7 +12777,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -12813,24 +12797,24 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="106" t="s">
+      <c r="D6" s="109"/>
+      <c r="E6" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="107"/>
-      <c r="G6" s="110" t="s">
+      <c r="F6" s="105"/>
+      <c r="G6" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>87</v>
@@ -12839,162 +12823,162 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113" t="s">
+      <c r="D7" s="110"/>
+      <c r="E7" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="114"/>
-      <c r="G7" s="109" t="s">
+      <c r="F7" s="112"/>
+      <c r="G7" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113" t="s">
+      <c r="D8" s="110"/>
+      <c r="E8" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="114"/>
-      <c r="G8" s="109" t="s">
+      <c r="F8" s="112"/>
+      <c r="G8" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113" t="s">
+      <c r="D9" s="110"/>
+      <c r="E9" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="114"/>
-      <c r="G9" s="111" t="s">
+      <c r="F9" s="112"/>
+      <c r="G9" s="115" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
@@ -13003,25 +12987,25 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13039,7 +13023,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>6</v>
@@ -13061,7 +13045,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
@@ -13081,7 +13065,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13099,7 +13083,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13117,7 +13101,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13135,7 +13119,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13153,7 +13137,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13171,7 +13155,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13189,7 +13173,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13207,7 +13191,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -13225,7 +13209,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -13243,7 +13227,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -13261,7 +13245,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -13279,7 +13263,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -13297,7 +13281,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -13315,7 +13299,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -13333,7 +13317,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -13351,7 +13335,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -13369,7 +13353,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -13387,7 +13371,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -13405,7 +13389,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -13423,7 +13407,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -13441,7 +13425,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -13461,13 +13445,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -13484,16 +13471,13 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13513,21 +13497,21 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -13552,7 +13536,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>3</v>
@@ -13564,8 +13548,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -13583,7 +13567,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
@@ -13605,7 +13589,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -13625,7 +13609,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -13643,7 +13627,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
@@ -13665,7 +13649,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -13683,7 +13667,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -13701,7 +13685,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -13719,7 +13703,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -13737,7 +13721,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -13755,7 +13739,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -13773,7 +13757,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -13791,7 +13775,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -13809,7 +13793,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13827,7 +13811,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -13845,7 +13829,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -13863,7 +13847,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13881,7 +13865,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13899,7 +13883,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13917,7 +13901,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13935,7 +13919,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13953,7 +13937,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13971,7 +13955,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13989,7 +13973,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -14007,7 +13991,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -14025,7 +14009,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -14043,7 +14027,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -14061,7 +14045,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -14079,7 +14063,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -14097,7 +14081,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14115,7 +14099,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14133,7 +14117,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14151,7 +14135,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14169,7 +14153,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14187,7 +14171,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14205,7 +14189,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -14223,7 +14207,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -14265,21 +14249,21 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -14304,7 +14288,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="65" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="N1" s="66" t="s">
         <v>3</v>
@@ -14316,8 +14300,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -14335,7 +14319,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
@@ -14357,7 +14341,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -14377,7 +14361,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -14395,7 +14379,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
@@ -14417,7 +14401,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -14435,7 +14419,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -14453,7 +14437,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -14471,7 +14455,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -14489,7 +14473,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -14507,7 +14491,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -14525,7 +14509,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -14543,7 +14527,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -14561,7 +14545,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -14579,7 +14563,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -14597,7 +14581,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -14615,7 +14599,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -14633,7 +14617,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -14651,7 +14635,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -14669,7 +14653,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -14687,7 +14671,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -14705,7 +14689,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -14723,7 +14707,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -14741,7 +14725,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -14759,7 +14743,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -14777,7 +14761,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -14795,7 +14779,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -14813,7 +14797,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -14831,7 +14815,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -14849,7 +14833,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14867,7 +14851,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14885,7 +14869,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14903,7 +14887,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14921,7 +14905,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14939,7 +14923,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14957,7 +14941,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -14975,7 +14959,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -15017,21 +15001,21 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -15056,7 +15040,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="63" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="N1" s="64" t="s">
         <v>3</v>
@@ -15068,8 +15052,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -15087,7 +15071,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
@@ -15109,7 +15093,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -15129,7 +15113,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -15147,7 +15131,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
@@ -15169,7 +15153,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -15187,7 +15171,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -15205,7 +15189,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -15223,7 +15207,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -15241,7 +15225,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -15259,7 +15243,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -15277,7 +15261,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -15295,7 +15279,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -15313,7 +15297,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -15331,7 +15315,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -15349,7 +15333,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -15367,7 +15351,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -15385,7 +15369,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -15403,7 +15387,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -15421,7 +15405,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -15439,7 +15423,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -15457,7 +15441,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -15475,7 +15459,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -15493,7 +15477,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -15511,7 +15495,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -15529,7 +15513,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -15547,7 +15531,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -15565,7 +15549,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -15583,7 +15567,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -15601,7 +15585,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -15619,7 +15603,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -15637,7 +15621,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -15655,7 +15639,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -15673,7 +15657,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -15691,7 +15675,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -15708,7 +15692,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -15726,7 +15710,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -15767,22 +15751,22 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
@@ -15807,7 +15791,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>3</v>
@@ -15819,8 +15803,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -15838,7 +15822,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -15860,7 +15844,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -15880,7 +15864,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -15898,29 +15882,29 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="108"/>
-      <c r="G7" s="107"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="J7" s="108"/>
-      <c r="K7" s="107"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="105"/>
       <c r="L7" s="2"/>
       <c r="M7" s="67"/>
       <c r="N7" s="67"/>
       <c r="O7" s="67"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -15928,25 +15912,25 @@
       <c r="E8" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="106" t="s">
+      <c r="F8" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="107"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="26"/>
       <c r="I8" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="106" t="s">
+      <c r="J8" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="107"/>
+      <c r="K8" s="105"/>
       <c r="L8" s="2"/>
       <c r="M8" s="68"/>
       <c r="N8" s="67"/>
       <c r="O8" s="67"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -15972,7 +15956,7 @@
       <c r="O9" s="26"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -15994,7 +15978,7 @@
       <c r="O10" s="26"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -16014,7 +15998,7 @@
       <c r="O11" s="26"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -16032,7 +16016,7 @@
       <c r="O12" s="26"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -16054,7 +16038,7 @@
       <c r="O13" s="26"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -16074,7 +16058,7 @@
       <c r="O14" s="26"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -16092,7 +16076,7 @@
       <c r="O15" s="26"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -16110,7 +16094,7 @@
       <c r="O16" s="26"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -16128,7 +16112,7 @@
       <c r="O17" s="26"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -16146,7 +16130,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -16164,7 +16148,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -16182,7 +16166,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -16200,7 +16184,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -16218,7 +16202,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -16236,7 +16220,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -16254,7 +16238,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -16272,7 +16256,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -16290,7 +16274,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -16308,7 +16292,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -16326,7 +16310,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -16344,7 +16328,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -16362,7 +16346,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -16380,7 +16364,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -16398,7 +16382,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -16416,7 +16400,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -16434,7 +16418,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -16452,7 +16436,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -16470,7 +16454,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -16488,7 +16472,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -16506,7 +16490,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -16526,6 +16510,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="J9:K9"/>
@@ -16542,15 +16535,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16573,16 +16557,16 @@
       <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.25" style="1"/>
-    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.21875" style="1"/>
+    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
         <v>104</v>
       </c>
@@ -16602,12 +16586,12 @@
       <c r="O1" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="124" t="s">
+      <c r="P1" s="118" t="s">
         <v>78</v>
       </c>
       <c r="Q1" s="70"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="50"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -16628,7 +16612,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="82"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A3" s="50"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -16647,7 +16631,7 @@
       <c r="P3" s="58"/>
       <c r="Q3" s="60"/>
     </row>
-    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A4" s="50"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -16666,7 +16650,7 @@
       <c r="P4" s="58"/>
       <c r="Q4" s="60"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="50"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -16687,7 +16671,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="51"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="50"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -16706,7 +16690,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="51"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -16725,7 +16709,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="51"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -16744,7 +16728,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="51"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -16763,67 +16747,67 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="51"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="125" t="str">
+      <c r="D10" s="119" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="51"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="51"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="51"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="50"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -16844,7 +16828,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="51"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="50"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -16863,7 +16847,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="51"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="50"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -16882,7 +16866,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="51"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="50"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -16901,7 +16885,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="51"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -16920,7 +16904,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="51"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="50"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -16939,7 +16923,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="51"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -16960,7 +16944,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="51"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="50"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -16979,7 +16963,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="51"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="50"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -16998,7 +16982,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="51"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -17017,7 +17001,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="51"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="50"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -17036,7 +17020,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="51"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -17055,7 +17039,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="51"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -17074,7 +17058,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="51"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -17093,7 +17077,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="51"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -17112,7 +17096,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="51"/>
     </row>
-    <row r="28" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -17133,7 +17117,7 @@
       <c r="P28" s="85"/>
       <c r="Q28" s="51"/>
     </row>
-    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A29" s="50"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -17160,7 +17144,7 @@
       <c r="P29" s="77"/>
       <c r="Q29" s="51"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="50"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -17175,13 +17159,13 @@
       <c r="L30" s="74"/>
       <c r="M30" s="74"/>
       <c r="N30" s="74"/>
-      <c r="O30" s="118" t="s">
+      <c r="O30" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="P30" s="119"/>
+      <c r="P30" s="121"/>
       <c r="Q30" s="51"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="50"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -17196,11 +17180,11 @@
       <c r="L31" s="74"/>
       <c r="M31" s="74"/>
       <c r="N31" s="74"/>
-      <c r="O31" s="120"/>
-      <c r="P31" s="121"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="123"/>
       <c r="Q31" s="51"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -17215,11 +17199,11 @@
       <c r="L32" s="74"/>
       <c r="M32" s="74"/>
       <c r="N32" s="74"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="121"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="123"/>
       <c r="Q32" s="51"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="50"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -17234,11 +17218,11 @@
       <c r="L33" s="74"/>
       <c r="M33" s="74"/>
       <c r="N33" s="74"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="121"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="123"/>
       <c r="Q33" s="51"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="50"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -17253,11 +17237,11 @@
       <c r="L34" s="74"/>
       <c r="M34" s="74"/>
       <c r="N34" s="74"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="121"/>
+      <c r="O34" s="122"/>
+      <c r="P34" s="123"/>
       <c r="Q34" s="51"/>
     </row>
-    <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -17272,11 +17256,11 @@
       <c r="L35" s="76"/>
       <c r="M35" s="76"/>
       <c r="N35" s="76"/>
-      <c r="O35" s="122"/>
-      <c r="P35" s="123"/>
+      <c r="O35" s="124"/>
+      <c r="P35" s="125"/>
       <c r="Q35" s="51"/>
     </row>
-    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
@@ -17297,6 +17281,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -17306,12 +17296,6 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116" tabRatio="732" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4110" tabRatio="732" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="処理" sheetId="8" r:id="rId10"/>
     <sheet name="物理データ" sheetId="12" r:id="rId11"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">機能!$D$7:$O$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">画面２!$A$1:$P$39</definedName>
@@ -69,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="158">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -304,10 +307,6 @@
     <rPh sb="2" eb="3">
       <t>ド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -806,10 +805,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>YYYY/MM/DD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>概算工数（自動）</t>
     <rPh sb="0" eb="2">
       <t>ガイサン</t>
@@ -834,20 +829,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>低</t>
     <rPh sb="0" eb="1">
       <t>テイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1330,47 +1314,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「退出」ボタンをクリックすることでログインした人物の滞在表記を取り消し、ログアウト処理を行った後ログイン画面へ遷移する</t>
-    <rPh sb="1" eb="3">
-      <t>タイシュツ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジンブツ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>タイザイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログアウト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「戻る」ボタン処理</t>
     <rPh sb="1" eb="2">
       <t>モド</t>
@@ -1445,10 +1388,6 @@
     <rPh sb="8" eb="10">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出力</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1456,10 +1395,6 @@
   </si>
   <si>
     <t>小</t>
-  </si>
-  <si>
-    <t>現在「今いる！」ボタンを押している滞在ユーザーと非滞在ユーザを見極められる表記を行う</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>メニュー画面内滞在表示</t>
@@ -1582,33 +1517,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>若月</t>
+    <rPh sb="0" eb="2">
+      <t>ワカツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1.1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1.1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1.1.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>3.1.1.2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>若月</t>
-    <rPh sb="0" eb="2">
-      <t>ワカツキ</t>
-    </rPh>
+    <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本システムの目的は、研究室に誰がいるか表示することである。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モクテキ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在「今いる！」ボタンを押している滞在ユーザーと非滞在ユーザを見極められる表記を行う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1628,6 +1584,93 @@
     <rPh sb="16" eb="17">
       <t>シル</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本システムの目的は、研究室に誰がいるかリアルタイムで表示することである。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアルタイム処理</t>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15秒ごとに更新する
+更新データのみ更新される</t>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト処理</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「退出」ボタンをクリックすることでログインした人物の滞在表記を取り消す。</t>
+    <rPh sb="1" eb="3">
+      <t>タイシュツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト処理を行った後ログイン画面へ遷移する</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1635,7 +1678,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1736,6 +1779,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2141,7 +2191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2268,9 +2318,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2331,13 +2378,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2348,6 +2389,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2466,9 +2522,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2525,6 +2578,33 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2599,20 +2679,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>750795</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>68067</xdr:rowOff>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>380579</xdr:colOff>
+      <xdr:colOff>45462</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>3717</xdr:rowOff>
+      <xdr:rowOff>11684</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24"/>
+        <xdr:cNvPr id="8" name="図 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2625,8 +2705,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2386854" y="3620332"/>
-          <a:ext cx="3607872" cy="2120797"/>
+          <a:off x="2790265" y="3597088"/>
+          <a:ext cx="2869344" cy="2152008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6395,44 +6475,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>退出</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ログアウト</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
             <a:solidFill>
@@ -8288,6 +8336,45 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="表紙_基本"/>
+      <sheetName val="概略"/>
+      <sheetName val="機能"/>
+      <sheetName val="画面１"/>
+      <sheetName val="画面２"/>
+      <sheetName val="画面3"/>
+      <sheetName val="画面4"/>
+      <sheetName val="論理データ"/>
+      <sheetName val="表紙_詳細"/>
+      <sheetName val="処理"/>
+      <sheetName val="物理データ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="10">
+          <cell r="D10" t="str">
+            <v>（滞在管理システム）</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -8580,46 +8667,46 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.21875" style="1"/>
-    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.25" style="1"/>
+    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" s="69">
+    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+      <c r="A1" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="71">
         <v>41782</v>
       </c>
-      <c r="Q1" s="70"/>
-    </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
+      <c r="Q1" s="72"/>
+    </row>
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
+      <c r="A2" s="49"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="2"/>
@@ -8633,14 +8720,14 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="82"/>
-    </row>
-    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
+      <c r="O2" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="84"/>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="2"/>
@@ -8654,12 +8741,12 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="60"/>
-    </row>
-    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="59"/>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="49"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="2"/>
@@ -8673,71 +8760,71 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="60"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="59"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="49"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
+      <c r="E5" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="51"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="Q5" s="50"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="49"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="51"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="Q6" s="50"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="49"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="51"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
+      <c r="Q7" s="50"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="49"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="2"/>
@@ -8753,10 +8840,10 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="51"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
+      <c r="Q8" s="50"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="49"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="2"/>
@@ -8772,166 +8859,166 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="51"/>
-    </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
+      <c r="Q9" s="50"/>
+    </row>
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
+      <c r="D10" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="51"/>
-    </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
+      <c r="Q10" s="50"/>
+    </row>
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="51"/>
-    </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
+      <c r="Q11" s="50"/>
+    </row>
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="51"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
+      <c r="Q12" s="50"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="49"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
+      <c r="E13" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="51"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
+      <c r="Q13" s="50"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="49"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="51"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
+      <c r="Q14" s="50"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="49"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="51"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
+      <c r="Q15" s="50"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="49"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="51"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
+      <c r="Q16" s="50"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="49"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="51"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
+      <c r="Q17" s="50"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="49"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="2"/>
@@ -8947,202 +9034,202 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="51"/>
-    </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
+      <c r="Q18" s="50"/>
+    </row>
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="49"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="47"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="46"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="51"/>
-    </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
+      <c r="Q19" s="50"/>
+    </row>
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="49"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="47"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="46"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="51"/>
-    </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
+      <c r="Q20" s="50"/>
+    </row>
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="49"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="47"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="46"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="51"/>
-    </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
+      <c r="Q21" s="50"/>
+    </row>
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="49"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="47"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="46"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="51"/>
-    </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+      <c r="Q22" s="50"/>
+    </row>
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="49"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="47"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="46"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="51"/>
-    </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
+      <c r="Q23" s="50"/>
+    </row>
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="49"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="47"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="46"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="51"/>
-    </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
+      <c r="Q24" s="50"/>
+    </row>
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="49"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="47"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="46"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="51"/>
-    </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
+      <c r="Q25" s="50"/>
+    </row>
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="49"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="47"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="46"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="51"/>
-    </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
+      <c r="Q26" s="50"/>
+    </row>
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="49"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="47"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="46"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="51"/>
-    </row>
-    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
+      <c r="Q27" s="50"/>
+    </row>
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="49"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="47"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="46"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="51"/>
-    </row>
-    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
+      <c r="Q28" s="50"/>
+    </row>
+    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="49"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="2"/>
@@ -9152,18 +9239,18 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="51"/>
-    </row>
-    <row r="30" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
+      <c r="K29" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="50"/>
+    </row>
+    <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="49"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="2"/>
@@ -9173,22 +9260,22 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="51"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
+      <c r="K30" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="50"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A31" s="49"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="2"/>
@@ -9198,16 +9285,16 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="51"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="50"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A32" s="49"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="2"/>
@@ -9217,16 +9304,16 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="51"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="50"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="50"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A33" s="49"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="2"/>
@@ -9236,16 +9323,16 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="51"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="50"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="50"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A34" s="49"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="2"/>
@@ -9255,16 +9342,16 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="78"/>
-      <c r="Q34" s="51"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="80"/>
+      <c r="Q34" s="50"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A35" s="49"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="2"/>
@@ -9274,16 +9361,16 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="78"/>
-      <c r="Q35" s="51"/>
-    </row>
-    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="50"/>
+    </row>
+    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="49"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="2"/>
@@ -9293,32 +9380,32 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="51"/>
-    </row>
-    <row r="37" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="55"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="50"/>
+    </row>
+    <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -9338,7 +9425,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -9356,38 +9443,38 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="98"/>
+      <c r="H1" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -9398,14 +9485,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -9423,13 +9510,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -9445,11 +9532,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -9465,59 +9552,59 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="127" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="74">
+      <c r="B6" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="76">
         <v>3</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
+        <v>56</v>
+      </c>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
       <c r="L6" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
+        <v>56</v>
+      </c>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
+      <c r="B7" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
+        <v>55</v>
+      </c>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
       <c r="L7" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
+        <v>55</v>
+      </c>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -9535,7 +9622,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -9553,7 +9640,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -9571,7 +9658,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -9589,7 +9676,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -9607,7 +9694,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -9625,7 +9712,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
@@ -9643,7 +9730,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -9661,7 +9748,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
@@ -9679,7 +9766,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -9697,7 +9784,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
@@ -9713,11 +9800,11 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P18" s="42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -9735,7 +9822,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
@@ -9753,7 +9840,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
@@ -9771,7 +9858,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -9789,7 +9876,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -9807,7 +9894,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
@@ -9825,7 +9912,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
@@ -9843,7 +9930,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
@@ -9861,7 +9948,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -9879,7 +9966,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
@@ -9897,7 +9984,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
@@ -9915,7 +10002,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
@@ -9933,7 +10020,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -9949,11 +10036,11 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
@@ -9971,7 +10058,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
@@ -9989,7 +10076,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -10007,7 +10094,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
@@ -10025,7 +10112,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
@@ -10043,7 +10130,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
@@ -10061,7 +10148,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
@@ -10079,7 +10166,7 @@
       <c r="O38" s="11"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -10132,38 +10219,38 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="98"/>
+      <c r="H1" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -10174,14 +10261,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -10199,13 +10286,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10221,11 +10308,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -10241,7 +10328,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -10259,14 +10346,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>75</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>76</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
@@ -10281,37 +10368,37 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
       <c r="D8" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="114" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="114"/>
+      <c r="E8" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="115"/>
       <c r="G8" s="36" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
+        <v>88</v>
+      </c>
+      <c r="J8" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -10319,20 +10406,20 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="97"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="97"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -10340,20 +10427,20 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="97"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -10361,20 +10448,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="97"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="97"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -10382,20 +10469,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="93"/>
-      <c r="F12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="97"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -10403,20 +10490,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="97"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="97"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -10424,20 +10511,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="93"/>
-      <c r="F14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="97"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -10445,20 +10532,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="97"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="97"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="27"/>
@@ -10466,20 +10553,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="93"/>
-      <c r="F16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="97"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="33"/>
@@ -10487,20 +10574,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="97"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -10508,20 +10595,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="97"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="97"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -10529,20 +10616,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="97"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="97"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -10550,20 +10637,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="93"/>
-      <c r="F20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="97"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="97"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -10571,20 +10658,20 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="93"/>
-      <c r="F21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="97"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="97"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -10592,20 +10679,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="93"/>
-      <c r="F22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="97"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="97"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -10613,20 +10700,20 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="93"/>
-      <c r="F23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="97"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="97"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -10634,20 +10721,20 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="93"/>
-      <c r="F24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="97"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="97"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -10655,20 +10742,20 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="93"/>
-      <c r="F25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="97"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="97"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -10676,20 +10763,20 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="97"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="97"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -10707,7 +10794,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -10725,7 +10812,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -10743,7 +10830,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -10761,7 +10848,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -10779,7 +10866,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -10797,7 +10884,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -10815,7 +10902,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -10833,7 +10920,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -10851,7 +10938,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -10869,7 +10956,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -10887,7 +10974,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -10905,7 +10992,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -10983,63 +11070,63 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="9" width="10.21875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="9" width="10.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="98"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="P1" s="19">
+        <v>41782</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11057,7 +11144,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -11072,12 +11159,13 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -11086,8 +11174,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11098,8 +11187,9 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -11117,7 +11207,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
         <v>6</v>
@@ -11139,7 +11229,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
@@ -11161,12 +11251,12 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -11181,7 +11271,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -11199,7 +11289,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
@@ -11221,12 +11311,12 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -11241,7 +11331,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -11259,7 +11349,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -11277,7 +11367,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -11295,7 +11385,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>12</v>
@@ -11317,7 +11407,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
@@ -11337,7 +11427,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
@@ -11357,7 +11447,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -11375,7 +11465,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -11393,7 +11483,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -11411,7 +11501,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -11429,7 +11519,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -11447,7 +11537,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -11465,7 +11555,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -11483,7 +11573,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -11501,7 +11591,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -11519,7 +11609,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -11537,7 +11627,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -11555,7 +11645,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -11573,7 +11663,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -11591,7 +11681,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -11609,7 +11699,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -11627,7 +11717,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -11645,7 +11735,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -11665,7 +11755,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -11691,7 +11781,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -11704,65 +11794,65 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
-    <col min="9" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
+    <col min="9" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93" t="str">
-        <f>表紙_基本!D10</f>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
+        <f>[1]表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="4" t="s">
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="67" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="P1" s="19">
         <v>41782</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11780,10 +11870,10 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>20</v>
@@ -11802,11 +11892,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -11822,7 +11912,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11840,41 +11930,41 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="104" t="s">
+      <c r="F7" s="107"/>
+      <c r="G7" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="104" t="s">
+      <c r="H7" s="107"/>
+      <c r="I7" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="39" t="s">
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -11882,35 +11972,35 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="105"/>
+      <c r="G8" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="103"/>
-      <c r="G8" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="101"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="103"/>
       <c r="M8" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="23" t="s">
         <v>37</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>38</v>
       </c>
       <c r="P8" s="9">
         <f t="shared" ref="P8:P19" si="0">IF(N8="",0,IF(O8="",0,IF(N8="低",$N$22,IF(N8="中",$N$23,$N$24))*IF(O8="小",$O$22,IF(O8="中",$O$23,$O$24))))</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -11918,33 +12008,33 @@
         <f t="shared" ref="D9:D19" si="1">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="102"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="103"/>
-      <c r="I9" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="101"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="105"/>
+      <c r="I9" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="103"/>
       <c r="M9" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P9" s="9">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11952,33 +12042,33 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="102" t="s">
+      <c r="E10" s="104"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="105"/>
+      <c r="I10" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="103"/>
-      <c r="I10" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="101"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="103"/>
       <c r="M10" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P10" s="9">
         <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -11986,33 +12076,33 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="102" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="103"/>
-      <c r="I11" s="99" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="101"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="105"/>
+      <c r="I11" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="103"/>
       <c r="M11" s="23" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="P11" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -12020,35 +12110,35 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E12" s="102" t="s">
+      <c r="E12" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="105"/>
+      <c r="G12" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="103"/>
-      <c r="G12" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="103"/>
-      <c r="I12" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="101"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="103"/>
       <c r="M12" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="P12" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -12056,33 +12146,33 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="102" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="103"/>
-      <c r="I13" s="99" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="101"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="105"/>
+      <c r="I13" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="103"/>
       <c r="M13" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="P13" s="9">
         <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -12090,33 +12180,33 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E14" s="102"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="103"/>
-      <c r="I14" s="99" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="101"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="105"/>
+      <c r="I14" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="103"/>
       <c r="M14" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P14" s="9">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -12124,35 +12214,33 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E15" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="103"/>
-      <c r="G15" s="102" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="103"/>
-      <c r="I15" s="99" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="101"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="105"/>
+      <c r="I15" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="103"/>
       <c r="M15" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P15" s="9">
         <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -12160,35 +12248,35 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E16" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="103"/>
-      <c r="G16" s="102" t="s">
+      <c r="E16" s="129" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="130"/>
+      <c r="G16" s="129" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="130"/>
+      <c r="I16" s="135" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="131" t="s">
+        <v>148</v>
+      </c>
+      <c r="N16" s="131" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="131" t="s">
         <v>125</v>
-      </c>
-      <c r="H16" s="103"/>
-      <c r="I16" s="99" t="s">
-        <v>128</v>
-      </c>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>132</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -12196,23 +12284,35 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
+      <c r="E17" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="105"/>
+      <c r="G17" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="105"/>
+      <c r="I17" s="101" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
       <c r="L17" s="103"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
+      <c r="M17" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>125</v>
+      </c>
       <c r="P17" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -12220,23 +12320,35 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
+      <c r="E18" s="132" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="133"/>
+      <c r="G18" s="132" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="133"/>
+      <c r="I18" s="132" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="131" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="131" t="s">
+        <v>37</v>
+      </c>
       <c r="P18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -12244,14 +12356,14 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="103"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="69"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -12260,30 +12372,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
       <c r="M20" s="24"/>
       <c r="N20" s="25"/>
-      <c r="O20" s="44" t="s">
-        <v>81</v>
+      <c r="O20" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="P20" s="9">
         <f>SUM(P8:P19)</f>
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -12301,7 +12413,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -12323,7 +12435,7 @@
       </c>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -12337,15 +12449,11 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="42">
-        <v>1.2</v>
-      </c>
-      <c r="O23" s="42">
-        <v>150</v>
-      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -12359,15 +12467,11 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="42">
-        <v>1.4</v>
-      </c>
-      <c r="O24" s="42">
-        <v>300</v>
-      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -12385,7 +12489,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -12403,7 +12507,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -12421,7 +12525,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -12439,7 +12543,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -12457,7 +12561,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -12475,7 +12579,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -12493,7 +12597,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -12511,7 +12615,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -12529,7 +12633,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -12547,7 +12651,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -12565,42 +12669,6 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-    </row>
   </sheetData>
   <autoFilter ref="D7:O20">
     <filterColumn colId="1" showButton="0"/>
@@ -12609,7 +12677,7 @@
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
-  <mergeCells count="45">
+  <mergeCells count="39">
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:L13"/>
@@ -12617,19 +12685,13 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E14:F14"/>
@@ -12657,7 +12719,7 @@
     <mergeCell ref="I10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M19">
       <formula1>"入力,出力,処理,その他"</formula1>
     </dataValidation>
@@ -12669,7 +12731,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -12682,62 +12744,62 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:K13"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="98"/>
+      <c r="H1" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="P1" s="19">
+        <v>41782</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -12755,13 +12817,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -12777,11 +12839,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -12797,215 +12859,215 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="104" t="s">
+      <c r="C6" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="110"/>
+      <c r="E6" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="107"/>
+      <c r="G6" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="112"/>
-      <c r="G7" s="113" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="C7" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="113"/>
+      <c r="G7" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="112"/>
-      <c r="G8" s="113" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
+      <c r="C8" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="111"/>
+      <c r="E8" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="112"/>
-      <c r="G9" s="115" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="113"/>
+      <c r="G9" s="116" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13023,13 +13085,13 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -13045,11 +13107,11 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -13065,7 +13127,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13083,7 +13145,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13101,7 +13163,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13119,7 +13181,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13137,7 +13199,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13155,7 +13217,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13173,7 +13235,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13191,7 +13253,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -13209,7 +13271,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -13227,7 +13289,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -13245,7 +13307,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -13263,7 +13325,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -13281,7 +13343,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -13299,7 +13361,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -13317,7 +13379,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -13335,7 +13397,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -13353,7 +13415,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -13371,7 +13433,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -13389,7 +13451,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -13407,41 +13469,23 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="11"/>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -13481,7 +13525,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -13496,60 +13540,60 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="98"/>
+      <c r="H1" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>13</v>
+      <c r="M1" s="66" t="s">
+        <v>139</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="P1" s="19">
+        <v>41782</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -13567,13 +13611,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -13589,11 +13633,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -13609,7 +13653,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -13627,14 +13671,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -13649,7 +13693,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -13667,7 +13711,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -13685,7 +13729,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -13703,7 +13747,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -13721,7 +13765,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -13739,7 +13783,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -13757,7 +13801,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -13775,7 +13819,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -13793,7 +13837,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13811,7 +13855,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -13829,7 +13873,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -13847,7 +13891,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13865,7 +13909,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13883,7 +13927,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13901,7 +13945,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13919,7 +13963,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13937,7 +13981,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13955,7 +13999,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13973,7 +14017,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -13991,7 +14035,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -14009,7 +14053,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -14027,7 +14071,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -14045,7 +14089,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -14063,7 +14107,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -14081,7 +14125,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14099,7 +14143,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14117,7 +14161,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14135,7 +14179,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14153,7 +14197,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14171,7 +14215,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14189,7 +14233,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -14207,7 +14251,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -14233,7 +14277,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -14249,59 +14293,59 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="66" t="s">
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="66" t="s">
+      <c r="H1" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="66" t="s">
+      <c r="M1" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="63" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="P1" s="19">
+        <v>41782</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -14319,13 +14363,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -14341,11 +14385,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -14361,7 +14405,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -14379,14 +14423,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -14401,7 +14445,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -14419,7 +14463,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -14437,7 +14481,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -14455,7 +14499,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -14473,7 +14517,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -14491,7 +14535,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -14509,7 +14553,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -14527,7 +14571,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -14545,7 +14589,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -14563,7 +14607,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -14581,7 +14625,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -14599,7 +14643,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -14617,7 +14661,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -14635,7 +14679,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -14653,7 +14697,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -14671,7 +14715,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -14689,7 +14733,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -14707,7 +14751,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -14725,7 +14769,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -14743,7 +14787,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -14761,7 +14805,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -14779,7 +14823,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -14797,7 +14841,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -14815,7 +14859,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -14833,7 +14877,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14851,7 +14895,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14869,7 +14913,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14887,7 +14931,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14905,7 +14949,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14923,7 +14967,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14941,7 +14985,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -14959,7 +15003,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -14985,7 +15029,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -15000,60 +15044,60 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="64" t="s">
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="64" t="s">
+      <c r="H1" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="64" t="s">
+      <c r="M1" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="62" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="P1" s="19">
+        <v>41782</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -15071,13 +15115,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -15093,11 +15137,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15113,7 +15157,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -15131,14 +15175,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -15153,7 +15197,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -15171,7 +15215,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -15189,7 +15233,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -15207,7 +15251,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -15225,7 +15269,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -15243,7 +15287,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -15261,7 +15305,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -15279,7 +15323,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -15297,7 +15341,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -15315,7 +15359,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -15333,7 +15377,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -15351,7 +15395,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -15369,7 +15413,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -15387,7 +15431,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -15405,7 +15449,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -15423,7 +15467,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -15441,7 +15485,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -15459,7 +15503,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -15477,7 +15521,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -15495,7 +15539,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -15513,7 +15557,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -15531,7 +15575,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -15549,7 +15593,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -15567,7 +15611,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -15585,7 +15629,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -15603,7 +15647,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -15621,7 +15665,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -15639,7 +15683,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -15657,7 +15701,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -15675,7 +15719,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -15692,7 +15736,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -15710,7 +15754,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -15736,7 +15780,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -15752,59 +15796,59 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:G16"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="98"/>
+      <c r="H1" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="P1" s="19">
+        <v>41782</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -15822,13 +15866,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -15844,11 +15888,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15864,7 +15908,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -15882,237 +15926,237 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="104" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="106"/>
-      <c r="G7" s="105"/>
+      <c r="E7" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="108"/>
+      <c r="G7" s="107"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="104" t="s">
-        <v>140</v>
-      </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="105"/>
+      <c r="I7" s="106" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="108"/>
+      <c r="K7" s="107"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="105"/>
+      <c r="F8" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="107"/>
       <c r="H8" s="26"/>
       <c r="I8" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="105"/>
+      <c r="J8" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="107"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="116" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="117"/>
+        <v>67</v>
+      </c>
+      <c r="F9" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="118"/>
       <c r="H9" s="26"/>
       <c r="I9" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="116" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="117"/>
+        <v>67</v>
+      </c>
+      <c r="J9" s="117" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="118"/>
       <c r="L9" s="2"/>
       <c r="M9" s="38"/>
       <c r="N9" s="26"/>
       <c r="O9" s="26"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="116" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="117"/>
+      <c r="F10" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="118"/>
       <c r="H10" s="26"/>
       <c r="I10" s="32"/>
-      <c r="J10" s="116" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" s="117"/>
+      <c r="J10" s="117" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="118"/>
       <c r="L10" s="2"/>
       <c r="M10" s="38"/>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="117"/>
+      <c r="F11" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="118"/>
       <c r="H11" s="26"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="118"/>
       <c r="L11" s="2"/>
       <c r="M11" s="38"/>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="118"/>
       <c r="H12" s="26"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="118"/>
       <c r="L12" s="2"/>
       <c r="M12" s="38"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="116" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="117"/>
+        <v>69</v>
+      </c>
+      <c r="F13" s="117" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="118"/>
       <c r="H13" s="26"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="118"/>
       <c r="L13" s="2"/>
       <c r="M13" s="38"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="116" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="117"/>
+      <c r="F14" s="117" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="118"/>
       <c r="H14" s="26"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="118"/>
       <c r="L14" s="2"/>
       <c r="M14" s="38"/>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="118"/>
       <c r="H15" s="26"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="118"/>
       <c r="L15" s="2"/>
       <c r="M15" s="38"/>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="118"/>
       <c r="H16" s="2"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="118"/>
       <c r="L16" s="2"/>
       <c r="M16" s="38"/>
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="118"/>
       <c r="H17" s="2"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="118"/>
       <c r="L17" s="2"/>
       <c r="M17" s="38"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -16130,7 +16174,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -16148,7 +16192,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -16166,7 +16210,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -16184,7 +16228,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -16202,7 +16246,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -16220,7 +16264,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -16238,7 +16282,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -16256,7 +16300,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -16274,7 +16318,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -16292,7 +16336,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -16310,7 +16354,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -16328,7 +16372,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -16346,7 +16390,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -16364,7 +16408,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -16382,7 +16426,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -16400,7 +16444,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -16418,7 +16462,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -16436,7 +16480,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -16454,7 +16498,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -16472,7 +16516,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -16490,7 +16534,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -16538,7 +16582,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -16557,42 +16601,42 @@
       <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.21875" style="1"/>
-    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.25" style="1"/>
+    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q1" s="70"/>
-    </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
+    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+      <c r="A1" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="72"/>
+    </row>
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
+      <c r="A2" s="49"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="2"/>
@@ -16606,14 +16650,14 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="82"/>
-    </row>
-    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
+      <c r="O2" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="84"/>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="2"/>
@@ -16627,12 +16671,12 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="60"/>
-    </row>
-    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="59"/>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="49"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="2"/>
@@ -16646,71 +16690,71 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="60"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="59"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="49"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
+      <c r="E5" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="51"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="Q5" s="50"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="49"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="51"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="Q6" s="50"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="49"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="51"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
+      <c r="Q7" s="50"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="49"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="2"/>
@@ -16726,10 +16770,10 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="51"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
+      <c r="Q8" s="50"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="49"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="2"/>
@@ -16745,167 +16789,167 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="51"/>
-    </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
+      <c r="Q9" s="50"/>
+    </row>
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="119" t="str">
+      <c r="D10" s="120" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="51"/>
-    </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
+      <c r="Q10" s="50"/>
+    </row>
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="51"/>
-    </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
+      <c r="Q11" s="50"/>
+    </row>
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="51"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
+      <c r="Q12" s="50"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="49"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
+      <c r="E13" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="51"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
+      <c r="Q13" s="50"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="49"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="51"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
+      <c r="Q14" s="50"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="49"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="51"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
+      <c r="Q15" s="50"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="49"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="51"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
+      <c r="Q16" s="50"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="49"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="51"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
+      <c r="Q17" s="50"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="49"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="2"/>
@@ -16921,183 +16965,183 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="51"/>
-    </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
+      <c r="Q18" s="50"/>
+    </row>
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="49"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="47"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="46"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="51"/>
-    </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
+      <c r="Q19" s="50"/>
+    </row>
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="49"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="47"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="46"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="51"/>
-    </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
+      <c r="Q20" s="50"/>
+    </row>
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="49"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="47"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="46"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="51"/>
-    </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
+      <c r="Q21" s="50"/>
+    </row>
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="49"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="47"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="46"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="51"/>
-    </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+      <c r="Q22" s="50"/>
+    </row>
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="49"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="47"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="46"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="51"/>
-    </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
+      <c r="Q23" s="50"/>
+    </row>
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="49"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="47"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="46"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="51"/>
-    </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
+      <c r="Q24" s="50"/>
+    </row>
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="49"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="47"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="46"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="51"/>
-    </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
+      <c r="Q25" s="50"/>
+    </row>
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="49"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="47"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="46"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="51"/>
-    </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
+      <c r="Q26" s="50"/>
+    </row>
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="49"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="47"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="46"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="51"/>
-    </row>
-    <row r="28" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
+      <c r="Q27" s="50"/>
+    </row>
+    <row r="28" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="49"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="2"/>
@@ -17105,20 +17149,20 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="51"/>
-    </row>
-    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
+      <c r="I28" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="50"/>
+    </row>
+    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="49"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="2"/>
@@ -17126,26 +17170,26 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72" t="s">
+      <c r="I29" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="51"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="50"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A30" s="49"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="2"/>
@@ -17153,20 +17197,20 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="120" t="s">
-        <v>110</v>
-      </c>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="51"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="121" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="50"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A31" s="49"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="2"/>
@@ -17174,18 +17218,18 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="51"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="124"/>
+      <c r="Q31" s="50"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A32" s="49"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="2"/>
@@ -17193,18 +17237,18 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="51"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="50"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="124"/>
+      <c r="Q32" s="50"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A33" s="49"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="2"/>
@@ -17212,18 +17256,18 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="51"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="50"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="124"/>
+      <c r="Q33" s="50"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A34" s="49"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="2"/>
@@ -17231,18 +17275,18 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="122"/>
-      <c r="P34" s="123"/>
-      <c r="Q34" s="51"/>
-    </row>
-    <row r="35" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="124"/>
+      <c r="Q34" s="50"/>
+    </row>
+    <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="49"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="2"/>
@@ -17250,34 +17294,34 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="124"/>
-      <c r="P35" s="125"/>
-      <c r="Q35" s="51"/>
-    </row>
-    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="55"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="125"/>
+      <c r="P35" s="126"/>
+      <c r="Q35" s="50"/>
+    </row>
+    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="51"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4110" tabRatio="732" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4110" tabRatio="732" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -40,7 +35,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="5">画面3!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">画面4!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -50,7 +45,7 @@
     <author>田隈広紀</author>
   </authors>
   <commentList>
-    <comment ref="O7" authorId="0" shapeId="0">
+    <comment ref="O7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2191,7 +2186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2405,6 +2400,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2496,6 +2503,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2504,10 +2517,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2519,11 +2544,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2534,26 +2562,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2573,38 +2589,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8376,7 +8374,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8418,7 +8416,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8453,7 +8451,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8700,10 +8698,10 @@
       <c r="O1" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="71">
+      <c r="P1" s="75">
         <v>41782</v>
       </c>
-      <c r="Q1" s="72"/>
+      <c r="Q1" s="76"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="49"/>
@@ -8720,11 +8718,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="83" t="s">
+      <c r="O2" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="84"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
@@ -8769,17 +8767,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -8790,15 +8788,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -8809,15 +8807,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -8865,19 +8863,19 @@
       <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="50"/>
@@ -8886,17 +8884,17 @@
       <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="50"/>
@@ -8905,17 +8903,17 @@
       <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="50"/>
@@ -8925,17 +8923,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -8946,15 +8944,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -8965,15 +8963,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -8984,15 +8982,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -9003,15 +9001,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -9042,15 +9040,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
       <c r="M19" s="46"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -9063,13 +9061,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
       <c r="M20" s="46"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -9082,13 +9080,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
       <c r="M21" s="46"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -9101,13 +9099,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="46"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
       <c r="M22" s="46"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -9120,13 +9118,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
       <c r="M23" s="46"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -9139,13 +9137,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
       <c r="M24" s="46"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -9158,13 +9156,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
       <c r="M25" s="46"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -9177,13 +9175,13 @@
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
       <c r="E26" s="46"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
       <c r="M26" s="46"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -9239,14 +9237,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="85" t="s">
+      <c r="K29" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="87"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="91"/>
       <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -9260,18 +9258,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="73" t="s">
+      <c r="K30" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74" t="s">
+      <c r="L30" s="78"/>
+      <c r="M30" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74" t="s">
+      <c r="N30" s="78"/>
+      <c r="O30" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="79"/>
+      <c r="P30" s="83"/>
       <c r="Q30" s="50"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -9285,12 +9283,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="80"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="84"/>
       <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -9304,12 +9302,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="80"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="84"/>
       <c r="Q32" s="50"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -9323,12 +9321,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="80"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="84"/>
       <c r="Q33" s="50"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -9342,12 +9340,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="80"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="84"/>
       <c r="Q34" s="50"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -9361,12 +9359,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="80"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="84"/>
       <c r="Q35" s="50"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -9380,12 +9378,12 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="85"/>
       <c r="Q36" s="50"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -9455,26 +9453,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="str">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -9554,54 +9552,54 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="76">
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="80">
         <v>3</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
       <c r="L6" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="76" t="s">
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
       <c r="H7" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
       <c r="L7" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -10186,17 +10184,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10231,26 +10229,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="str">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -10375,10 +10373,10 @@
       <c r="D8" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="115"/>
+      <c r="F8" s="120"/>
       <c r="G8" s="36" t="s">
         <v>86</v>
       </c>
@@ -10388,11 +10386,11 @@
       <c r="I8" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="115" t="s">
+      <c r="J8" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
@@ -10406,14 +10404,14 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="97"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="101"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="97"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="101"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="2"/>
@@ -10427,14 +10425,14 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="97"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="101"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="97"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="2"/>
@@ -10448,14 +10446,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="97"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="97"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="101"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="2"/>
@@ -10469,14 +10467,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="97"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="101"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="2"/>
@@ -10490,14 +10488,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="95"/>
-      <c r="F13" s="97"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="2"/>
@@ -10511,14 +10509,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="95"/>
-      <c r="F14" s="97"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="101"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="97"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="101"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="2"/>
@@ -10532,14 +10530,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="95"/>
-      <c r="F15" s="97"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="101"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="97"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="101"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="2"/>
@@ -10553,14 +10551,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="95"/>
-      <c r="F16" s="97"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="101"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="97"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="101"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" s="2"/>
@@ -10574,14 +10572,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="95"/>
-      <c r="F17" s="97"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="101"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="97"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="101"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -10595,14 +10593,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="97"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="101"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="97"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="101"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -10616,14 +10614,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="95"/>
-      <c r="F19" s="97"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="101"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="97"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="101"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -10637,14 +10635,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="97"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="97"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="101"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -10658,14 +10656,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="97"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="101"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="97"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="101"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -10679,14 +10677,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="95"/>
-      <c r="F22" s="97"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="101"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="97"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="101"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -10700,14 +10698,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="95"/>
-      <c r="F23" s="97"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="97"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="101"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -10721,14 +10719,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="95"/>
-      <c r="F24" s="97"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="101"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="97"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="101"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -10742,14 +10740,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="95"/>
-      <c r="F25" s="97"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="101"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="97"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="101"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -10763,14 +10761,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="95"/>
-      <c r="F26" s="97"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="101"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="97"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="101"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -11012,12 +11010,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -11034,25 +11045,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11089,26 +11087,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="str">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -11796,8 +11794,8 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:L12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11815,26 +11813,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="str">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99" t="str">
         <f>[1]表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="67" t="s">
         <v>2</v>
       </c>
@@ -11937,20 +11935,20 @@
       <c r="D7" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="106" t="s">
+      <c r="F7" s="117"/>
+      <c r="G7" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="107"/>
-      <c r="I7" s="106" t="s">
+      <c r="H7" s="117"/>
+      <c r="I7" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="107"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="117"/>
       <c r="M7" s="67" t="s">
         <v>25</v>
       </c>
@@ -11972,20 +11970,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="104" t="s">
+      <c r="F8" s="106"/>
+      <c r="G8" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="105"/>
-      <c r="I8" s="101" t="s">
+      <c r="H8" s="106"/>
+      <c r="I8" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="103"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="109"/>
       <c r="M8" s="23" t="s">
         <v>33</v>
       </c>
@@ -11997,7 +11995,7 @@
       </c>
       <c r="P8" s="9">
         <f t="shared" ref="P8:P19" si="0">IF(N8="",0,IF(O8="",0,IF(N8="低",$N$22,IF(N8="中",$N$23,$N$24))*IF(O8="小",$O$22,IF(O8="中",$O$23,$O$24))))</f>
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12008,18 +12006,18 @@
         <f t="shared" ref="D9:D19" si="1">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="104" t="s">
+      <c r="E9" s="105"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="105"/>
-      <c r="I9" s="101" t="s">
+      <c r="H9" s="106"/>
+      <c r="I9" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="103"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="109"/>
       <c r="M9" s="23" t="s">
         <v>34</v>
       </c>
@@ -12031,7 +12029,7 @@
       </c>
       <c r="P9" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -12042,18 +12040,18 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="104" t="s">
+      <c r="E10" s="105"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="101" t="s">
+      <c r="H10" s="106"/>
+      <c r="I10" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="103"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="109"/>
       <c r="M10" s="23" t="s">
         <v>35</v>
       </c>
@@ -12065,7 +12063,7 @@
       </c>
       <c r="P10" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12076,18 +12074,18 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="104" t="s">
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="105"/>
-      <c r="I11" s="101" t="s">
+      <c r="H11" s="106"/>
+      <c r="I11" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="103"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="109"/>
       <c r="M11" s="23" t="s">
         <v>141</v>
       </c>
@@ -12110,20 +12108,20 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E12" s="104" t="s">
+      <c r="E12" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="104" t="s">
+      <c r="F12" s="106"/>
+      <c r="G12" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="105"/>
-      <c r="I12" s="101" t="s">
+      <c r="H12" s="106"/>
+      <c r="I12" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="103"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="109"/>
       <c r="M12" s="23" t="s">
         <v>33</v>
       </c>
@@ -12146,18 +12144,18 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="104" t="s">
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="101" t="s">
+      <c r="H13" s="106"/>
+      <c r="I13" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="103"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="109"/>
       <c r="M13" s="23" t="s">
         <v>33</v>
       </c>
@@ -12169,7 +12167,7 @@
       </c>
       <c r="P13" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -12180,18 +12178,18 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="104" t="s">
+      <c r="E14" s="105"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="105"/>
-      <c r="I14" s="101" t="s">
+      <c r="H14" s="106"/>
+      <c r="I14" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="103"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="109"/>
       <c r="M14" s="23" t="s">
         <v>35</v>
       </c>
@@ -12203,7 +12201,7 @@
       </c>
       <c r="P14" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -12214,18 +12212,18 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="104" t="s">
+      <c r="E15" s="105"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="105" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="105"/>
-      <c r="I15" s="101" t="s">
+      <c r="H15" s="106"/>
+      <c r="I15" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="103"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="109"/>
       <c r="M15" s="23" t="s">
         <v>35</v>
       </c>
@@ -12237,7 +12235,7 @@
       </c>
       <c r="P15" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -12248,27 +12246,27 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E16" s="129" t="s">
+      <c r="E16" s="110" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="130"/>
-      <c r="G16" s="129" t="s">
+      <c r="F16" s="111"/>
+      <c r="G16" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="H16" s="130"/>
-      <c r="I16" s="135" t="s">
+      <c r="H16" s="111"/>
+      <c r="I16" s="112" t="s">
         <v>157</v>
       </c>
-      <c r="J16" s="136"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="131" t="s">
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="N16" s="131" t="s">
+      <c r="N16" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="131" t="s">
+      <c r="O16" s="71" t="s">
         <v>125</v>
       </c>
       <c r="P16" s="9">
@@ -12284,20 +12282,20 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="E17" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="105"/>
-      <c r="G17" s="104" t="s">
+      <c r="F17" s="106"/>
+      <c r="G17" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="105"/>
-      <c r="I17" s="101" t="s">
+      <c r="H17" s="106"/>
+      <c r="I17" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="103"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="109"/>
       <c r="M17" s="23" t="s">
         <v>141</v>
       </c>
@@ -12320,32 +12318,32 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="E18" s="132" t="s">
+      <c r="E18" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="133"/>
-      <c r="G18" s="132" t="s">
+      <c r="F18" s="73"/>
+      <c r="G18" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="H18" s="133"/>
-      <c r="I18" s="132" t="s">
+      <c r="H18" s="73"/>
+      <c r="I18" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="131" t="s">
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="131" t="s">
+      <c r="N18" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="131" t="s">
+      <c r="O18" s="71" t="s">
         <v>37</v>
       </c>
       <c r="P18" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12377,14 +12375,14 @@
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
       <c r="M20" s="24"/>
       <c r="N20" s="25"/>
       <c r="O20" s="43" t="s">
@@ -12392,7 +12390,7 @@
       </c>
       <c r="P20" s="9">
         <f>SUM(P8:P19)</f>
-        <v>200</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
@@ -12449,8 +12447,12 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="N23" s="138">
+        <v>1.2</v>
+      </c>
+      <c r="O23" s="138">
+        <v>150</v>
+      </c>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
@@ -12467,8 +12469,12 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="N24" s="138">
+        <v>1.4</v>
+      </c>
+      <c r="O24" s="138">
+        <v>300</v>
+      </c>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
@@ -12678,28 +12684,7 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="39">
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="I10:L10"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="A1:C1"/>
@@ -12716,7 +12701,28 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -12762,26 +12768,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="str">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -12862,21 +12868,21 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="106" t="s">
+      <c r="D6" s="125"/>
+      <c r="E6" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="107"/>
-      <c r="G6" s="115" t="s">
+      <c r="F6" s="117"/>
+      <c r="G6" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>83</v>
@@ -12888,21 +12894,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="112" t="s">
+      <c r="D7" s="122"/>
+      <c r="E7" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114" t="s">
+      <c r="F7" s="124"/>
+      <c r="G7" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -12912,21 +12918,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="112" t="s">
+      <c r="D8" s="122"/>
+      <c r="E8" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="113"/>
-      <c r="G8" s="114" t="s">
+      <c r="F8" s="124"/>
+      <c r="G8" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -12936,21 +12942,21 @@
     <row r="9" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112" t="s">
+      <c r="D9" s="122"/>
+      <c r="E9" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="113"/>
-      <c r="G9" s="116" t="s">
+      <c r="F9" s="124"/>
+      <c r="G9" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -12960,15 +12966,15 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -12978,15 +12984,15 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -12996,15 +13002,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -13014,15 +13020,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -13032,15 +13038,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>90</v>
@@ -13052,15 +13058,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -13489,16 +13495,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -13515,13 +13518,16 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13556,26 +13562,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="str">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -14308,26 +14314,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="str">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="63" t="s">
         <v>2</v>
       </c>
@@ -15044,7 +15050,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -15060,26 +15066,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="str">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="62" t="s">
         <v>2</v>
       </c>
@@ -15811,26 +15817,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="str">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -15931,17 +15937,17 @@
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="108"/>
-      <c r="G7" s="107"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="117"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="J7" s="108"/>
-      <c r="K7" s="107"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="2"/>
       <c r="M7" s="64"/>
       <c r="N7" s="64"/>
@@ -15956,18 +15962,18 @@
       <c r="E8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="106" t="s">
+      <c r="F8" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="107"/>
+      <c r="G8" s="117"/>
       <c r="H8" s="26"/>
       <c r="I8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="106" t="s">
+      <c r="J8" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="107"/>
+      <c r="K8" s="117"/>
       <c r="L8" s="2"/>
       <c r="M8" s="65"/>
       <c r="N8" s="64"/>
@@ -15982,18 +15988,18 @@
       <c r="E9" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="117" t="s">
+      <c r="F9" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="118"/>
+      <c r="G9" s="127"/>
       <c r="H9" s="26"/>
       <c r="I9" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="117" t="s">
+      <c r="J9" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="K9" s="118"/>
+      <c r="K9" s="127"/>
       <c r="L9" s="2"/>
       <c r="M9" s="38"/>
       <c r="N9" s="26"/>
@@ -16006,16 +16012,16 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="118"/>
+      <c r="G10" s="127"/>
       <c r="H10" s="26"/>
       <c r="I10" s="32"/>
-      <c r="J10" s="117" t="s">
+      <c r="J10" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="K10" s="118"/>
+      <c r="K10" s="127"/>
       <c r="L10" s="2"/>
       <c r="M10" s="38"/>
       <c r="N10" s="26"/>
@@ -16028,14 +16034,14 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="117" t="s">
+      <c r="F11" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="118"/>
+      <c r="G11" s="127"/>
       <c r="H11" s="26"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="118"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="127"/>
       <c r="L11" s="2"/>
       <c r="M11" s="38"/>
       <c r="N11" s="26"/>
@@ -16048,12 +16054,12 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="118"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="127"/>
       <c r="H12" s="26"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="118"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="127"/>
       <c r="L12" s="2"/>
       <c r="M12" s="38"/>
       <c r="N12" s="26"/>
@@ -16068,14 +16074,14 @@
       <c r="E13" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="117" t="s">
+      <c r="F13" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="118"/>
+      <c r="G13" s="127"/>
       <c r="H13" s="26"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="118"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="127"/>
       <c r="L13" s="2"/>
       <c r="M13" s="38"/>
       <c r="N13" s="26"/>
@@ -16088,14 +16094,14 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="117" t="s">
+      <c r="F14" s="126" t="s">
         <v>134</v>
       </c>
-      <c r="G14" s="118"/>
+      <c r="G14" s="127"/>
       <c r="H14" s="26"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="118"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="127"/>
       <c r="L14" s="2"/>
       <c r="M14" s="38"/>
       <c r="N14" s="26"/>
@@ -16108,12 +16114,12 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="118"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="127"/>
       <c r="H15" s="26"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="118"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="127"/>
       <c r="L15" s="2"/>
       <c r="M15" s="38"/>
       <c r="N15" s="26"/>
@@ -16126,12 +16132,12 @@
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="118"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
       <c r="H16" s="2"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="118"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="127"/>
       <c r="L16" s="2"/>
       <c r="M16" s="38"/>
       <c r="N16" s="26"/>
@@ -16144,12 +16150,12 @@
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="118"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
       <c r="H17" s="2"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="118"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="127"/>
       <c r="L17" s="2"/>
       <c r="M17" s="38"/>
       <c r="N17" s="26"/>
@@ -16554,15 +16560,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="J9:K9"/>
@@ -16579,6 +16576,15 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16630,10 +16636,10 @@
       <c r="O1" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="119" t="s">
+      <c r="P1" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="72"/>
+      <c r="Q1" s="76"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="49"/>
@@ -16650,11 +16656,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="83" t="s">
+      <c r="O2" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="84"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
@@ -16699,17 +16705,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -16720,15 +16726,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -16739,15 +16745,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -16795,20 +16801,20 @@
       <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="120" t="str">
+      <c r="D10" s="135" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="50"/>
@@ -16817,17 +16823,17 @@
       <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="50"/>
@@ -16836,17 +16842,17 @@
       <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="50"/>
@@ -16856,17 +16862,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -16877,15 +16883,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -16896,15 +16902,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -16915,15 +16921,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -16934,15 +16940,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -16973,15 +16979,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
       <c r="M19" s="46"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -16994,13 +17000,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
       <c r="M20" s="46"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -17013,13 +17019,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
       <c r="M21" s="46"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -17032,13 +17038,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="46"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
       <c r="M22" s="46"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -17051,13 +17057,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
       <c r="M23" s="46"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -17070,13 +17076,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
       <c r="M24" s="46"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -17089,13 +17095,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
       <c r="M25" s="46"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -17149,16 +17155,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="85" t="s">
+      <c r="I28" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="87"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="91"/>
       <c r="Q28" s="50"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -17170,22 +17176,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="73" t="s">
+      <c r="I29" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74" t="s">
+      <c r="J29" s="78"/>
+      <c r="K29" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74" t="s">
+      <c r="L29" s="78"/>
+      <c r="M29" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74" t="s">
+      <c r="N29" s="78"/>
+      <c r="O29" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="P29" s="79"/>
+      <c r="P29" s="83"/>
       <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -17197,16 +17203,16 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="121" t="s">
+      <c r="I30" s="79"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="P30" s="122"/>
+      <c r="P30" s="129"/>
       <c r="Q30" s="50"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -17218,14 +17224,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="124"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="130"/>
+      <c r="P31" s="131"/>
       <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -17237,14 +17243,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="124"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="130"/>
+      <c r="P32" s="131"/>
       <c r="Q32" s="50"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -17256,14 +17262,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="124"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="131"/>
       <c r="Q33" s="50"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -17275,14 +17281,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="124"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="130"/>
+      <c r="P34" s="131"/>
       <c r="Q34" s="50"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -17294,14 +17300,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="125"/>
-      <c r="P35" s="126"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="132"/>
+      <c r="P35" s="133"/>
       <c r="Q35" s="50"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -17325,12 +17331,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -17340,6 +17340,12 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4110" tabRatio="732" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116" tabRatio="732" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -35,7 +40,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="5">画面3!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">画面4!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -45,7 +50,7 @@
     <author>田隈広紀</author>
   </authors>
   <commentList>
-    <comment ref="O7" authorId="0">
+    <comment ref="O7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1608,13 +1613,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リアルタイム処理</t>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>15秒ごとに更新する
 更新データのみ更新される</t>
     <rPh sb="2" eb="3">
@@ -1668,12 +1666,19 @@
     <t>ログアウト処理を行った後ログイン画面へ遷移する</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>リアルタム処理</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1774,13 +1779,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="MS UI Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2186,7 +2184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2400,18 +2398,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2503,33 +2489,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3152,8 +3117,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3450290" y="3507436"/>
-          <a:ext cx="1483660" cy="503284"/>
+          <a:off x="3134060" y="3446476"/>
+          <a:ext cx="1323640" cy="491854"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -3553,7 +3518,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>ボタン押下</a:t>
+            <a:t>ボタン押</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3783,8 +3748,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7056344" y="1998008"/>
-          <a:ext cx="945776" cy="387724"/>
+          <a:off x="6366734" y="1971338"/>
+          <a:ext cx="839096" cy="380104"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -4072,18 +4037,138 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>退出</a:t>
+            <a:t>ログアウト</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>リンク押下</a:t>
+            <a:t>リンク押</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5836920" y="3741420"/>
+          <a:ext cx="754380" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>更新処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156729</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="カギ線コネクタ 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5338034" y="3446481"/>
+          <a:ext cx="465717" cy="245928"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -49086"/>
+            <a:gd name="adj2" fmla="val 192954"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5660,7 +5745,26 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ボタンを押すことで滞在表記を取り消し、ログアウト処理を行い、ログイン画面へ遷移する。</a:t>
+            <a:t>ボタンを押すことで滞在表記を取り消す。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト処理を行い、ログイン画面へ遷移する。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -5675,24 +5779,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
+      <xdr:colOff>179293</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
+      <xdr:rowOff>107577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>92986</xdr:colOff>
+      <xdr:colOff>92985</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>31376</xdr:rowOff>
+      <xdr:rowOff>40341</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="555812" y="1308847"/>
+          <a:off x="555811" y="1317812"/>
           <a:ext cx="5884186" cy="3850341"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5835,24 +5939,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5132</xdr:colOff>
+      <xdr:colOff>5131</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
+      <xdr:rowOff>107577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>92986</xdr:colOff>
+      <xdr:colOff>92985</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="569908" y="1308847"/>
+          <a:off x="569907" y="1317812"/>
           <a:ext cx="5870090" cy="215153"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5990,25 +6094,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>222327</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>145675</xdr:rowOff>
+      <xdr:rowOff>155804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>430305</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>311659</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:rowOff>117705</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="角丸四角形 21"/>
+        <xdr:cNvPr id="14" name="角丸四角形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3073103" y="1696569"/>
+          <a:off x="856715" y="1706698"/>
           <a:ext cx="1606473" cy="643219"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6162,19 +6266,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>98068</xdr:colOff>
+      <xdr:colOff>98067</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>120479</xdr:rowOff>
+      <xdr:rowOff>129444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>556850</xdr:colOff>
+      <xdr:colOff>556849</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>90292</xdr:rowOff>
+      <xdr:rowOff>99257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Object 7"/>
+        <xdr:cNvPr id="15" name="Object 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6187,7 +6291,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5046586" y="2523020"/>
+          <a:off x="5046585" y="2531985"/>
           <a:ext cx="1158029" cy="1843437"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6200,19 +6304,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>103681</xdr:colOff>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>120480</xdr:rowOff>
+      <xdr:rowOff>129445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>562462</xdr:colOff>
+      <xdr:colOff>562461</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>81956</xdr:rowOff>
+      <xdr:rowOff>90921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Object 4"/>
+        <xdr:cNvPr id="16" name="Object 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6225,7 +6329,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="856716" y="2523021"/>
+          <a:off x="856715" y="2531986"/>
           <a:ext cx="1158028" cy="1835100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6238,19 +6342,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>154405</xdr:colOff>
+      <xdr:colOff>154404</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>116312</xdr:rowOff>
+      <xdr:rowOff>125277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>613187</xdr:colOff>
+      <xdr:colOff>613186</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>90292</xdr:rowOff>
+      <xdr:rowOff>99257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Object 5"/>
+        <xdr:cNvPr id="17" name="Object 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6263,7 +6367,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2305934" y="2518853"/>
+          <a:off x="2305933" y="2527818"/>
           <a:ext cx="1158029" cy="1847604"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6276,19 +6380,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>126236</xdr:colOff>
+      <xdr:colOff>126235</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>116313</xdr:rowOff>
+      <xdr:rowOff>125278</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>585018</xdr:colOff>
+      <xdr:colOff>585017</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>93725</xdr:rowOff>
+      <xdr:rowOff>102690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Object 6"/>
+        <xdr:cNvPr id="18" name="Object 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6301,7 +6405,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3676260" y="2518854"/>
+          <a:off x="3676259" y="2527819"/>
           <a:ext cx="1158029" cy="1851036"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6313,25 +6417,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>654423</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>604221</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:rowOff>144599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>672352</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>622149</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:rowOff>117705</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="角丸四角形 26"/>
+        <xdr:cNvPr id="19" name="角丸四角形 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4903694" y="1685364"/>
+          <a:off x="2755750" y="1695493"/>
           <a:ext cx="1416423" cy="654424"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6490,6 +6594,158 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>98067</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>156145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>614717</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3746</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5046585" y="1707039"/>
+          <a:ext cx="1215897" cy="358589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1" i="1" u="sng"/>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6498,15 +6754,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>26895</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6515,8 +6771,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3204882" y="1479176"/>
-          <a:ext cx="795618" cy="493059"/>
+          <a:off x="2877671" y="1492624"/>
+          <a:ext cx="683559" cy="640976"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -8374,7 +8630,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8416,7 +8672,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8451,7 +8707,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8669,16 +8925,16 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.25" style="1"/>
-    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.21875" style="1"/>
+    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
         <v>136</v>
       </c>
@@ -8698,12 +8954,12 @@
       <c r="O1" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="75">
+      <c r="P1" s="71">
         <v>41782</v>
       </c>
-      <c r="Q1" s="76"/>
-    </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
+      <c r="Q1" s="72"/>
+    </row>
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -8718,13 +8974,13 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="87" t="s">
+      <c r="O2" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="88"/>
-    </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="P2" s="83"/>
+      <c r="Q2" s="84"/>
+    </row>
+    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -8743,7 +8999,7 @@
       <c r="P3" s="57"/>
       <c r="Q3" s="59"/>
     </row>
-    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -8762,66 +9018,66 @@
       <c r="P4" s="57"/>
       <c r="Q4" s="59"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="50"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="49"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="50"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="49"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="50"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="49"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -8840,7 +9096,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="50"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="49"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -8859,163 +9115,163 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="50"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="50"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="50"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="50"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="49"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="94" t="s">
+      <c r="E13" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="50"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="49"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="50"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="49"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="50"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="49"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="50"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="49"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="50"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="49"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -9034,161 +9290,161 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="50"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
       <c r="M19" s="46"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="50"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="49"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
       <c r="M20" s="46"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="50"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="49"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
       <c r="M21" s="46"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="50"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="46"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
       <c r="M22" s="46"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="50"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="49"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
       <c r="M23" s="46"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="50"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
       <c r="M24" s="46"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="50"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="49"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
       <c r="M25" s="46"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="50"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="49"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
       <c r="E26" s="46"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
       <c r="M26" s="46"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="50"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="49"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -9207,7 +9463,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="50"/>
     </row>
-    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -9226,7 +9482,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="50"/>
     </row>
-    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A29" s="49"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -9237,17 +9493,17 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="89" t="s">
+      <c r="K29" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="91"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="87"/>
       <c r="Q29" s="50"/>
     </row>
-    <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A30" s="49"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -9258,21 +9514,21 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="77" t="s">
+      <c r="K30" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78" t="s">
+      <c r="L30" s="74"/>
+      <c r="M30" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78" t="s">
+      <c r="N30" s="74"/>
+      <c r="O30" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="83"/>
+      <c r="P30" s="79"/>
       <c r="Q30" s="50"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="49"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -9283,15 +9539,15 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="84"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="80"/>
       <c r="Q31" s="50"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="49"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -9302,15 +9558,15 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="84"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="80"/>
       <c r="Q32" s="50"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="49"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -9321,15 +9577,15 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="84"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="80"/>
       <c r="Q33" s="50"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="49"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -9340,15 +9596,15 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="84"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="80"/>
       <c r="Q34" s="50"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="49"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -9359,15 +9615,15 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
-      <c r="P35" s="84"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="80"/>
       <c r="Q35" s="50"/>
     </row>
-    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="49"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -9378,15 +9634,15 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="85"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="81"/>
       <c r="Q36" s="50"/>
     </row>
-    <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="51"/>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
@@ -9441,38 +9697,38 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="99" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -9489,8 +9745,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -9508,7 +9764,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -9530,7 +9786,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -9550,59 +9806,59 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="80">
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="76">
         <v>3</v>
       </c>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
       <c r="L6" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="137"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="80" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
       <c r="L7" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -9620,7 +9876,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -9638,7 +9894,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -9656,7 +9912,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -9674,7 +9930,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -9692,7 +9948,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -9710,7 +9966,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
@@ -9728,7 +9984,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -9746,7 +10002,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
@@ -9764,7 +10020,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -9782,7 +10038,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
@@ -9802,7 +10058,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -9820,7 +10076,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
@@ -9838,7 +10094,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
@@ -9856,7 +10112,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -9874,7 +10130,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -9892,7 +10148,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
@@ -9910,7 +10166,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
@@ -9928,7 +10184,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
@@ -9946,7 +10202,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -9964,7 +10220,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
@@ -9982,7 +10238,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
@@ -10000,7 +10256,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
@@ -10018,7 +10274,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -10038,7 +10294,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
@@ -10056,7 +10312,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
@@ -10074,7 +10330,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -10092,7 +10348,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
@@ -10110,7 +10366,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
@@ -10128,7 +10384,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
@@ -10146,7 +10402,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
@@ -10164,7 +10420,7 @@
       <c r="O38" s="11"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -10217,38 +10473,38 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="99" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -10265,8 +10521,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -10284,7 +10540,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -10306,7 +10562,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -10326,7 +10582,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -10344,7 +10600,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27" t="s">
@@ -10366,17 +10622,17 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
       <c r="D8" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="120" t="s">
+      <c r="E8" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="120"/>
+      <c r="F8" s="109"/>
       <c r="G8" s="36" t="s">
         <v>86</v>
       </c>
@@ -10386,17 +10642,17 @@
       <c r="I8" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="120" t="s">
+      <c r="J8" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -10404,20 +10660,20 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="101"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="97"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="101"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="97"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -10425,20 +10681,20 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="101"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="97"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="101"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -10446,20 +10702,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="101"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="97"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="101"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="97"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -10467,20 +10723,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="101"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="97"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="101"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -10488,20 +10744,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="101"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="97"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="101"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="97"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -10509,20 +10765,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="101"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="97"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="101"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -10530,20 +10786,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="101"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="97"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="101"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="97"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="27"/>
@@ -10551,20 +10807,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="101"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="97"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="101"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="33"/>
@@ -10572,20 +10828,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="101"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="101"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="97"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -10593,20 +10849,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="101"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="97"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="101"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="97"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -10614,20 +10870,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="101"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="97"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="101"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="97"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -10635,20 +10891,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="99"/>
-      <c r="F20" s="101"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="97"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="101"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="97"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -10656,20 +10912,20 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="101"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="97"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="101"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="97"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -10677,20 +10933,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="99"/>
-      <c r="F22" s="101"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="97"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="101"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="97"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -10698,20 +10954,20 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="101"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="97"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="101"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="97"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -10719,20 +10975,20 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="101"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="97"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="101"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="97"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -10740,20 +10996,20 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="99"/>
-      <c r="F25" s="101"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="97"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="101"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="97"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -10761,20 +11017,20 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="99"/>
-      <c r="F26" s="101"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="97"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="101"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="97"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -10792,7 +11048,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -10810,7 +11066,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -10828,7 +11084,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -10846,7 +11102,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -10864,7 +11120,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -10882,7 +11138,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -10900,7 +11156,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -10918,7 +11174,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -10936,7 +11192,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -10954,7 +11210,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -10972,7 +11228,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -10990,7 +11246,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -11069,44 +11325,44 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="9" width="10.25" style="1" customWidth="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="9" width="10.21875" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="12" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="99" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -11123,8 +11379,8 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11142,7 +11398,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -11159,7 +11415,7 @@
       <c r="J4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
@@ -11174,7 +11430,7 @@
       <c r="J5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11187,7 +11443,7 @@
       <c r="J6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -11205,7 +11461,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
         <v>6</v>
@@ -11227,7 +11483,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
@@ -11249,7 +11505,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11269,7 +11525,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -11287,7 +11543,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
@@ -11309,7 +11565,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -11329,7 +11585,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -11347,7 +11603,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -11365,7 +11621,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -11383,7 +11639,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>12</v>
@@ -11405,7 +11661,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
@@ -11425,7 +11681,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
@@ -11445,7 +11701,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -11463,7 +11719,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -11481,7 +11737,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -11499,7 +11755,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -11517,7 +11773,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -11535,7 +11791,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -11553,7 +11809,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -11571,7 +11827,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -11589,7 +11845,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -11607,7 +11863,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -11625,7 +11881,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -11643,7 +11899,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -11661,7 +11917,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -11679,7 +11935,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -11697,7 +11953,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -11715,7 +11971,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -11733,7 +11989,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -11753,7 +12009,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -11794,45 +12050,45 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
-    <col min="9" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="99" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>[1]表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="67" t="s">
         <v>2</v>
       </c>
@@ -11849,8 +12105,8 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11868,7 +12124,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>143</v>
@@ -11890,7 +12146,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -11910,7 +12166,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11928,27 +12184,27 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="117"/>
-      <c r="G7" s="116" t="s">
+      <c r="F7" s="106"/>
+      <c r="G7" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="117"/>
-      <c r="I7" s="116" t="s">
+      <c r="H7" s="106"/>
+      <c r="I7" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="117"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="67" t="s">
         <v>25</v>
       </c>
@@ -11962,7 +12218,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -11970,20 +12226,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="105" t="s">
+      <c r="F8" s="103"/>
+      <c r="G8" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107" t="s">
+      <c r="H8" s="103"/>
+      <c r="I8" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="109"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="103"/>
       <c r="M8" s="23" t="s">
         <v>33</v>
       </c>
@@ -11994,30 +12250,30 @@
         <v>37</v>
       </c>
       <c r="P8" s="9">
-        <f t="shared" ref="P8:P19" si="0">IF(N8="",0,IF(O8="",0,IF(N8="低",$N$22,IF(N8="中",$N$23,$N$24))*IF(O8="小",$O$22,IF(O8="中",$O$23,$O$24))))</f>
+        <f>IF(N8="",0,IF(O8="",0,IF(N8="低",$N$22,IF(N8="中",$N$23,$N$24))*IF(O8="小",$O$22,IF(O8="中",$O$23,$O$24))))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="22">
-        <f t="shared" ref="D9:D19" si="1">ROW()-7</f>
+        <f t="shared" ref="D9:D19" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="105" t="s">
+      <c r="E9" s="101"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="107" t="s">
+      <c r="H9" s="103"/>
+      <c r="I9" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="109"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="103"/>
       <c r="M9" s="23" t="s">
         <v>34</v>
       </c>
@@ -12028,30 +12284,30 @@
         <v>61</v>
       </c>
       <c r="P9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P9:P19" si="1">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$22,IF(N9="中",$N$23,$N$24))*IF(O9="小",$O$22,IF(O9="中",$O$23,$O$24))))</f>
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="105"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="105" t="s">
+      <c r="E10" s="101"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="107" t="s">
+      <c r="H10" s="103"/>
+      <c r="I10" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="109"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="103"/>
       <c r="M10" s="23" t="s">
         <v>35</v>
       </c>
@@ -12062,30 +12318,30 @@
         <v>62</v>
       </c>
       <c r="P10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="31.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="105" t="s">
+      <c r="E11" s="101"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="106"/>
-      <c r="I11" s="107" t="s">
+      <c r="H11" s="103"/>
+      <c r="I11" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="109"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="103"/>
       <c r="M11" s="23" t="s">
         <v>141</v>
       </c>
@@ -12096,32 +12352,32 @@
         <v>61</v>
       </c>
       <c r="P11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="106"/>
-      <c r="G12" s="105" t="s">
+      <c r="F12" s="103"/>
+      <c r="G12" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="106"/>
-      <c r="I12" s="107" t="s">
+      <c r="H12" s="103"/>
+      <c r="I12" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="109"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="103"/>
       <c r="M12" s="23" t="s">
         <v>33</v>
       </c>
@@ -12132,30 +12388,30 @@
         <v>125</v>
       </c>
       <c r="P12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="31.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="105" t="s">
+      <c r="E13" s="101"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107" t="s">
+      <c r="H13" s="103"/>
+      <c r="I13" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="109"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="103"/>
       <c r="M13" s="23" t="s">
         <v>33</v>
       </c>
@@ -12166,30 +12422,30 @@
         <v>124</v>
       </c>
       <c r="P13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="31.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="105"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="105" t="s">
+      <c r="E14" s="101"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="106"/>
-      <c r="I14" s="107" t="s">
+      <c r="H14" s="103"/>
+      <c r="I14" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="109"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="103"/>
       <c r="M14" s="23" t="s">
         <v>35</v>
       </c>
@@ -12200,30 +12456,30 @@
         <v>37</v>
       </c>
       <c r="P14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="105" t="s">
+      <c r="E15" s="101"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="106"/>
-      <c r="I15" s="107" t="s">
-        <v>156</v>
-      </c>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="109"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="101" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="103"/>
       <c r="M15" s="23" t="s">
         <v>35</v>
       </c>
@@ -12234,68 +12490,68 @@
         <v>37</v>
       </c>
       <c r="P15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E16" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="103"/>
+      <c r="G16" s="101" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="103"/>
+      <c r="I16" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="P16" s="9">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E16" s="110" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="111"/>
-      <c r="G16" s="110" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="111"/>
-      <c r="I16" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="N16" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="P16" s="9">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" ht="31.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="105" t="s">
+      <c r="E17" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="106"/>
-      <c r="G17" s="105" t="s">
+      <c r="F17" s="103"/>
+      <c r="G17" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="106"/>
-      <c r="I17" s="107" t="s">
+      <c r="H17" s="103"/>
+      <c r="I17" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="109"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="103"/>
       <c r="M17" s="23" t="s">
         <v>141</v>
       </c>
@@ -12306,52 +12562,52 @@
         <v>125</v>
       </c>
       <c r="P17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" ht="31.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="22">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E18" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="103"/>
+      <c r="G18" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="103"/>
+      <c r="I18" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="9">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="O18" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="P18" s="9">
-        <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E19" s="68"/>
@@ -12366,23 +12622,23 @@
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
       <c r="M20" s="24"/>
       <c r="N20" s="25"/>
       <c r="O20" s="43" t="s">
@@ -12393,7 +12649,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -12411,7 +12667,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -12433,7 +12689,7 @@
       </c>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -12447,15 +12703,15 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="138">
+      <c r="N23" s="127">
         <v>1.2</v>
       </c>
-      <c r="O23" s="138">
+      <c r="O23" s="127">
         <v>150</v>
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -12469,15 +12725,15 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="138">
+      <c r="N24" s="127">
         <v>1.4</v>
       </c>
-      <c r="O24" s="138">
+      <c r="O24" s="127">
         <v>300</v>
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -12495,7 +12751,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -12513,7 +12769,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -12531,7 +12787,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -12549,7 +12805,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -12567,7 +12823,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -12585,7 +12841,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -12603,7 +12859,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -12621,7 +12877,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -12639,7 +12895,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -12657,7 +12913,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -12683,8 +12939,11 @@
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
-  <mergeCells count="39">
+  <mergeCells count="42">
     <mergeCell ref="I10:L10"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="A1:C1"/>
@@ -12752,42 +13011,42 @@
   </sheetPr>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="99" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -12804,8 +13063,8 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -12823,7 +13082,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -12845,7 +13104,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -12865,24 +13124,24 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="116" t="s">
+      <c r="D6" s="114"/>
+      <c r="E6" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="117"/>
-      <c r="G6" s="120" t="s">
+      <c r="F6" s="106"/>
+      <c r="G6" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>83</v>
@@ -12891,162 +13150,162 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="123" t="s">
+      <c r="D7" s="111"/>
+      <c r="E7" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="119" t="s">
+      <c r="F7" s="113"/>
+      <c r="G7" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="123" t="s">
+      <c r="D8" s="111"/>
+      <c r="E8" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="124"/>
-      <c r="G8" s="119" t="s">
+      <c r="F8" s="113"/>
+      <c r="G8" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123" t="s">
+      <c r="D9" s="111"/>
+      <c r="E9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="124"/>
-      <c r="G9" s="121" t="s">
+      <c r="F9" s="113"/>
+      <c r="G9" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>90</v>
@@ -13055,25 +13314,25 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13091,7 +13350,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>6</v>
@@ -13113,7 +13372,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
@@ -13133,7 +13392,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13151,7 +13410,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13169,7 +13428,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13187,7 +13446,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13205,7 +13464,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13223,7 +13482,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13241,7 +13500,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13259,7 +13518,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -13277,7 +13536,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -13295,7 +13554,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -13313,7 +13572,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -13331,7 +13590,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -13349,7 +13608,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -13367,7 +13626,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -13385,7 +13644,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -13403,7 +13662,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -13421,7 +13680,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -13439,7 +13698,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -13457,7 +13716,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -13475,7 +13734,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -13546,42 +13805,42 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="99" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -13598,8 +13857,8 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -13617,7 +13876,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
@@ -13639,7 +13898,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -13659,7 +13918,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -13677,7 +13936,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
@@ -13699,7 +13958,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -13717,7 +13976,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -13735,7 +13994,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -13753,7 +14012,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -13771,7 +14030,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -13789,7 +14048,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -13807,7 +14066,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -13825,7 +14084,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -13843,7 +14102,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -13861,7 +14120,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -13879,7 +14138,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -13897,7 +14156,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -13915,7 +14174,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -13933,7 +14192,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -13951,7 +14210,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -13969,7 +14228,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -13987,7 +14246,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -14005,7 +14264,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -14023,7 +14282,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -14041,7 +14300,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -14059,7 +14318,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -14077,7 +14336,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -14095,7 +14354,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -14113,7 +14372,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -14131,7 +14390,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14149,7 +14408,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14167,7 +14426,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14185,7 +14444,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14203,7 +14462,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14221,7 +14480,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14239,7 +14498,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -14257,7 +14516,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -14302,38 +14561,38 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="99" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="63" t="s">
         <v>2</v>
       </c>
@@ -14350,8 +14609,8 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -14369,7 +14628,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
@@ -14391,7 +14650,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -14411,7 +14670,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -14429,7 +14688,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
@@ -14451,7 +14710,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -14469,7 +14728,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -14487,7 +14746,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -14505,7 +14764,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -14523,7 +14782,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -14541,7 +14800,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -14559,7 +14818,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -14577,7 +14836,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -14595,7 +14854,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -14613,7 +14872,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -14631,7 +14890,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -14649,7 +14908,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -14667,7 +14926,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -14685,7 +14944,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -14703,7 +14962,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -14721,7 +14980,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -14739,7 +14998,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -14757,7 +15016,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -14775,7 +15034,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -14793,7 +15052,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -14811,7 +15070,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -14829,7 +15088,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -14847,7 +15106,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -14865,7 +15124,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -14883,7 +15142,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14901,7 +15160,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -14919,7 +15178,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -14937,7 +15196,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14955,7 +15214,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -14973,7 +15232,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -14991,7 +15250,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -15009,7 +15268,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -15051,41 +15310,41 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="99" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="62" t="s">
         <v>2</v>
       </c>
@@ -15102,8 +15361,8 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -15121,7 +15380,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>12</v>
@@ -15143,7 +15402,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -15163,7 +15422,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -15181,7 +15440,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
@@ -15203,7 +15462,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -15221,7 +15480,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -15239,7 +15498,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -15257,7 +15516,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -15275,7 +15534,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -15293,7 +15552,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -15311,7 +15570,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -15329,7 +15588,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -15347,7 +15606,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -15365,7 +15624,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -15383,7 +15642,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -15401,7 +15660,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -15419,7 +15678,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -15437,7 +15696,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -15455,7 +15714,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -15473,7 +15732,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -15491,7 +15750,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -15509,7 +15768,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -15527,7 +15786,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -15545,7 +15804,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -15563,7 +15822,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -15581,7 +15840,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -15599,7 +15858,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -15617,7 +15876,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -15635,7 +15894,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -15653,7 +15912,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -15671,7 +15930,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -15689,7 +15948,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -15707,7 +15966,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -15725,7 +15984,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -15742,7 +16001,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -15760,7 +16019,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -15802,41 +16061,41 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.21875" style="1"/>
+    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="99" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -15853,8 +16112,8 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -15872,7 +16131,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -15894,7 +16153,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -15914,7 +16173,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="26"/>
@@ -15932,29 +16191,29 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="118"/>
-      <c r="G7" s="117"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="116" t="s">
+      <c r="I7" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="J7" s="118"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="106"/>
       <c r="L7" s="2"/>
       <c r="M7" s="64"/>
       <c r="N7" s="64"/>
       <c r="O7" s="64"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
@@ -15962,25 +16221,25 @@
       <c r="E8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="116" t="s">
+      <c r="F8" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="117"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="26"/>
       <c r="I8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="116" t="s">
+      <c r="J8" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="117"/>
+      <c r="K8" s="106"/>
       <c r="L8" s="2"/>
       <c r="M8" s="65"/>
       <c r="N8" s="64"/>
       <c r="O8" s="64"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -15988,85 +16247,85 @@
       <c r="E9" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="126" t="s">
+      <c r="F9" s="115" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="127"/>
+      <c r="G9" s="116"/>
       <c r="H9" s="26"/>
       <c r="I9" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="126" t="s">
+      <c r="J9" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="K9" s="127"/>
+      <c r="K9" s="116"/>
       <c r="L9" s="2"/>
       <c r="M9" s="38"/>
       <c r="N9" s="26"/>
       <c r="O9" s="26"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="126" t="s">
+      <c r="F10" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="127"/>
+      <c r="G10" s="116"/>
       <c r="H10" s="26"/>
       <c r="I10" s="32"/>
-      <c r="J10" s="126" t="s">
+      <c r="J10" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="K10" s="127"/>
+      <c r="K10" s="116"/>
       <c r="L10" s="2"/>
       <c r="M10" s="38"/>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="127"/>
+      <c r="G11" s="116"/>
       <c r="H11" s="26"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="127"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="116"/>
       <c r="L11" s="2"/>
       <c r="M11" s="38"/>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="127"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="116"/>
       <c r="H12" s="26"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="127"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="116"/>
       <c r="L12" s="2"/>
       <c r="M12" s="38"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -16074,95 +16333,95 @@
       <c r="E13" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="126" t="s">
+      <c r="F13" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="127"/>
+      <c r="G13" s="116"/>
       <c r="H13" s="26"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="127"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="116"/>
       <c r="L13" s="2"/>
       <c r="M13" s="38"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="126" t="s">
+      <c r="F14" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="G14" s="127"/>
+      <c r="G14" s="116"/>
       <c r="H14" s="26"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="127"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="116"/>
       <c r="L14" s="2"/>
       <c r="M14" s="38"/>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="127"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="116"/>
       <c r="H15" s="26"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="127"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="116"/>
       <c r="L15" s="2"/>
       <c r="M15" s="38"/>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="127"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="116"/>
       <c r="H16" s="2"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="127"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="116"/>
       <c r="L16" s="2"/>
       <c r="M16" s="38"/>
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="116"/>
       <c r="H17" s="2"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="126"/>
-      <c r="K17" s="127"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="116"/>
       <c r="L17" s="2"/>
       <c r="M17" s="38"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -16180,7 +16439,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -16198,7 +16457,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -16216,7 +16475,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -16234,7 +16493,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -16252,7 +16511,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -16270,7 +16529,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -16288,7 +16547,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -16306,7 +16565,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -16324,7 +16583,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -16342,7 +16601,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -16360,7 +16619,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -16378,7 +16637,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -16396,7 +16655,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -16414,7 +16673,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -16432,7 +16691,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -16450,7 +16709,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -16468,7 +16727,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -16486,7 +16745,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -16504,7 +16763,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -16522,7 +16781,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -16540,7 +16799,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -16607,16 +16866,16 @@
       <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.25" style="1"/>
-    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.25" style="1"/>
+    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.21875" style="1"/>
+    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
         <v>100</v>
       </c>
@@ -16636,12 +16895,12 @@
       <c r="O1" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="134" t="s">
+      <c r="P1" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="76"/>
-    </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
+      <c r="Q1" s="72"/>
+    </row>
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -16656,13 +16915,13 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="87" t="s">
+      <c r="O2" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="88"/>
-    </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="P2" s="83"/>
+      <c r="Q2" s="84"/>
+    </row>
+    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -16681,7 +16940,7 @@
       <c r="P3" s="57"/>
       <c r="Q3" s="59"/>
     </row>
-    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -16700,66 +16959,66 @@
       <c r="P4" s="57"/>
       <c r="Q4" s="59"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="50"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="49"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="50"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="49"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="50"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="49"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -16778,7 +17037,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="50"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="49"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -16797,164 +17056,164 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="50"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="135" t="str">
+      <c r="D10" s="124" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="50"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="135"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="50"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
-      <c r="N12" s="135"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="50"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="49"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="94" t="s">
+      <c r="E13" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="50"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="49"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="50"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="49"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="50"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="49"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="50"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="49"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="50"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="49"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -16973,142 +17232,142 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="50"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
       <c r="M19" s="46"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="50"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="49"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
       <c r="M20" s="46"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="50"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="49"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
       <c r="M21" s="46"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="50"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="46"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
       <c r="M22" s="46"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="50"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="49"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
       <c r="M23" s="46"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="50"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
       <c r="M24" s="46"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="50"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="49"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
       <c r="M25" s="46"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="50"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="49"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -17127,7 +17386,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="50"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -17146,7 +17405,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="50"/>
     </row>
-    <row r="28" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A28" s="49"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -17155,19 +17414,19 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="89" t="s">
+      <c r="I28" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="91"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
       <c r="Q28" s="50"/>
     </row>
-    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A29" s="49"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -17176,25 +17435,25 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="77" t="s">
+      <c r="I29" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78" t="s">
+      <c r="J29" s="74"/>
+      <c r="K29" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78" t="s">
+      <c r="L29" s="74"/>
+      <c r="M29" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78" t="s">
+      <c r="N29" s="74"/>
+      <c r="O29" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="P29" s="83"/>
+      <c r="P29" s="79"/>
       <c r="Q29" s="50"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="49"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -17203,19 +17462,19 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="128" t="s">
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="P30" s="129"/>
+      <c r="P30" s="118"/>
       <c r="Q30" s="50"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="49"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -17224,17 +17483,17 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="131"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="120"/>
       <c r="Q31" s="50"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="49"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -17243,17 +17502,17 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="130"/>
-      <c r="P32" s="131"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="120"/>
       <c r="Q32" s="50"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="49"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -17262,17 +17521,17 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="131"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="119"/>
+      <c r="P33" s="120"/>
       <c r="Q33" s="50"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="49"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -17281,17 +17540,17 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="130"/>
-      <c r="P34" s="131"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="120"/>
       <c r="Q34" s="50"/>
     </row>
-    <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -17300,17 +17559,17 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="132"/>
-      <c r="P35" s="133"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="121"/>
+      <c r="P35" s="122"/>
       <c r="Q35" s="50"/>
     </row>
-    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="51"/>
       <c r="B36" s="52"/>
       <c r="C36" s="52"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_設計書_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116" tabRatio="732" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4110" tabRatio="732" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -1613,23 +1613,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>15秒ごとに更新する
-更新データのみ更新される</t>
-    <rPh sb="2" eb="3">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログアウト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1670,6 +1653,17 @@
     <t>リアルタム処理</t>
     <rPh sb="5" eb="7">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">15秒ごとに更新する
+</t>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2398,6 +2392,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2509,14 +2506,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2527,14 +2518,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2554,20 +2557,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3117,8 +3111,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3134060" y="3446476"/>
-          <a:ext cx="1323640" cy="491854"/>
+          <a:off x="3450290" y="3507436"/>
+          <a:ext cx="1483660" cy="503284"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -3748,8 +3742,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6366734" y="1971338"/>
-          <a:ext cx="839096" cy="380104"/>
+          <a:off x="7056344" y="1998008"/>
+          <a:ext cx="945776" cy="387724"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -5765,6 +5759,25 @@
               </a:solidFill>
             </a:rPr>
             <a:t>ログアウト処理を行い、ログイン画面へ遷移する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表示しきれない研究室が存在する場合スクロールによって全研究室を表示する。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -8925,16 +8938,16 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="8.44140625" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.44140625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.21875" style="1"/>
-    <col min="20" max="20" width="3.21875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.25" style="1"/>
+    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="55" t="s">
         <v>136</v>
       </c>
@@ -8954,12 +8967,12 @@
       <c r="O1" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="71">
+      <c r="P1" s="72">
         <v>41782</v>
       </c>
-      <c r="Q1" s="72"/>
-    </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+      <c r="Q1" s="73"/>
+    </row>
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="49"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -8974,13 +8987,13 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="83" t="s">
+      <c r="O2" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="84"/>
-    </row>
-    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85"/>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -8999,7 +9012,7 @@
       <c r="P3" s="57"/>
       <c r="Q3" s="59"/>
     </row>
-    <row r="4" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="49"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -9018,66 +9031,66 @@
       <c r="P4" s="57"/>
       <c r="Q4" s="59"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="49"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="50"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="49"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="50"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="49"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="50"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="49"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -9096,7 +9109,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="50"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="49"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -9115,163 +9128,163 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="50"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="50"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="50"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="50"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="49"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="50"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="49"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="50"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="49"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="50"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="49"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="50"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="49"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="50"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="49"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -9290,161 +9303,161 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="50"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="49"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
       <c r="M19" s="46"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="50"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="49"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
       <c r="M20" s="46"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="50"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="49"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
       <c r="M21" s="46"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="50"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="46"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
       <c r="M22" s="46"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="50"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="49"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
       <c r="M23" s="46"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="50"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="49"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
       <c r="M24" s="46"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="50"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="49"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
       <c r="M25" s="46"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="50"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="49"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
       <c r="E26" s="46"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
       <c r="M26" s="46"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="50"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="49"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -9463,7 +9476,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="50"/>
     </row>
-    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="49"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -9482,7 +9495,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="50"/>
     </row>
-    <row r="29" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="49"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -9493,17 +9506,17 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="85" t="s">
+      <c r="K29" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="88"/>
       <c r="Q29" s="50"/>
     </row>
-    <row r="30" spans="1:17" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="49"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -9514,21 +9527,21 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="73" t="s">
+      <c r="K30" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74" t="s">
+      <c r="L30" s="75"/>
+      <c r="M30" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74" t="s">
+      <c r="N30" s="75"/>
+      <c r="O30" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="79"/>
+      <c r="P30" s="80"/>
       <c r="Q30" s="50"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="49"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -9539,15 +9552,15 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="80"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="81"/>
       <c r="Q31" s="50"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="49"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -9558,15 +9571,15 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="80"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="81"/>
       <c r="Q32" s="50"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="49"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -9577,15 +9590,15 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="80"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="81"/>
       <c r="Q33" s="50"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="49"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -9596,15 +9609,15 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="80"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="81"/>
       <c r="Q34" s="50"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="49"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -9615,15 +9628,15 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="80"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="81"/>
       <c r="Q35" s="50"/>
     </row>
-    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="49"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -9634,15 +9647,15 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="81"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="82"/>
       <c r="Q36" s="50"/>
     </row>
-    <row r="37" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="51"/>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
@@ -9697,38 +9710,38 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.21875" style="1"/>
-    <col min="19" max="19" width="3.21875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.21875" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="str">
+      <c r="B1" s="94"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96" t="str">
         <f>表紙_基本!D10</f>
         <v>（滞在管理システム）</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -9745,8 +9758,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -9764,7 +9777,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
@@ -9786,7 +9799,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -9806,18 +9819,18 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"